--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="21480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-3500" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>TITLE</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Octeau, Damien and Jha, Somesh and Dering, Matthew and Mcdaniel, Patrick and Bartel, Alexandre and Li, Li and Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>Best Paper Award</t>
   </si>
 </sst>
 </file>
@@ -949,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1198,6 +1201,9 @@
       <c r="H9" t="s">
         <v>40</v>
       </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-3500" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="34660" yWindow="4600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>TITLE</t>
   </si>
@@ -108,9 +108,6 @@
     <t>The 37th International Conference on Software Engineering (ICSE 2015)</t>
   </si>
   <si>
-    <t>acceptance rate: 18.5%, 84/452</t>
-  </si>
-  <si>
     <t>https://sites.google.com/site/icctawebpage/</t>
   </si>
   <si>
@@ -190,6 +187,42 @@
   </si>
   <si>
     <t>Best Paper Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Doctoral Symposium of 38th International Conference on Software Engineering (ICSE-DS 2016) </t>
+  </si>
+  <si>
+    <t>li2016boosting</t>
+  </si>
+  <si>
+    <t>Li Li</t>
+  </si>
+  <si>
+    <t>Boosting Static Analysis of Android Apps through Code Instrumentation</t>
+  </si>
+  <si>
+    <t>Li, Li</t>
+  </si>
+  <si>
+    <t>li2016droidra</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Damien Octeau, and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Octeau, Damien and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>DroidRA: Taming Reflection to Support Whole-Program Analysis of Android Apps</t>
+  </si>
+  <si>
+    <t>The 2016 International Symposium on Software Testing and Analysis (ISSTA 2016)</t>
+  </si>
+  <si>
+    <t>acceptance rate: 25.17% (37/147)</t>
+  </si>
+  <si>
+    <t>acceptance rate: 18.5%, (84/452)</t>
   </si>
 </sst>
 </file>
@@ -231,8 +264,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,7 +473,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -526,6 +569,11 @@
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -621,6 +669,11 @@
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -950,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -985,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -997,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1005,7 +1058,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1014,21 +1067,21 @@
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1037,16 +1090,16 @@
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1063,13 +1116,13 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1086,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -1112,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1121,10 +1174,10 @@
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1144,13 +1197,13 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1167,10 +1220,10 @@
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1181,7 +1234,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1190,24 +1243,24 @@
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1219,16 +1272,68 @@
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>2016</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>2016</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -135,9 +135,6 @@
     <t>Li Li, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon</t>
   </si>
   <si>
-    <t>Li Li, Daoyuan Li, Alexandre Barte, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon</t>
-  </si>
-  <si>
     <t>The 23rd IEEE International Conference on Software Analysis, Evolution, and Reengineering (SANER 2016)</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>acceptance rate: 18.5%, (84/452)</t>
+  </si>
+  <si>
+    <t>Li Li, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1093,13 +1093,13 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1116,13 +1116,13 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1139,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -1165,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1177,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1197,13 +1197,13 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1220,10 +1220,10 @@
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1246,21 +1246,21 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1275,18 +1275,18 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1295,21 +1295,21 @@
         <v>2016</v>
       </c>
       <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1321,19 +1321,19 @@
         <v>2016</v>
       </c>
       <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>64</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>65</v>
-      </c>
-      <c r="K12" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34660" yWindow="4600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="30160" yWindow="6540" windowWidth="34540" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>TITLE</t>
   </si>
@@ -223,6 +223,21 @@
   </si>
   <si>
     <t>Li Li, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon</t>
+  </si>
+  <si>
+    <t>li2016mining</t>
+  </si>
+  <si>
+    <t>Li Li, Jabier Martinez, Tewfik Ziadi, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Martinez, Jabier and Ziadi, Tewfik and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>Mining Families of Android Applications for Extractive SPL Adoption</t>
+  </si>
+  <si>
+    <t>The 20th International Systems and Software Product Line Conference (SPLC 2016)</t>
   </si>
 </sst>
 </file>
@@ -264,8 +279,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -473,7 +490,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -574,6 +591,7 @@
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -674,6 +692,7 @@
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1336,6 +1355,29 @@
         <v>65</v>
       </c>
     </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>2016</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li.li/git_workspace/lilicoding.github.io/src/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="6540" windowWidth="34540" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="27960" yWindow="460" windowWidth="34540" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>TITLE</t>
   </si>
@@ -238,6 +243,24 @@
   </si>
   <si>
     <t>The 20th International Systems and Software Product Line Conference (SPLC 2016)</t>
+  </si>
+  <si>
+    <t>li2016accessing</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Yves Le Traon, Jacques Klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Le Traon, Yves and Klein, Jacques </t>
+  </si>
+  <si>
+    <t>The 32nd International Conference on Software Maintenance and Evolution (ICSME 2016)</t>
+  </si>
+  <si>
+    <t>Accessing Inaccessible Android APIs: An Empirical Study</t>
+  </si>
+  <si>
+    <t>acceptance rate: 29% (37/127)</t>
   </si>
 </sst>
 </file>
@@ -697,6 +720,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1022,13 +1050,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -1040,7 +1068,7 @@
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1075,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1121,7 +1149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1167,7 +1195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1228,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1251,7 +1279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1277,7 +1305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1303,7 +1331,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1326,7 +1354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1355,7 +1383,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1376,15 +1404,39 @@
       </c>
       <c r="H13" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>2016</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li.li/git_workspace/lilicoding.github.io/src/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27960" yWindow="460" windowWidth="34540" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="30160" yWindow="6540" windowWidth="34540" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>TITLE</t>
   </si>
@@ -261,6 +256,15 @@
   </si>
   <si>
     <t>acceptance rate: 29% (37/127)</t>
+  </si>
+  <si>
+    <t>li2016reflection</t>
+  </si>
+  <si>
+    <t>Reflection-Aware Static Analysis of Android Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 31st IEEE/ACM International Conference on Automated Software Engineering, Demo Track (ASE 2016) </t>
   </si>
 </sst>
 </file>
@@ -302,8 +306,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -513,7 +521,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -615,6 +623,8 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -716,6 +726,8 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1050,13 +1062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -1068,7 +1080,7 @@
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1331,7 +1343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1406,12 +1418,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1420,23 +1429,54 @@
         <v>2016</v>
       </c>
       <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="E15" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>77</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li.li/Project/github/lilicoding.github.io/src/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="6540" windowWidth="34540" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="30160" yWindow="6540" windowWidth="37040" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>TITLE</t>
   </si>
@@ -265,13 +273,31 @@
   </si>
   <si>
     <t xml:space="preserve">The 31st IEEE/ACM International Conference on Automated Software Engineering, Demo Track (ASE 2016) </t>
+  </si>
+  <si>
+    <t>Li, Li and Li, Daoyuan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves and Lo, David and Cavallaro, Lorenzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Android App Piggybacking: A Systematic Study of Malicious Code Grafting </t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Information Forensics &amp; Security (TIFS)</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li Li, Daoyuan Li, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon, David Lo and Lorenzo Cavallaro </t>
+  </si>
+  <si>
+    <t>li2017understanding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -287,6 +313,10 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana,Italic"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,11 +545,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1062,17 +1093,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="5" max="6" width="94.6640625" customWidth="1"/>
+    <col min="5" max="5" width="94.6640625" customWidth="1"/>
+    <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="97.33203125" customWidth="1"/>
     <col min="9" max="9" width="36.1640625" customWidth="1"/>
@@ -1080,7 +1112,7 @@
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1138,7 +1170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1161,7 +1193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1239,7 +1271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +1300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1317,7 +1349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1366,7 +1398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1395,7 +1427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1418,7 +1450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -1441,7 +1473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1468,15 +1500,36 @@
       </c>
       <c r="K15" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>2017</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="6540" windowWidth="37040" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>TITLE</t>
   </si>
@@ -291,6 +291,42 @@
   </si>
   <si>
     <t>li2017understanding</t>
+  </si>
+  <si>
+    <t>The Multi-Generation Repackaging Hypothesis</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Bartel, Alexandre and Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Alexandre Bartel, Jacques Klein, Yves Le Traon</t>
+  </si>
+  <si>
+    <t>li2017the</t>
+  </si>
+  <si>
+    <t>The 39th International Conference on Software Engineering, Poster Track (ICSE 2017)</t>
+  </si>
+  <si>
+    <t>Understanding Android App Piggybacking</t>
+  </si>
+  <si>
+    <t>li2017understanding2</t>
+  </si>
+  <si>
+    <t>Automatically locating malicious packages in piggybacked android apps</t>
+  </si>
+  <si>
+    <t>The 4th IEEE/ACM International Conference on Mobile Software Engineering and Systems (MobileSoft 2017)</t>
+  </si>
+  <si>
+    <t>Li, Li and Li, Daoyuan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Cai, Haipeng and Lo, David and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>Li Li, Daoyuan Li, Tegawendé F. Bissyandé, Jacques Klein, Haipeng Cai, David Lo, and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>li2017automatically</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1528,6 +1564,75 @@
         <v>84</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>2017</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>2017</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>2017</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="32720" yWindow="7480" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>TITLE</t>
   </si>
@@ -110,9 +110,6 @@
     <t>IccTA: Detecting Inter-Component Privacy Leaks in Android Apps</t>
   </si>
   <si>
-    <t>Li Li, Alexandre Bartel, Tegawendé Bissyande, Jacques Klein, Yves Le Traon, Steven Arzt, Siegfried Rasthofer, Eric Bodden, Damien Octeau and Patrick McDaniel</t>
-  </si>
-  <si>
     <t>The 37th International Conference on Software Engineering (ICSE 2015)</t>
   </si>
   <si>
@@ -327,6 +324,24 @@
   </si>
   <si>
     <t>li2017automatically</t>
+  </si>
+  <si>
+    <t>Static Analysis of Android Apps: A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>li2017static</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Mike Papadakis, Siegfried Rasthofer, Alexandre Bartel, Damien Octeau, Jacques Klein, Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li Li, Alexandre Bartel, Tegawendé F. Bissyandé Jacques Klein, Yves Le Traon, Steven Arzt, Siegfried Rasthofer, Eric Bodden, Damien Octeau and Patrick McDaniel</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Papadakis, Mike and Rasthofer, Siegfried and Bartel, Alexandre and Octeau, Damien and Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>Information and Software Technology</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1165,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1177,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1185,7 +1200,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1194,21 +1209,21 @@
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1217,16 +1232,16 @@
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1243,13 +1258,13 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1266,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -1289,22 +1304,22 @@
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1324,13 +1339,13 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1347,10 +1362,10 @@
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1361,7 +1376,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1370,24 +1385,24 @@
         <v>2016</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1399,21 +1414,21 @@
         <v>2016</v>
       </c>
       <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1422,21 +1437,21 @@
         <v>2016</v>
       </c>
       <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1448,24 +1463,24 @@
         <v>2016</v>
       </c>
       <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>64</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1474,21 +1489,21 @@
         <v>2016</v>
       </c>
       <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>71</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1497,21 +1512,21 @@
         <v>2016</v>
       </c>
       <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
         <v>61</v>
       </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
       <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
         <v>80</v>
-      </c>
-      <c r="H14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1523,50 +1538,50 @@
         <v>2016</v>
       </c>
       <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
         <v>74</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
         <v>75</v>
       </c>
-      <c r="G15" t="s">
+      <c r="K15" t="s">
         <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>2017</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1575,21 +1590,21 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1598,21 +1613,21 @@
         <v>2017</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1621,16 +1636,42 @@
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
         <v>95</v>
       </c>
-      <c r="H19" t="s">
-        <v>96</v>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>2017</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32720" yWindow="7480" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
   <si>
     <t>TITLE</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Combining Static Analysis with Probabilistic Models to Enable Market-Scale Android Inter-component Analysis</t>
   </si>
   <si>
-    <t>Damien Octeau, Somesh Jha, Matthew Dering, Patrick McDaniel, Alexandre Bartel, Li Li, Jacques Klein, and Yves Le Traon</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Potential Component Leaks in Android Apps: An Investigation into a New Feature Set for Malware Detection</t>
   </si>
   <si>
-    <t>Li Li, Kevin Allix, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé, and Jacques Klein</t>
-  </si>
-  <si>
     <t>li2015potential</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Automatically Exploiting Potential Component Leaks in Android Applications</t>
   </si>
   <si>
-    <t>Li Li, Alexandre Bartel, Jacques Klein, Yves Le Traon</t>
-  </si>
-  <si>
     <t>li2014automatically</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>li2016parameter</t>
   </si>
   <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon</t>
-  </si>
-  <si>
     <t>The 23rd IEEE International Conference on Software Analysis, Evolution, and Reengineering (SANER 2016)</t>
   </si>
   <si>
@@ -209,9 +197,6 @@
     <t>li2016droidra</t>
   </si>
   <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Damien Octeau, and Jacques Klein</t>
-  </si>
-  <si>
     <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Octeau, Damien and Klein, Jacques</t>
   </si>
   <si>
@@ -227,9 +212,6 @@
     <t>acceptance rate: 18.5%, (84/452)</t>
   </si>
   <si>
-    <t>Li Li, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon</t>
-  </si>
-  <si>
     <t>li2016mining</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>li2016accessing</t>
   </si>
   <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Yves Le Traon, Jacques Klein</t>
-  </si>
-  <si>
     <t xml:space="preserve">Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Le Traon, Yves and Klein, Jacques </t>
   </si>
   <si>
@@ -296,9 +275,6 @@
     <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Bartel, Alexandre and Klein, Jacques and Le Traon, Yves</t>
   </si>
   <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Alexandre Bartel, Jacques Klein, Yves Le Traon</t>
-  </si>
-  <si>
     <t>li2017the</t>
   </si>
   <si>
@@ -320,9 +296,6 @@
     <t>Li, Li and Li, Daoyuan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Cai, Haipeng and Lo, David and Le Traon, Yves</t>
   </si>
   <si>
-    <t>Li Li, Daoyuan Li, Tegawendé F. Bissyandé, Jacques Klein, Haipeng Cai, David Lo, and Yves Le Traon</t>
-  </si>
-  <si>
     <t>li2017automatically</t>
   </si>
   <si>
@@ -332,9 +305,6 @@
     <t>li2017static</t>
   </si>
   <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Mike Papadakis, Siegfried Rasthofer, Alexandre Bartel, Damien Octeau, Jacques Klein, Yves Le Traon</t>
-  </si>
-  <si>
     <t>Li Li, Alexandre Bartel, Tegawendé F. Bissyandé Jacques Klein, Yves Le Traon, Steven Arzt, Siegfried Rasthofer, Eric Bodden, Damien Octeau and Patrick McDaniel</t>
   </si>
   <si>
@@ -342,13 +312,90 @@
   </si>
   <si>
     <t>Information and Software Technology</t>
+  </si>
+  <si>
+    <t>POSTER: Detection of Information Leaks via Reflection in Android Apps</t>
+  </si>
+  <si>
+    <t>Gajrani, Jyoti and Li, Li and Laxmi, Vijay and Tripathi, Meenakshi and Gaur, Manoj Singh and Conti, Mauro</t>
+  </si>
+  <si>
+    <t>gajrani2017detection</t>
+  </si>
+  <si>
+    <t>The 2017 ACM on Asia Conference on Computer and Communications Security (AsiaCCS 2017)</t>
+  </si>
+  <si>
+    <t>Comprehending Malicious Android Apps By Mining Topic-Specific Data Flow Signatures</t>
+  </si>
+  <si>
+    <t>yang2017comprehending</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yang, Xinli and Lo, David and Li, Li and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Xia, Xin and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+    </r>
+  </si>
+  <si>
+    <t>Li Li, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Damien Octeau and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Yves Le Traon and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Alexandre Bartel, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Jyoti Gajrani, Li Li, Vijay Laxmi, Meenakshi Tripathi, Manoj Singh Gaur and Mauro Conti</t>
+  </si>
+  <si>
+    <t>Li Li, Daoyuan Li, Tegawendé F. Bissyandé, Jacques Klein, Haipeng Cai, David Lo and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Mike Papadakis, Siegfried Rasthofer, Alexandre Bartel, Damien Octeau, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <r>
+      <t>Xinli Yang, David Lo, Li Li, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Xin Xia, Tegawendé F. Bissyandé and Jacques Klein</t>
+    </r>
+  </si>
+  <si>
+    <t>Damien Octeau, Somesh Jha, Matthew Dering, Patrick McDaniel, Alexandre Bartel, Li Li, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li Li, Kevin Allix, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Li Li, Alexandre Bartel, Jacques Klein and Yves Le Traon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -368,6 +415,11 @@
     <font>
       <sz val="11"/>
       <name val="Verdana,Italic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1144,17 +1196,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="94.6640625" customWidth="1"/>
+    <col min="5" max="5" width="111.6640625" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="97.33203125" customWidth="1"/>
@@ -1171,7 +1223,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1180,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1192,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1200,71 +1252,71 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1272,22 +1324,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1295,383 +1347,432 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>2016</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>2016</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>2016</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>2017</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>2017</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>2017</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>2017</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
         <v>101</v>
       </c>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>99</v>
       </c>
-      <c r="H20" t="s">
-        <v>104</v>
+      <c r="H22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -326,12 +326,6 @@
     <t>The 2017 ACM on Asia Conference on Computer and Communications Security (AsiaCCS 2017)</t>
   </si>
   <si>
-    <t>Comprehending Malicious Android Apps By Mining Topic-Specific Data Flow Signatures</t>
-  </si>
-  <si>
-    <t>yang2017comprehending</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yang, Xinli and Lo, David and Li, Li and </t>
     </r>
@@ -389,6 +383,12 @@
   </si>
   <si>
     <t>Li Li, Alexandre Bartel, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterizing malicious Android apps by mining topic-specific data flow signatures </t>
+  </si>
+  <si>
+    <t>yang2017characterizing</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1261,7 +1261,7 @@
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -1284,7 +1284,7 @@
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
@@ -1307,7 +1307,7 @@
         <v>2015</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1388,7 +1388,7 @@
         <v>2016</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1414,7 +1414,7 @@
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -1437,7 +1437,7 @@
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
@@ -1466,7 +1466,7 @@
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
@@ -1515,7 +1515,7 @@
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
@@ -1564,7 +1564,7 @@
         <v>2016</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
@@ -1590,7 +1590,7 @@
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
@@ -1665,7 +1665,7 @@
         <v>2017</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -1688,7 +1688,7 @@
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
@@ -1711,7 +1711,7 @@
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
         <v>88</v>
@@ -1737,7 +1737,7 @@
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
         <v>93</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1763,13 +1763,13 @@
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
         <v>94</v>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="29920" yWindow="7100" windowWidth="36880" windowHeight="16520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
   <si>
     <t>TITLE</t>
   </si>
@@ -390,12 +390,53 @@
   <si>
     <t>yang2017characterizing</t>
   </si>
+  <si>
+    <t>li2017locating</t>
+  </si>
+  <si>
+    <t>On Locating Malicious Code in Piggybacked Android Apps</t>
+  </si>
+  <si>
+    <t>Journal of Computer Science and Technology</t>
+  </si>
+  <si>
+    <t>kim2018facoy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Kisub Kim, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dongsun Kim, Tegawendé F. Bissyandé, Eunjong Choi, Li Li, Jacques Klein, and Yves Le Traon</t>
+    </r>
+  </si>
+  <si>
+    <t>Kim, Kisub and Kim, Dongsun and Bissyand{\'e}, Tegawend{\'e} F and Choi, Eunjong and Li, Li and  Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>FaCoY – A Code-to-Code Search Engine</t>
+  </si>
+  <si>
+    <t>The 40th International Conference on Software Engineering (ICSE 2018)</t>
+  </si>
+  <si>
+    <t>acceptance rate: 21%, (105/502)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -419,6 +460,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3B3B3B"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1196,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1631,7 +1681,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1654,7 +1704,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1677,7 +1727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -1700,7 +1750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -1723,7 +1773,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1749,7 +1799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -1773,6 +1823,58 @@
       </c>
       <c r="H22" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>2017</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2018</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29920" yWindow="7100" windowWidth="36880" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
   <si>
     <t>TITLE</t>
   </si>
@@ -430,6 +430,36 @@
   </si>
   <si>
     <t>acceptance rate: 21%, (105/502)</t>
+  </si>
+  <si>
+    <t>li2017simidroid</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>SimiDroid: Identifying and Explaining Similarities in Android Apps</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>The 16th IEEE International Conference On Trust, Security And Privacy In Computing And Communications (TrustCom 2017)</t>
+  </si>
+  <si>
+    <t>Feng Dong, Haoyu Wang, Li Li, Yao Guo, Guoai Xu and Shaodong Zhang</t>
+  </si>
+  <si>
+    <t>dong2018mobile</t>
+  </si>
+  <si>
+    <t>Dong, Feng and Wang, Haoyu and Li, Li and Guo, Yao and Xu, Guoai and Zhang, Shaodong</t>
+  </si>
+  <si>
+    <t>How Mobile Apps Violate the Behavioral Policy of Advertisement Libraries? </t>
+  </si>
+  <si>
+    <t>The 19th Workshop on Mobile Computing Systems and Applications (HotMobile 2018)</t>
   </si>
 </sst>
 </file>
@@ -464,12 +494,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF3B3B3B"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF3B3B3B"/>
-      <name val="Arial"/>
+      <name val="Arial  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -698,12 +728,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1246,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1729,7 +1760,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1738,21 +1769,21 @@
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1761,47 +1792,44 @@
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1813,13 +1841,13 @@
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
         <v>94</v>
@@ -1827,7 +1855,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -1836,44 +1867,90 @@
         <v>2017</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>2017</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>2018</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>117</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
         <v>2018</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>118</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F26" t="s">
         <v>119</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G26" t="s">
         <v>120</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H26" t="s">
         <v>121</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K26" t="s">
         <v>122</v>
       </c>
     </row>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li.li/Project/github/lilicoding.github.io/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
   <si>
     <t>TITLE</t>
   </si>
@@ -460,6 +460,42 @@
   </si>
   <si>
     <t>The 19th Workshop on Mobile Computing Systems and Applications (HotMobile 2018)</t>
+  </si>
+  <si>
+    <t>Mining androzoo: A retrospect</t>
+  </si>
+  <si>
+    <t>li2017mining</t>
+  </si>
+  <si>
+    <t>The Doctoral Symposium of 33rd International Conference on Software Maintenance and Evolution (ICSME-DS 2017)</t>
+  </si>
+  <si>
+    <t>Li Li, Jun Gao, Tegawendé F. Bissyandé, Lei Ma, Xin Xia, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Li, Li and Gao, Jun and Bissyand{\'e}, Tegawend{\'e} F and Ma, Lei and Xia, Xin and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>Characterising Deprecated Android APIs</t>
+  </si>
+  <si>
+    <t>The 15th International Conference on Mining Software Repositories (MSR 2018)</t>
+  </si>
+  <si>
+    <t>li2018characterising</t>
+  </si>
+  <si>
+    <t>Why are Android Apps Removed From Google Play? A Large-scale Empirical Study</t>
+  </si>
+  <si>
+    <t>Haoyu Wang, Hao Li, Li Li, Yao Guo, Guoai Xu</t>
+  </si>
+  <si>
+    <t>Wang, Haoyu and Li, Hao and Li, Li and Guo, Yao and Xu, Guoai</t>
+  </si>
+  <si>
+    <t>wang2018android</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1760,7 +1796,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1769,21 +1805,21 @@
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1792,21 +1828,21 @@
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1815,47 +1851,44 @@
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1867,13 +1900,13 @@
         <v>2017</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
         <v>94</v>
@@ -1881,7 +1914,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>77</v>
@@ -1890,47 +1926,44 @@
         <v>2017</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D25">
-        <v>2018</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>128</v>
+        <v>2017</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -1938,20 +1971,92 @@
       <c r="D26">
         <v>2018</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>2018</v>
+      </c>
+      <c r="E27" t="s">
         <v>118</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>119</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>120</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>121</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K27" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>2018</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>2018</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="150">
   <si>
     <t>TITLE</t>
   </si>
@@ -496,6 +496,21 @@
   </si>
   <si>
     <t>wang2018android</t>
+  </si>
+  <si>
+    <t>gao2018vulnerability</t>
+  </si>
+  <si>
+    <t>Jun Gao, Li Li, Pingfan Kong, Tegawendé F. Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Gao, Jun and Li, Li and Kong, Pingfan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>On Vulnerability Evolution in Android Apps</t>
+  </si>
+  <si>
+    <t>The 40th International Conference on Software Engineering, Poster Track (ICSE 2018)</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1986,10 +2001,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -1997,25 +2009,25 @@
       <c r="D27">
         <v>2018</v>
       </c>
-      <c r="E27" t="s">
-        <v>118</v>
+      <c r="E27" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
@@ -2024,21 +2036,24 @@
         <v>2018</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>121</v>
+      </c>
+      <c r="K28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -2047,15 +2062,38 @@
         <v>2018</v>
       </c>
       <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>2018</v>
+      </c>
+      <c r="E30" t="s">
         <v>136</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>137</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>138</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>139</v>
       </c>
     </row>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -456,9 +456,6 @@
     <t>Dong, Feng and Wang, Haoyu and Li, Li and Guo, Yao and Xu, Guoai and Zhang, Shaodong</t>
   </si>
   <si>
-    <t>How Mobile Apps Violate the Behavioral Policy of Advertisement Libraries? </t>
-  </si>
-  <si>
     <t>The 19th Workshop on Mobile Computing Systems and Applications (HotMobile 2018)</t>
   </si>
   <si>
@@ -511,6 +508,9 @@
   </si>
   <si>
     <t>The 40th International Conference on Software Engineering, Poster Track (ICSE 2018)</t>
+  </si>
+  <si>
+    <t>How Do Mobile Apps Violate the Behavioral Policy of Advertisement Libraries? </t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1826,10 +1826,10 @@
         <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1993,15 +1993,15 @@
         <v>130</v>
       </c>
       <c r="G26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" t="s">
         <v>131</v>
-      </c>
-      <c r="H26" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -2010,16 +2010,16 @@
         <v>2018</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" t="s">
         <v>146</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>147</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>148</v>
-      </c>
-      <c r="H27" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -2053,7 +2053,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -2062,21 +2062,21 @@
         <v>2018</v>
       </c>
       <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
         <v>142</v>
       </c>
-      <c r="F29" t="s">
-        <v>143</v>
-      </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         <v>2018</v>
       </c>
       <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s">
         <v>136</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>137</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>138</v>
-      </c>
-      <c r="H30" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="34140" yWindow="780" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
   <si>
     <t>TITLE</t>
   </si>
@@ -511,6 +511,24 @@
   </si>
   <si>
     <t>How Do Mobile Apps Violate the Behavioral Policy of Advertisement Libraries? </t>
+  </si>
+  <si>
+    <t>li2018cid</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Haoyu Wang and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Wang, Haoyu and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>CiD: Automating the Detection of API-related Compatibility Issues in Android Apps</t>
+  </si>
+  <si>
+    <t>The ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2018)</t>
+  </si>
+  <si>
+    <t>acceptance rate: 23.8%, (31/130)</t>
   </si>
 </sst>
 </file>
@@ -1328,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2097,6 +2115,35 @@
         <v>138</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>2018</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="780" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
   <si>
     <t>TITLE</t>
   </si>
@@ -529,6 +529,21 @@
   </si>
   <si>
     <t>acceptance rate: 23.8%, (31/130)</t>
+  </si>
+  <si>
+    <t>liu2018closer</t>
+  </si>
+  <si>
+    <t>Kui Liu, Dongsun Kim, Li Li, Anil Koyuncu, Tegawendé Bissyande, and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Liu, Kui and Kim, Dongsun and Li, Li and Koyuncu, Anil and Bissyand{\'e}, Tegawend{\'e} F and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>A Closer Look at Real-World Patches</t>
+  </si>
+  <si>
+    <t>The 34th International Conference on Software Maintenance and Evolution (ICSME)</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
@@ -2117,10 +2132,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -2129,18 +2141,44 @@
         <v>2018</v>
       </c>
       <c r="E31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>2018</v>
+      </c>
+      <c r="E32" t="s">
         <v>151</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>152</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>153</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>154</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K32" t="s">
         <v>155</v>
       </c>
     </row>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
   <si>
     <t>TITLE</t>
   </si>
@@ -545,12 +545,55 @@
   <si>
     <t>The 34th International Conference on Software Maintenance and Evolution (ICSME)</t>
   </si>
+  <si>
+    <t>dong2018frauddroid</t>
+  </si>
+  <si>
+    <t>Feng Dong, Haoyu Wang, Li Li, Yao Guo, Tegawendé F. Bissyandé, Tianming Liu, Guoai Xu, and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Dong, Feng and Wang, Haoyu and Li, Li and Guo, Yao and Bissyand{\'e}, Tegawend{\'e} F and Liu, Tianming and Xu, Guoai and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>FraudDroid: Automated Ad Fraud Detection for Android Apps</t>
+  </si>
+  <si>
+    <t>DeepGauge: Multi-Granularity Testing Criteria for Deep Learning Systems</t>
+  </si>
+  <si>
+    <t>The 33rd IEEE/ACM International Conference on Automated Software Engineering (ASE 2018)</t>
+  </si>
+  <si>
+    <t>The 26th ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2018)</t>
+  </si>
+  <si>
+    <r>
+      <t>Lei Ma, Felix Juefei-Xu, Fuyuan Zhang, Jiyuan Sun, Minhui Xue, Bo Li, Chunyang Chen, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="-webkit-standard"/>
+      </rPr>
+      <t>Ting Su, Li Li, Yang Liu, Jianjun Zhao, and Yadong Wang</t>
+    </r>
+  </si>
+  <si>
+    <t>ma2018deepgauge</t>
+  </si>
+  <si>
+    <t>Ma, Lei and Juefei-Xu, Felix and Sun, Jiyuan and Chen, Chunyang and Su, Ting and Zhang, Fuyuan and Xue, Minhui and Li, Bo and Li, Li and Liu, Yang and Zhao, Jianjun and Wang, Yadong</t>
+  </si>
+  <si>
+    <t>acceptance rate: 21%, (61/289)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -585,6 +628,11 @@
       <sz val="10"/>
       <name val="Arial  "/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -812,13 +860,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1361,20 +1410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="111.6640625" customWidth="1"/>
+    <col min="5" max="5" width="123" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
-    <col min="8" max="8" width="97.33203125" customWidth="1"/>
+    <col min="8" max="8" width="106.83203125" customWidth="1"/>
     <col min="9" max="9" width="36.1640625" customWidth="1"/>
     <col min="10" max="10" width="33.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
@@ -2182,6 +2231,61 @@
         <v>155</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>2018</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>2018</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="-38140" yWindow="9100" windowWidth="33600" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
   <si>
     <t>TITLE</t>
   </si>
@@ -587,6 +587,63 @@
   </si>
   <si>
     <t>acceptance rate: 21%, (61/289)</t>
+  </si>
+  <si>
+    <t>Beyond Google Play: A Large-Scale Comparative Study of Chinese Android App Markets</t>
+  </si>
+  <si>
+    <t>Ma, Lei and Zhang, Fuyuan  and Sun, Jiyuan and Xue, Minhui and Li, Bo and Juefei-Xu, Felix and Xie, Chao and Li, Li and Liu, Yang and Zhao, Jianjun and Wang, Yadong</t>
+  </si>
+  <si>
+    <t>Lei Ma, Fuyuan Zhang, Jiyuan Sun, Minhui Xue, Bo Li, Felix Juefei-Xu, Chao Xie, Li Li, Yang Liu, Jianjun Zhao, and Yadong Wang</t>
+  </si>
+  <si>
+    <t>ma2018deepmutation</t>
+  </si>
+  <si>
+    <t>DeepMutation: Mutation Testing of Deep Learning Systems</t>
+  </si>
+  <si>
+    <t>The 29th IEEE International Symposium on Software Reliability Engineering (ISSRE 2018)</t>
+  </si>
+  <si>
+    <t>acceptance rate: 23.9%, (23/96)</t>
+  </si>
+  <si>
+    <t>li2018moonlightbox</t>
+  </si>
+  <si>
+    <t>MoonlightBox: Mining Android API Histories for Uncovering Release-time Inconsistencies</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Haoyu Wang, Zhe Liu, Jingyue Liang, Narseo Vallina-Rodriguez, Yao Guo, Li Li, Juan Tapiador, Jingcun Cao, and Guoai Xu</t>
+  </si>
+  <si>
+    <t>The 2018 Internet Measurement Conference (IMC 2018)</t>
+  </si>
+  <si>
+    <t>Wang, Haoyu and Liu, Zhe and Liang, Jingyue and Vallina-Rodriguez, Narseo and Guo, Yao and Li, Li and Tapiador, Juan and Cao, Jingcun and Xu, Guoai</t>
+  </si>
+  <si>
+    <t>wang2018beyond</t>
+  </si>
+  <si>
+    <t>kong2018automated</t>
+  </si>
+  <si>
+    <t>Pingfan Kong, Li Li, Jun Gao, Kui Liu, Tegawendé Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Kong, Pingfan and Li, Li and Gao, Jun and Liu, Kui and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Reliability</t>
+  </si>
+  <si>
+    <t>Automated Testing of Android Apps: A Systematic Literature Review</t>
   </si>
 </sst>
 </file>
@@ -1410,17 +1467,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="123" customWidth="1"/>
+    <col min="5" max="5" width="101" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="106.83203125" customWidth="1"/>
@@ -2286,6 +2343,110 @@
         <v>166</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>2018</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" t="s">
+        <v>177</v>
+      </c>
+      <c r="K35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>2018</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>2018</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>2018</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38140" yWindow="9100" windowWidth="33600" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="38620" yWindow="3620" windowWidth="31100" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
   <si>
     <t>TITLE</t>
   </si>
@@ -644,6 +644,36 @@
   </si>
   <si>
     <t>Automated Testing of Android Apps: A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>Qiuyuan Chen, Lingfeng Bao, Li Li, Xin Xia, Liang Cai</t>
+  </si>
+  <si>
+    <t>Chen, Qiuyuan and Bao, Lingfeng and Li, Li and Xia, Xin and Cai, Liang</t>
+  </si>
+  <si>
+    <t>chen2018categorizing</t>
+  </si>
+  <si>
+    <t>Categorizing and Predicting Invalid Vulnerabilities on Common Vulnerabilities and Exposures</t>
+  </si>
+  <si>
+    <t>The 25th Asia-Pacific Software Engineering Conference (APSEC 2018)</t>
+  </si>
+  <si>
+    <t>Tien-Duy B. Le, Lingfeng Bao, David Lo, Debin Gao, Li Li</t>
+  </si>
+  <si>
+    <t>le2018towards</t>
+  </si>
+  <si>
+    <t>Le, Tien-Duy B and Bao, Lingfeng and Lo, David and Gao, Debin and Li, Li</t>
+  </si>
+  <si>
+    <t>Towards Mining Comprehensive Android Sandboxes</t>
+  </si>
+  <si>
+    <t>The 23rd International Conference on Engineering of Complex Computer Systems (ICECCS)</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2447,6 +2477,52 @@
         <v>189</v>
       </c>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2018</v>
+      </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>2018</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38620" yWindow="3620" windowWidth="31100" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="36740" yWindow="7620" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
   <si>
     <t>TITLE</t>
   </si>
@@ -673,7 +673,22 @@
     <t>Towards Mining Comprehensive Android Sandboxes</t>
   </si>
   <si>
-    <t>The 23rd International Conference on Engineering of Complex Computer Systems (ICECCS)</t>
+    <t>Want to Earn a Few Extra Bucks? A First Look at Money-making Apps</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Software Analysis, Evolution and Reengineering (SANER 2019)</t>
+  </si>
+  <si>
+    <t>The 23rd International Conference on Engineering of Complex Computer Systems (ICECCS 2018)</t>
+  </si>
+  <si>
+    <t>Hu, Yangyu and Wang, Haoyu and Li, Li and Guo, Yao and Xu, Guoai and He, Ren</t>
+  </si>
+  <si>
+    <t>Yangyu Hu, Haoyu Wang, Li Li, Yao Guo, Guoai Xu, and Ren He</t>
+  </si>
+  <si>
+    <t>hu2019want</t>
   </si>
 </sst>
 </file>
@@ -1497,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2520,7 +2535,30 @@
         <v>199</v>
       </c>
       <c r="H40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>2019</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" t="s">
         <v>200</v>
+      </c>
+      <c r="H41" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36740" yWindow="7620" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="228">
   <si>
     <t>TITLE</t>
   </si>
@@ -689,6 +689,72 @@
   </si>
   <si>
     <t>hu2019want</t>
+  </si>
+  <si>
+    <t>li2019rebooting</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Rebooting Research on Detecting Repackaged Android Apps: Literature Review and Benchmark</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Software Engineering (TSE)</t>
+  </si>
+  <si>
+    <t>li2019identifying</t>
+  </si>
+  <si>
+    <t>On Identifying and Explaining Similarities in Android Apps</t>
+  </si>
+  <si>
+    <t>Journal of Computer Science and Technology (JCST)</t>
+  </si>
+  <si>
+    <t>gao2019should</t>
+  </si>
+  <si>
+    <t>Should You Consider Adware as Malware in Your Study?</t>
+  </si>
+  <si>
+    <t>ma2019deepct</t>
+  </si>
+  <si>
+    <t>Lei Ma, Felix Juefei-Xu, Minhui Xue, Bo Li, Li Li, Yang Liu and Jianjun Zhao</t>
+  </si>
+  <si>
+    <t>Ma, Lei and Juefei-Xu, Felix and Xue, Minhui and Li, Bo and Li, Li and Liu, Yang and Zhao, Jianjun</t>
+  </si>
+  <si>
+    <t>DeepCT: Tomographic Combinatorial Testing for Deep Learning Systems</t>
+  </si>
+  <si>
+    <t>Knowledge Graphing Git Repositories: A Preliminary Study</t>
+  </si>
+  <si>
+    <t>zhao2019knowledge</t>
+  </si>
+  <si>
+    <t>Yanjie Zhao, Haoyu Wang, Lei Ma, Yuxin Liu, Li Li and John Grundy</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Wang, Haoyu and Ma, Lei and Liu, Yuxin and Li, Li and Grundy, John</t>
+  </si>
+  <si>
+    <t>Jun Gao, Pingfan Kong, Li Li, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>gao2019negative</t>
+  </si>
+  <si>
+    <t>Negative Results on Mining Crypto-API Usage Rules in Android Apps</t>
+  </si>
+  <si>
+    <t>Gao, Jun and Kong, Pingfan and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>The 16th International Conference on Mining Software Repositories (MSR 2019)</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2540,25 +2606,166 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>2019</v>
       </c>
       <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42">
+        <v>2019</v>
+      </c>
+      <c r="E42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>2019</v>
+      </c>
+      <c r="E43" t="s">
         <v>204</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F43" t="s">
         <v>203</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G43" t="s">
         <v>200</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>2019</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>2019</v>
+      </c>
+      <c r="E45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>2019</v>
+      </c>
+      <c r="E46" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>2019</v>
+      </c>
+      <c r="E47" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="232">
   <si>
     <t>TITLE</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Papadakis, Mike and Rasthofer, Siegfried and Bartel, Alexandre and Octeau, Damien and Klein, Jacques and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>Information and Software Technology</t>
   </si>
   <si>
     <t>POSTER: Detection of Information Leaks via Reflection in Android Apps</t>
@@ -395,9 +392,6 @@
   </si>
   <si>
     <t>On Locating Malicious Code in Piggybacked Android Apps</t>
-  </si>
-  <si>
-    <t>Journal of Computer Science and Technology</t>
   </si>
   <si>
     <t>kim2018facoy</t>
@@ -543,9 +537,6 @@
     <t>A Closer Look at Real-World Patches</t>
   </si>
   <si>
-    <t>The 34th International Conference on Software Maintenance and Evolution (ICSME)</t>
-  </si>
-  <si>
     <t>dong2018frauddroid</t>
   </si>
   <si>
@@ -640,9 +631,6 @@
     <t>Kong, Pingfan and Li, Li and Gao, Jun and Liu, Kui and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
   </si>
   <si>
-    <t>IEEE Transactions on Reliability</t>
-  </si>
-  <si>
     <t>Automated Testing of Android Apps: A Systematic Literature Review</t>
   </si>
   <si>
@@ -755,6 +743,30 @@
   </si>
   <si>
     <t>The 16th International Conference on Mining Software Repositories (MSR 2019)</t>
+  </si>
+  <si>
+    <t>Yangyu Hu, Haoyu Wang, Yajin Zhou, Yao Guo, Li Li, Bingxuan Luo, Fangren Xu</t>
+  </si>
+  <si>
+    <t>Hu, Yangyu and Wang, Haoyu and Zhou, Yajin and Guo, Yao  and Li, Li and  Luo, Bingxuan and Xu, Fangren</t>
+  </si>
+  <si>
+    <t>hu2019dating</t>
+  </si>
+  <si>
+    <t>Dating with Scambots: Understanding the Ecosystem of Fraudulent Dating Applications</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Dependable and Secure Computing (TDSC)</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Reliability (TRel)</t>
+  </si>
+  <si>
+    <t>Information and Software Technology (IST)</t>
+  </si>
+  <si>
+    <t>The 34th International Conference on Software Maintenance and Evolution (ICSME 2018)</t>
   </si>
 </sst>
 </file>
@@ -1578,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1643,7 +1655,7 @@
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -1666,7 +1678,7 @@
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
@@ -1689,7 +1701,7 @@
         <v>2015</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1770,7 +1782,7 @@
         <v>2016</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1796,7 +1808,7 @@
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -1819,7 +1831,7 @@
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
@@ -1848,7 +1860,7 @@
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
@@ -1897,7 +1909,7 @@
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
@@ -1946,7 +1958,7 @@
         <v>2016</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
@@ -1972,7 +1984,7 @@
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
@@ -2047,7 +2059,7 @@
         <v>2017</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -2061,7 +2073,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -2076,15 +2088,15 @@
         <v>54</v>
       </c>
       <c r="G19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="s">
         <v>132</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -2093,21 +2105,21 @@
         <v>2017</v>
       </c>
       <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="F20" t="s">
-        <v>126</v>
-      </c>
       <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
         <v>125</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -2116,16 +2128,16 @@
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -2139,7 +2151,7 @@
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
         <v>88</v>
@@ -2165,7 +2177,7 @@
         <v>2017</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
         <v>93</v>
@@ -2174,12 +2186,12 @@
         <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -2191,21 +2203,21 @@
         <v>2017</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
@@ -2214,21 +2226,21 @@
         <v>2017</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
         <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -2237,21 +2249,21 @@
         <v>2018</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
         <v>128</v>
       </c>
-      <c r="F26" t="s">
-        <v>130</v>
-      </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -2260,21 +2272,21 @@
         <v>2018</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" t="s">
         <v>145</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>146</v>
-      </c>
-      <c r="G27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -2286,24 +2298,24 @@
         <v>2018</v>
       </c>
       <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
         <v>118</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>119</v>
       </c>
-      <c r="G28" t="s">
+      <c r="K28" t="s">
         <v>120</v>
-      </c>
-      <c r="H28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -2312,21 +2324,21 @@
         <v>2018</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -2335,21 +2347,21 @@
         <v>2018</v>
       </c>
       <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
         <v>135</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -2358,21 +2370,21 @@
         <v>2018</v>
       </c>
       <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" t="s">
         <v>157</v>
       </c>
-      <c r="F31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" t="s">
-        <v>159</v>
-      </c>
       <c r="H31" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -2384,24 +2396,24 @@
         <v>2018</v>
       </c>
       <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
         <v>151</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>152</v>
       </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
         <v>153</v>
-      </c>
-      <c r="H32" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -2413,24 +2425,24 @@
         <v>2018</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" t="s">
         <v>164</v>
       </c>
-      <c r="H33" t="s">
-        <v>167</v>
-      </c>
       <c r="K33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -2442,21 +2454,21 @@
         <v>2018</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -2465,24 +2477,24 @@
         <v>2018</v>
       </c>
       <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" t="s">
         <v>174</v>
       </c>
-      <c r="F35" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" t="s">
-        <v>177</v>
-      </c>
       <c r="K35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -2494,24 +2506,24 @@
         <v>2018</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -2520,21 +2532,21 @@
         <v>2018</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -2546,21 +2558,21 @@
         <v>2018</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
@@ -2569,21 +2581,21 @@
         <v>2018</v>
       </c>
       <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" t="s">
         <v>191</v>
-      </c>
-      <c r="F39" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -2592,21 +2604,21 @@
         <v>2018</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" t="s">
         <v>198</v>
-      </c>
-      <c r="G40" t="s">
-        <v>199</v>
-      </c>
-      <c r="H40" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -2618,21 +2630,21 @@
         <v>2019</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
         <v>77</v>
@@ -2641,21 +2653,21 @@
         <v>2019</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -2664,21 +2676,21 @@
         <v>2019</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -2687,21 +2699,21 @@
         <v>2019</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -2710,21 +2722,21 @@
         <v>2019</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H45" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
@@ -2733,21 +2745,21 @@
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -2756,16 +2768,42 @@
         <v>2019</v>
       </c>
       <c r="E47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
+        <v>222</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F47" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>226</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>2019</v>
+      </c>
+      <c r="E48" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" t="s">
         <v>225</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>227</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="251">
   <si>
     <t>TITLE</t>
   </si>
@@ -768,12 +768,69 @@
   <si>
     <t>The 34th International Conference on Software Maintenance and Evolution (ICSME 2018)</t>
   </si>
+  <si>
+    <t>li2019watch</t>
+  </si>
+  <si>
+    <t>Daoyuan Li, Li Li, Dongsun Kim, Tegawendé F. Bissyandé, David Lo, and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Daoyuan and Li, Li and Kim, Dongsun and Bissyand{\'e}, Tegawend{\'e} F and Lo, David and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>Watch out for This Commit! A Study of Influential Software Changes</t>
+  </si>
+  <si>
+    <t>Journal of Software: Evolution and Process</t>
+  </si>
+  <si>
+    <t>Revisiting the Impact of Common Libraries for Android-related Investigations</t>
+  </si>
+  <si>
+    <t>Journal of Systems and Software (JSS)</t>
+  </si>
+  <si>
+    <t>li2019revisiting</t>
+  </si>
+  <si>
+    <t>Li Li, Timothée Riom, Tegawendé F. Bissyandé, Haoyu Wang, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Riom, Timoth{\'e}e and Bissyand{\'e}, Tegawend{\'e} F and Wang, Haoyu and Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>A Large-Scale Study of Application Incompatibilities in Android</t>
+  </si>
+  <si>
+    <t>Ziyi Zhang, Haipeng Cai, Li Li, Xiaoqin Fu</t>
+  </si>
+  <si>
+    <t>Zhang, Ziyi and Cai, Haipeng and Li, Li and Fu, Xiaoqin</t>
+  </si>
+  <si>
+    <t>zhang2019large</t>
+  </si>
+  <si>
+    <t>The 28th ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2019)</t>
+  </si>
+  <si>
+    <t>Mining Android Crash Fixes in the Absence of Issue- and Change-Tracking Systems</t>
+  </si>
+  <si>
+    <t>Pingfan Kong, Li Li, Jun Gao, Tegawendé Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Kong, Pingfan and Li, Li and Gao, Jun and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>kong2019mining</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -813,6 +870,12 @@
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1040,7 +1103,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1048,6 +1111,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1590,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2806,6 +2871,98 @@
         <v>228</v>
       </c>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>2019</v>
+      </c>
+      <c r="E49" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>2019</v>
+      </c>
+      <c r="E50" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>2019</v>
+      </c>
+      <c r="E51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>2019</v>
+      </c>
+      <c r="E52" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="37180" yWindow="2140" windowWidth="33600" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="256">
   <si>
     <t>TITLE</t>
   </si>
@@ -825,12 +825,39 @@
   <si>
     <t>kong2019mining</t>
   </si>
+  <si>
+    <r>
+      <t>Luis Cruz, Rui Abreu, John Grundy, Li Li,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xin Xia</t>
+    </r>
+  </si>
+  <si>
+    <t>Cruz, Luis and Abreu, Rui and Grundy, John and Li, Li and Xia, Xin</t>
+  </si>
+  <si>
+    <t>Do Energy-oriented Changes Hinder Maintainability?</t>
+  </si>
+  <si>
+    <t>The 35th IEEE International Conference on Software Maintenance and Evolution (ICSME 2019)</t>
+  </si>
+  <si>
+    <t>cruz2019energy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -875,6 +902,13 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1655,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2963,6 +2997,29 @@
         <v>246</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>2019</v>
+      </c>
+      <c r="E53" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="265">
   <si>
     <t>TITLE</t>
   </si>
@@ -851,6 +851,33 @@
   </si>
   <si>
     <t>cruz2019energy</t>
+  </si>
+  <si>
+    <t>Jun Gao, Li Li, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Gao, Jun and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>gai2919evolution</t>
+  </si>
+  <si>
+    <t>On the Evolution of Mobile App Complexity</t>
+  </si>
+  <si>
+    <t>The 24th International Conference on Engineering of Complex Computer Systems (ICECCS 2019)</t>
+  </si>
+  <si>
+    <t>li2019cda</t>
+  </si>
+  <si>
+    <t>CDA: Characterising Deprecated Android APIs</t>
+  </si>
+  <si>
+    <t>Empirical Software Engineering (EMSE)</t>
+  </si>
+  <si>
+    <t>Li Li, Jun Gao, Tegawendé F. Bissyandé, Lei Ma, Xin Xia and Jacques Klein</t>
   </si>
 </sst>
 </file>
@@ -1689,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3020,6 +3047,52 @@
         <v>254</v>
       </c>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>2019</v>
+      </c>
+      <c r="E54" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" t="s">
+        <v>257</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55">
+        <v>2019</v>
+      </c>
+      <c r="E55" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="276">
   <si>
     <t>TITLE</t>
   </si>
@@ -802,15 +802,6 @@
     <t>A Large-Scale Study of Application Incompatibilities in Android</t>
   </si>
   <si>
-    <t>Ziyi Zhang, Haipeng Cai, Li Li, Xiaoqin Fu</t>
-  </si>
-  <si>
-    <t>Zhang, Ziyi and Cai, Haipeng and Li, Li and Fu, Xiaoqin</t>
-  </si>
-  <si>
-    <t>zhang2019large</t>
-  </si>
-  <si>
     <t>The 28th ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2019)</t>
   </si>
   <si>
@@ -878,6 +869,48 @@
   </si>
   <si>
     <t>Li Li, Jun Gao, Tegawendé F. Bissyandé, Lei Ma, Xin Xia and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Sip4J: Statically Inferring Access Permission Contracts for Parallelising Sequential Java Programs</t>
+  </si>
+  <si>
+    <t>The 34th IEEE/ACM International Conference on Automated Software Engineering (ASE 2019)</t>
+  </si>
+  <si>
+    <t>The 34th IEEE/ACM International Conference on Automated Software Engineering, Demo Track (ASE 2019)</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Software Analysis, Evolution and Reengineering, ERA Track (SANER 2019)</t>
+  </si>
+  <si>
+    <t>Ayesha Sadiq, Li Li, Yuan-Fang Li, Ijaz Ahmed, and Sea Ling</t>
+  </si>
+  <si>
+    <t>Sadiq, Ayesha and Li, Li and Li, Yuan-Fang and Ahmed, Ijaz and Ling, Sea</t>
+  </si>
+  <si>
+    <t>sadiq2019sip4j</t>
+  </si>
+  <si>
+    <t>Tianming Liu, Haoyu Wang, Li Li, Guangdong Bai, Yao Guo and Guoai Xu</t>
+  </si>
+  <si>
+    <t>Liu, Tianming and Wang, Haoyu and Li, Li and Bai, Guangdong and Guo, Yao and Xu, Guoai</t>
+  </si>
+  <si>
+    <t>liu2019dapanda</t>
+  </si>
+  <si>
+    <t>DaPanda: Detecting Aggressive Push Notification in Android Apps</t>
+  </si>
+  <si>
+    <t>Haipeng Cai, Ziyi Zhang, Li Li, Xiaoqin Fu</t>
+  </si>
+  <si>
+    <t>Cai, Haipeng and Zhang, Ziyi and Li, Li and Fu, Xiaoqin</t>
+  </si>
+  <si>
+    <t>cai2019large</t>
   </si>
 </sst>
 </file>
@@ -1716,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2834,7 +2867,7 @@
         <v>210</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -2857,7 +2890,7 @@
         <v>214</v>
       </c>
       <c r="H45" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -2880,7 +2913,7 @@
         <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -2980,7 +3013,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -2989,21 +3022,21 @@
         <v>2019</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F51" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>242</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -3012,21 +3045,21 @@
         <v>2019</v>
       </c>
       <c r="E52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -3035,21 +3068,21 @@
         <v>2019</v>
       </c>
       <c r="E53" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="F53" t="s">
-        <v>252</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -3058,21 +3091,21 @@
         <v>2019</v>
       </c>
       <c r="E54" t="s">
+        <v>253</v>
+      </c>
+      <c r="F54" t="s">
+        <v>254</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C55" t="s">
         <v>77</v>
@@ -3081,15 +3114,61 @@
         <v>2019</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F55" t="s">
         <v>134</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>2019</v>
+      </c>
+      <c r="E56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H56" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>2019</v>
+      </c>
+      <c r="E57" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>263</v>
       </c>
     </row>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D006D20-DFFE-CB42-B45F-C00CE346CBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37180" yWindow="2140" windowWidth="33600" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="37320" yWindow="2440" windowWidth="33600" windowHeight="18780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="298">
   <si>
     <t>TITLE</t>
   </si>
@@ -859,9 +860,6 @@
     <t>The 24th International Conference on Engineering of Complex Computer Systems (ICECCS 2019)</t>
   </si>
   <si>
-    <t>li2019cda</t>
-  </si>
-  <si>
     <t>CDA: Characterising Deprecated Android APIs</t>
   </si>
   <si>
@@ -911,13 +909,82 @@
   </si>
   <si>
     <t>cai2019large</t>
+  </si>
+  <si>
+    <t>li2020cda</t>
+  </si>
+  <si>
+    <t>Jun Gao, Li Li, Pingfan Kong, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>gao2019understanding</t>
+  </si>
+  <si>
+    <t>Understanding the Evolution of Android App Vulnerabilities</t>
+  </si>
+  <si>
+    <t>hu2020mobile</t>
+  </si>
+  <si>
+    <t>Yangyu Hu, Haoyu Wang, Ren He, Li Li, Gareth Tyson, Ignacio Castro, Yao Guo, Lei Wu, and Guoai Xu</t>
+  </si>
+  <si>
+    <t>Hu, Yangyu and Wang, Haoyu and He, Ren and Li, Li and Tyson, Gareth and Castro, Ignacio and  Guo, Yao and Wu, Lei and Xu, Guoai</t>
+  </si>
+  <si>
+    <t>Mobile App Squatting</t>
+  </si>
+  <si>
+    <t>The Web Conference 2020 (WWW 2020)</t>
+  </si>
+  <si>
+    <t>liu2020maddroid</t>
+  </si>
+  <si>
+    <t>Tianming Liu, Haoyu Wang, Li Li, Xiapu Luo, Feng Dong, Yao Guo, Liu Wang, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Liu, Tianming and Wang, Haoyu and Li, Li and Luo, Xiapu and Dong, Feng and Guo, Yao and Wang, Liu and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>MadDroid: Characterising and Detecting Devious Ad Content for Android Apps</t>
+  </si>
+  <si>
+    <t>wang2020restoring</t>
+  </si>
+  <si>
+    <t>Jiawei Wang, Tzu-yang Kuo, Li Li, Andreas Zeller</t>
+  </si>
+  <si>
+    <t>Wang, Jiawei and Kuo, Tzu-yang and Li, Li and Zeller, Andreas</t>
+  </si>
+  <si>
+    <t>Restoring Reproducibility of Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>The 42nd International Conference on Software Engineering, Invited Poster (ICSE 2020)</t>
+  </si>
+  <si>
+    <t>wang2020better</t>
+  </si>
+  <si>
+    <t>Jiawei Wang, Li Li, Andreas Zeller</t>
+  </si>
+  <si>
+    <t>Wang, Jiawei and Li, Li and Zeller, Andreas</t>
+  </si>
+  <si>
+    <t>Better Code, Better Sharing: On the Need of Analyzing Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>The 42nd International Conference on Software Engineering, NIER Track (ICSE 2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1422,6 +1489,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1748,14 +1818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -1768,7 +1838,7 @@
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1826,7 +1896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="14">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1849,7 +1919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +1942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1895,7 +1965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +1997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1979,7 +2049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2005,7 +2075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2031,7 +2101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2054,7 +2124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2083,7 +2153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2106,7 +2176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2129,7 +2199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2158,7 +2228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2184,7 +2254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -2207,7 +2277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2230,7 +2300,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2253,7 +2323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -2276,7 +2346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -2299,7 +2369,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -2322,7 +2392,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -2348,7 +2418,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -2374,7 +2444,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -2397,7 +2467,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -2420,7 +2490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -2443,7 +2513,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -2472,7 +2542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -2495,7 +2565,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -2518,7 +2588,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -2541,7 +2611,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -2570,7 +2640,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2599,7 +2669,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -2625,7 +2695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -2651,7 +2721,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -2680,7 +2750,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>182</v>
       </c>
@@ -2703,7 +2773,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -2729,7 +2799,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -2752,7 +2822,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2775,7 +2845,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>202</v>
       </c>
@@ -2801,7 +2871,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -2824,7 +2894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -2847,7 +2917,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>209</v>
       </c>
@@ -2867,10 +2937,10 @@
         <v>210</v>
       </c>
       <c r="H44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>211</v>
       </c>
@@ -2890,10 +2960,10 @@
         <v>214</v>
       </c>
       <c r="H45" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>216</v>
       </c>
@@ -2913,10 +2983,10 @@
         <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>220</v>
       </c>
@@ -2939,7 +3009,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>226</v>
       </c>
@@ -2965,7 +3035,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -2988,7 +3058,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16">
       <c r="A50" t="s">
         <v>239</v>
       </c>
@@ -3011,9 +3081,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -3022,10 +3092,10 @@
         <v>2019</v>
       </c>
       <c r="E51" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51" t="s">
         <v>273</v>
-      </c>
-      <c r="F51" t="s">
-        <v>274</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>242</v>
@@ -3034,7 +3104,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>247</v>
       </c>
@@ -3057,7 +3127,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>252</v>
       </c>
@@ -3080,7 +3150,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>255</v>
       </c>
@@ -3103,32 +3173,32 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>2019</v>
       </c>
       <c r="E55" t="s">
+        <v>265</v>
+      </c>
+      <c r="F55" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F55" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H55" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -3137,39 +3207,154 @@
         <v>2019</v>
       </c>
       <c r="E56" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F56" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G56" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>2019</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F57" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>263</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58">
+        <v>2020</v>
+      </c>
+      <c r="E58" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" t="s">
+        <v>281</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>2020</v>
+      </c>
+      <c r="E60" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" t="s">
+        <v>286</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2020</v>
+      </c>
+      <c r="E61" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" t="s">
+        <v>290</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>2020</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D006D20-DFFE-CB42-B45F-C00CE346CBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9FE54-56FF-F844-8DA5-B3ED8C17C1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="2440" windowWidth="33600" windowHeight="18780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32100" yWindow="6860" windowWidth="33600" windowHeight="12620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="315">
   <si>
     <t>TITLE</t>
   </si>
@@ -978,6 +978,57 @@
   </si>
   <si>
     <t>The 42nd International Conference on Software Engineering, NIER Track (ICSE 2020)</t>
+  </si>
+  <si>
+    <t>Pei Liu, Li Li, Yanjie Zhao, Xiaoyu Sun, John Grundy</t>
+  </si>
+  <si>
+    <t>Liu, Pei and Li, Li and Zhao, Yanjie and Sun, Xiaoyu and Grundy, John</t>
+  </si>
+  <si>
+    <t>liu2020androzooopen</t>
+  </si>
+  <si>
+    <t>AndroZooOpen: Collecting Large-scale Open Source Android Apps for the Research Community</t>
+  </si>
+  <si>
+    <t>The 2020 International Conference on Mining Software Repositories, Data Track (MSR 2020)</t>
+  </si>
+  <si>
+    <t>zhang2020empirical</t>
+  </si>
+  <si>
+    <t>Zicheng Zhang, Wenrui Diao, Chengyu Hu, Shanqing Guo, Chaoshun Zuo, Li Li</t>
+  </si>
+  <si>
+    <t>Zhang, Zicheng and Diao, Wenrui and Hu, Chengyu and Guo, Shanqing and Zuo, Chaoshun and Li, Li</t>
+  </si>
+  <si>
+    <t>An Empirical Study of Potentially Malicious Third-Party Libraries in Android Apps</t>
+  </si>
+  <si>
+    <t>The 13th ACM Conference on Security and Privacy in Wireless and Mobile Networks (WiSec 2020)</t>
+  </si>
+  <si>
+    <t>gao2020borrowing</t>
+  </si>
+  <si>
+    <t>Borrowing Your Enemy’s Arrows: the Case of Code Reuse in Android via Direct Inter-app Code Invocation</t>
+  </si>
+  <si>
+    <t>The 28th ACM Joint Meeting on European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2020)</t>
+  </si>
+  <si>
+    <t>Exploring How Deprecated Python Library APIs are (Not) Handled</t>
+  </si>
+  <si>
+    <t>wang2020exploring</t>
+  </si>
+  <si>
+    <t>Jiawei Wang, Li Li, Kui Liu, Haipeng Cai</t>
+  </si>
+  <si>
+    <t>Wang, Jiawei and Li, Li and Liu, Kui and Cai, Haipeng</t>
   </si>
 </sst>
 </file>
@@ -1819,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1832,7 +1883,7 @@
     <col min="5" max="5" width="101" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
-    <col min="8" max="8" width="106.83203125" customWidth="1"/>
+    <col min="8" max="8" width="125.6640625" customWidth="1"/>
     <col min="9" max="9" width="36.1640625" customWidth="1"/>
     <col min="10" max="10" width="33.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
@@ -3357,6 +3408,98 @@
         <v>297</v>
       </c>
     </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>2020</v>
+      </c>
+      <c r="E63" t="s">
+        <v>298</v>
+      </c>
+      <c r="F63" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14">
+      <c r="A64" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>2020</v>
+      </c>
+      <c r="E64" t="s">
+        <v>304</v>
+      </c>
+      <c r="F64" t="s">
+        <v>305</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>2020</v>
+      </c>
+      <c r="E65" t="s">
+        <v>276</v>
+      </c>
+      <c r="F65" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>2020</v>
+      </c>
+      <c r="E66" t="s">
+        <v>313</v>
+      </c>
+      <c r="F66" t="s">
+        <v>314</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9FE54-56FF-F844-8DA5-B3ED8C17C1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6AAC8C-F29D-6940-95E6-C08D929048D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="6860" windowWidth="33600" windowHeight="12620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31220" yWindow="3240" windowWidth="28340" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="351">
   <si>
     <t>TITLE</t>
   </si>
@@ -332,6 +332,7 @@
         <sz val="10"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Xia, Xin and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
     </r>
@@ -369,6 +370,7 @@
         <sz val="10"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Xin Xia, Tegawendé F. Bissyandé and Jacques Klein</t>
     </r>
@@ -402,6 +404,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Kisub Kim, </t>
     </r>
@@ -410,6 +413,7 @@
         <sz val="10"/>
         <color rgb="FF3B3B3B"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Dongsun Kim, Tegawendé F. Bissyandé, Eunjong Choi, Li Li, Jacques Klein, and Yves Le Traon</t>
     </r>
@@ -1030,12 +1034,173 @@
   <si>
     <t>Wang, Jiawei and Li, Li and Liu, Kui and Cai, Haipeng</t>
   </si>
+  <si>
+    <t>Dabao Wang, Kui Liu, Li Li</t>
+  </si>
+  <si>
+    <t>Wang, Dabao and Liu, Kui and Li, Li</t>
+  </si>
+  <si>
+    <t>wang2020need</t>
+  </si>
+  <si>
+    <t>On the Need of Understanding the Failures of Smart Contracts</t>
+  </si>
+  <si>
+    <t>IEEE Software</t>
+  </si>
+  <si>
+    <t>Seads: Scalable and cost-effective dynamic dependence analysis of distributed systems via reinforcement learning</t>
+  </si>
+  <si>
+    <t>ACM Transactions on Software Engineering and Methodology (TOSEM)</t>
+  </si>
+  <si>
+    <t>Xiaoqin Fu, Haipeng Cai, Wen Li, and Li Li</t>
+  </si>
+  <si>
+    <t>Fu, Xiaoqin and Cai, Haipeng and Li, Wen and Li, Li</t>
+  </si>
+  <si>
+    <t>fu2020seads</t>
+  </si>
+  <si>
+    <t>xu2020dissecting</t>
+  </si>
+  <si>
+    <t>Guosheng Xu, Yangyu Hu, Qian Guo, Ren He, Li Li, Guoai Xu, Zhihui Han, Haoyu Wang</t>
+  </si>
+  <si>
+    <t>Xu, Guosheng and Hu, Yangyu and Guo, Qian and He, Ren and Li, Li and Xu, Guoai and Han, Zhihui and Wang, Haoyu</t>
+  </si>
+  <si>
+    <t>Dissecting Mobile Offerwall Advertisements: An Explorative Study</t>
+  </si>
+  <si>
+    <t>The 20th IEEE International Conference on Software Quality, Reliability, and Security (QRS 2020)</t>
+  </si>
+  <si>
+    <t>zhan2020automated</t>
+  </si>
+  <si>
+    <t>Xian Zhan, Lingling Fan, Tianming Liu, Sen Chen, Li Li, Haoyu Wang, Yifei Xu, Xiapu Luo and Yang Liu</t>
+  </si>
+  <si>
+    <t>Zhan, Xian and Fan, Lingling and Liu, Tianming and Chen, Sen and Li, Li and Wang, Haoyu and Xu, Yifei and Luo, Xiapu and Liu, Yang</t>
+  </si>
+  <si>
+    <t>Automated Third-party Library Detection for Android Applications: Are We There Yet?</t>
+  </si>
+  <si>
+    <t>The 35th IEEE/ACM International Conference on Automated Software Engineering (ASE 2020)</t>
+  </si>
+  <si>
+    <r>
+      <t>Jiawei Wang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tzu-yang Kuo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Li Li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Andreas Zeller</t>
+    </r>
+  </si>
+  <si>
+    <t>Assessing and Restoring Reproducibility of Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>wang2020assessing</t>
+  </si>
+  <si>
+    <t>Evaluating Representation Learning of Code Changes for Predicting Patch Correctness in Program Repair</t>
+  </si>
+  <si>
+    <t>Haoye Tian, Kui Liu, Abdoul Kader Kaboré, Anil Koyuncu, Li Li, Jacques Klein, Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Tian, Haoye and Liu, Kui and Kabor{\'e}, Abdoul Kader and Koyuncu, Anil and Li, Li and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>tian2020evaluating</t>
+  </si>
+  <si>
+    <t>Xin Wang, Jin Liu, Li Li, Xiao Chen, Xiao Liu, Hao Wu</t>
+  </si>
+  <si>
+    <t>Wang, Xin and Liu, Jin and Li, Li and Chen, Xiao and Liu, Xiao and Wu, Hao</t>
+  </si>
+  <si>
+    <t>Detecting and Explaining Self-Admitted Technical Debts with Attention-based Neural Networks</t>
+  </si>
+  <si>
+    <t>wang2020detecting</t>
+  </si>
+  <si>
+    <t>fu2020dads</t>
+  </si>
+  <si>
+    <t>Xiaoqin Fu, Haipeng Cai, and Li Li</t>
+  </si>
+  <si>
+    <t>Dads: Dynamic Slicing Continuously-Running Distributed Programs with Budget Constraints</t>
+  </si>
+  <si>
+    <t>Fu, Xiaoqin and Cai, Haipeng and Li, Li</t>
+  </si>
+  <si>
+    <t>The Tool Demo Track of the 28th ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE-Tool 2020)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1045,12 +1210,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1060,11 +1227,13 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF3B3B3B"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1088,6 +1257,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1315,7 +1500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1325,6 +1510,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1870,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1883,7 +2071,7 @@
     <col min="5" max="5" width="101" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
-    <col min="8" max="8" width="125.6640625" customWidth="1"/>
+    <col min="8" max="8" width="138.1640625" customWidth="1"/>
     <col min="9" max="9" width="36.1640625" customWidth="1"/>
     <col min="10" max="10" width="33.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
@@ -3467,7 +3655,7 @@
       <c r="E65" t="s">
         <v>276</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G65" s="6" t="s">
@@ -3498,6 +3686,190 @@
       </c>
       <c r="H66" s="4" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67">
+        <v>2020</v>
+      </c>
+      <c r="E67" t="s">
+        <v>315</v>
+      </c>
+      <c r="F67" t="s">
+        <v>316</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68">
+        <v>2020</v>
+      </c>
+      <c r="E68" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" t="s">
+        <v>323</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>2020</v>
+      </c>
+      <c r="E69" t="s">
+        <v>347</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>2020</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>2020</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>2020</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>2020</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16">
+      <c r="A74" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>2020</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6AAC8C-F29D-6940-95E6-C08D929048D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9113546D-7FF7-2340-BD0F-F6E8A6BD5C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31220" yWindow="3240" windowWidth="28340" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="0" windowWidth="28600" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="355">
   <si>
     <t>TITLE</t>
   </si>
@@ -1194,6 +1194,18 @@
   </si>
   <si>
     <t>The Tool Demo Track of the 28th ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE-Tool 2020)</t>
+  </si>
+  <si>
+    <t>li2020knowledgezooclient</t>
+  </si>
+  <si>
+    <t>KnowledgeZooClient: Constructing Knowledge Graph for Android</t>
+  </si>
+  <si>
+    <t>The 3rd International Workshop on Advances in Mobile App Analysis (A-Mobile 2020), co-located with ASE 2020</t>
+  </si>
+  <si>
+    <t>Li Li, Jun Gao, Pingfan Kong, Haoyu Wang, Mengyu Huang, Yuan-Fang Li, and Tegawendé F. Bissyandé</t>
   </si>
 </sst>
 </file>
@@ -1511,8 +1523,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2058,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3750,10 +3762,10 @@
       <c r="F69" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="8" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3782,7 +3794,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>15</v>
@@ -3790,22 +3802,22 @@
       <c r="D71">
         <v>2020</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>331</v>
+      <c r="E71" t="s">
+        <v>354</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>334</v>
+        <v>134</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>15</v>
@@ -3814,13 +3826,13 @@
         <v>2020</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>334</v>
@@ -3828,7 +3840,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>15</v>
@@ -3837,21 +3849,21 @@
         <v>2020</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16">
+    <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>15</v>
@@ -3859,16 +3871,39 @@
       <c r="D74">
         <v>2020</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16">
+      <c r="A75" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>2020</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>334</v>
       </c>
     </row>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9113546D-7FF7-2340-BD0F-F6E8A6BD5C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BC7A90-BA0A-7148-AA02-F0C5ACD58D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="0" windowWidth="28600" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="0" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="369">
   <si>
     <t>TITLE</t>
   </si>
@@ -1206,6 +1206,48 @@
   </si>
   <si>
     <t>Li Li, Jun Gao, Pingfan Kong, Haoyu Wang, Mengyu Huang, Yuan-Fang Li, and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Li, Li and Gao, Jun and Kong, Pingfan and Huang, Mengyu and Li Yuan-Fang and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>Zhou Xu, Li Li, Meng Yan, Jin Liu, Xiapu Luo, John Grundy, Yifeng Zhang, Xiaohong Zhang</t>
+  </si>
+  <si>
+    <t>Xu, Zhou and Li, Li and Yan, Meng and Liu, Jin and Luo, Xiapu and Grundy, John and Zhang, Yifeng and Zhang, Xiaohong</t>
+  </si>
+  <si>
+    <t>A comprehensive comparative study of clustering-based unsupervised defect prediction models</t>
+  </si>
+  <si>
+    <t>xu2020comprehensive</t>
+  </si>
+  <si>
+    <t>Kui Liu, Li Li, Anil Koyuncu, Dongsun Kim, Zhe Liu, Jacques Klein, and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Liu, Kui and Li, Li and Koyuncu, Anil and Kim, Dongsun and Liu, Zhe and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>A Critical Review on the Evaluation of Automated Program Repair Systems</t>
+  </si>
+  <si>
+    <t>liu2020critical</t>
+  </si>
+  <si>
+    <t>Xiaoyu Sun, Li Li, Tegawendé F. Bissyandé, Jacques Klein, Damien Octeau, John Grundy</t>
+  </si>
+  <si>
+    <t>Sun, Xiaoyu and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Octeau, Damien and Grundy, John</t>
+  </si>
+  <si>
+    <t>Taming Reflection: An Essential Step Towards Whole-Program Analysis of Android Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACM Transactions on Software Engineering and Methodology (TOSEM)</t>
+  </si>
+  <si>
+    <t>sun2020taming</t>
   </si>
 </sst>
 </file>
@@ -2070,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3806,7 +3848,7 @@
         <v>354</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>352</v>
@@ -3905,6 +3947,75 @@
       </c>
       <c r="H75" s="7" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>2020</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>2020</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>2020</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BC7A90-BA0A-7148-AA02-F0C5ACD58D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E708E9D-2194-F54D-93C1-E0823E7BC313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="0" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32220" yWindow="600" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="387">
   <si>
     <t>TITLE</t>
   </si>
@@ -1248,6 +1248,60 @@
   </si>
   <si>
     <t>sun2020taming</t>
+  </si>
+  <si>
+    <t>Xiao Chen, Wanli Chen, Kui Liu, Chunyang Chen and Li Li</t>
+  </si>
+  <si>
+    <t>Chen, Xiao and Chen, Wanli and Liu, Kui and Chen, Chunyang and Li, Li</t>
+  </si>
+  <si>
+    <t>chen2021comparative</t>
+  </si>
+  <si>
+    <t>A Comparative Study of Smartphone and Smartwatch Apps</t>
+  </si>
+  <si>
+    <t>Md. Shamsujjoha, John Grundy, Li Li, Hourieh Khalajzadeh and Qinghua Lu</t>
+  </si>
+  <si>
+    <t>Shamsujjoha, Md. and Grundy, John and Li, Li and Khalajzadeh, Hourieh and Lu, Qinghua</t>
+  </si>
+  <si>
+    <t>shamsujjoha2021human</t>
+  </si>
+  <si>
+    <t>Human-Centric Issues in eHealth App Development and Usage: A Preliminary Assessment</t>
+  </si>
+  <si>
+    <t>The 28th IEEE International Conference on Software Analysis, Evolution and Reengineering, ERA track (SANER-ERA 2021)</t>
+  </si>
+  <si>
+    <t>Humphrey O. Obie, Waqar Hussain, Xin Xia, John Grundy, Li Li, Burak Turhan, Jon Whittle and Mojtaba Shahin</t>
+  </si>
+  <si>
+    <t>obie2021first</t>
+  </si>
+  <si>
+    <t>Obie, Humphrey and Hussain, Waqar and Xia, Xin and Grundy, John and Li, Li and Turhan, Burak and Whittle, Jon and Shahin, Mojtaba</t>
+  </si>
+  <si>
+    <t>A First Look at Human Values-Violation in  App Reviews</t>
+  </si>
+  <si>
+    <t>wang2021restoring</t>
+  </si>
+  <si>
+    <t>Restoring Execution Environments of Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>The 43rd ACM/IEEE International Conference on Software Engineering (ICSE 2021)</t>
+  </si>
+  <si>
+    <t>The 2021 ACM/SIGAPP Symposium on Applied Computing (SAC 2021)</t>
+  </si>
+  <si>
+    <t>The 43rd ACM/IEEE International Conference on Software Engineering, SEIS Track (ICSE-SEIS 2021)</t>
   </si>
 </sst>
 </file>
@@ -2112,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="G53" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4018,6 +4072,98 @@
         <v>367</v>
       </c>
     </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>2021</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>2021</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>2021</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>2021</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E708E9D-2194-F54D-93C1-E0823E7BC313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A7B30-B4E9-664F-9BBA-CA3C4FAFB171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="600" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35120" yWindow="1260" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="401">
   <si>
     <t>TITLE</t>
   </si>
@@ -1302,6 +1302,48 @@
   </si>
   <si>
     <t>The 43rd ACM/IEEE International Conference on Software Engineering, SEIS Track (ICSE-SEIS 2021)</t>
+  </si>
+  <si>
+    <t>Pei Liu, Li Li, Yichun Yan, Mattia Fazzini and John Grundy</t>
+  </si>
+  <si>
+    <t>Liu, Pei and Li, Li and Yan, Yichun and Fazzini, Mattia and Grundy, John</t>
+  </si>
+  <si>
+    <t>liu2021identifying</t>
+  </si>
+  <si>
+    <t>Identifying and Characterizing Silently-Evolved Methods in the Android API</t>
+  </si>
+  <si>
+    <t>The 43rd ACM/IEEE International Conference on Software Engineering, SEIP Track (ICSE-SEIP 2021)</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Li, Li and Wang, Haoyu and Cai, Haipeng and Bissyande, Tegawende and Klein, Jacques and Grundy, John</t>
+  </si>
+  <si>
+    <t>Yanjie Zhao, Li Li, Haoyu Wang, Haipeng Cai, Tegawendé F. Bissyandé, Jacques Klein and John Grundy</t>
+  </si>
+  <si>
+    <t>zhao2021impact</t>
+  </si>
+  <si>
+    <t>On the Impact of Sample Duplication in Machine Learning based Android Malware Detection</t>
+  </si>
+  <si>
+    <t>Yuhao Gao, Haoyu Wang, Li Li, Xiapu Luo, Xuanzhe Liu and Guoai Xu</t>
+  </si>
+  <si>
+    <t>Gao, Yuhao and Wang, Haoyu and Li, Li and Luo, Xiapu and Liu, Xuanzhe and Xu, Guoai</t>
+  </si>
+  <si>
+    <t>gao2021demystifying</t>
+  </si>
+  <si>
+    <t>Demystifying Illegal Mobile Gambling Apps</t>
+  </si>
+  <si>
+    <t>The Web Conference 2021 (WWW 2021)</t>
   </si>
 </sst>
 </file>
@@ -2166,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G53" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4143,7 +4185,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>15</v>
@@ -4152,16 +4194,85 @@
         <v>2021</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>2021</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G83" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84">
+        <v>2021</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>2021</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A7B30-B4E9-664F-9BBA-CA3C4FAFB171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265792B0-452B-9E40-BDF4-DE95541AF0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35120" yWindow="1260" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31540" yWindow="-320" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="412">
   <si>
     <t>TITLE</t>
   </si>
@@ -48,9 +56,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>SELECTED</t>
-  </si>
-  <si>
     <t>AUTHORS</t>
   </si>
   <si>
@@ -61,9 +66,6 @@
   </si>
   <si>
     <t>Combining Static Analysis with Probabilistic Models to Enable Market-Scale Android Inter-component Analysis</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>octeau2016combining</t>
@@ -853,9 +855,6 @@
   </si>
   <si>
     <t>Gao, Jun and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
-  </si>
-  <si>
-    <t>gai2919evolution</t>
   </si>
   <si>
     <t>On the Evolution of Mobile App Complexity</t>
@@ -1344,6 +1343,48 @@
   </si>
   <si>
     <t>The Web Conference 2021 (WWW 2021)</t>
+  </si>
+  <si>
+    <t>gao22019evolution</t>
+  </si>
+  <si>
+    <t>First Author</t>
+  </si>
+  <si>
+    <t>Corresponding Author</t>
+  </si>
+  <si>
+    <t>CCF A</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>TOPIC</t>
+  </si>
+  <si>
+    <t>隐私泄露检测</t>
+  </si>
+  <si>
+    <t>隐私泄露检测*</t>
+  </si>
+  <si>
+    <t>恶意行为分析</t>
+  </si>
+  <si>
+    <t>重打包分析</t>
+  </si>
+  <si>
+    <t>移动应用缺陷分析</t>
+  </si>
+  <si>
+    <t>第三方库分析</t>
+  </si>
+  <si>
+    <t>移动应用缺陷分析/移动操作系统演化分析</t>
+  </si>
+  <si>
+    <t>移动操作系统演化分析</t>
   </si>
 </sst>
 </file>
@@ -2208,16 +2249,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="101" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
@@ -2225,26 +2267,29 @@
     <col min="9" max="9" width="36.1640625" customWidth="1"/>
     <col min="10" max="10" width="33.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>403</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2253,2026 +2298,2351 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M1" t="s">
+        <v>400</v>
+      </c>
+      <c r="N1" t="s">
+        <v>401</v>
+      </c>
+      <c r="O1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
       <c r="K6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>2016</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>2016</v>
       </c>
       <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>2016</v>
       </c>
       <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>2016</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>411</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
       <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
         <v>68</v>
       </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>2017</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>81</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>2017</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
         <v>81</v>
       </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
       <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
         <v>130</v>
       </c>
-      <c r="H19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
         <v>122</v>
       </c>
-      <c r="F20" t="s">
-        <v>124</v>
-      </c>
       <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
         <v>123</v>
       </c>
-      <c r="H20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
         <v>95</v>
       </c>
-      <c r="G21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>85</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23">
         <v>2017</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>228</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="H24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>113</v>
-      </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>206</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>2018</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
         <v>126</v>
       </c>
-      <c r="F26" t="s">
-        <v>128</v>
-      </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>2018</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" t="s">
         <v>143</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>144</v>
       </c>
-      <c r="G27" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>2018</v>
       </c>
       <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" t="s">
         <v>116</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>117</v>
       </c>
-      <c r="G28" t="s">
+      <c r="K28" t="s">
         <v>118</v>
       </c>
-      <c r="H28" t="s">
-        <v>119</v>
-      </c>
-      <c r="K28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>2018</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>411</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>2018</v>
       </c>
       <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" t="s">
         <v>133</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>134</v>
       </c>
-      <c r="G30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" t="s">
         <v>155</v>
       </c>
-      <c r="F31" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" t="s">
-        <v>157</v>
-      </c>
       <c r="H31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>2018</v>
       </c>
       <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" t="s">
         <v>149</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>150</v>
       </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
         <v>151</v>
       </c>
-      <c r="H32" t="s">
-        <v>152</v>
-      </c>
-      <c r="K32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>2018</v>
       </c>
       <c r="E33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" t="s">
         <v>159</v>
       </c>
-      <c r="F33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" t="s">
-        <v>161</v>
-      </c>
       <c r="H33" t="s">
+        <v>162</v>
+      </c>
+      <c r="K33" t="s">
+        <v>166</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
         <v>164</v>
       </c>
-      <c r="K33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>2018</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>161</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>2018</v>
       </c>
       <c r="E35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" t="s">
         <v>171</v>
       </c>
-      <c r="F35" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>172</v>
+      </c>
+      <c r="K35" t="s">
         <v>173</v>
       </c>
-      <c r="H35" t="s">
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
         <v>174</v>
       </c>
-      <c r="K35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>2018</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>173</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>2018</v>
       </c>
       <c r="E37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
         <v>179</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
         <v>181</v>
       </c>
-      <c r="G37" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <v>2018</v>
       </c>
       <c r="E38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" t="s">
         <v>184</v>
       </c>
-      <c r="F38" t="s">
-        <v>185</v>
-      </c>
-      <c r="G38" t="s">
-        <v>186</v>
-      </c>
       <c r="H38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>227</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>2018</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" t="s">
         <v>188</v>
       </c>
-      <c r="G39" t="s">
-        <v>190</v>
-      </c>
       <c r="H39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>193</v>
-      </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>2018</v>
       </c>
       <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
         <v>192</v>
       </c>
-      <c r="F40" t="s">
-        <v>194</v>
-      </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>407</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <v>2019</v>
       </c>
       <c r="E41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" t="s">
         <v>203</v>
       </c>
-      <c r="F41" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
         <v>204</v>
       </c>
-      <c r="H41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>206</v>
-      </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42">
         <v>2019</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>206</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>2019</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>2019</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H44" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>2019</v>
       </c>
       <c r="E45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
         <v>214</v>
       </c>
-      <c r="H45" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>216</v>
-      </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
         <v>218</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>220</v>
-      </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>2019</v>
       </c>
       <c r="E47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F47" t="s">
-        <v>222</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <v>2019</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D49">
         <v>2019</v>
       </c>
       <c r="E49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16">
+    </row>
+    <row r="50" spans="1:15" ht="16">
       <c r="A50" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="B50" t="s">
+        <v>409</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <v>2019</v>
       </c>
       <c r="E50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="B51" t="s">
+        <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>2019</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>2019</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>2019</v>
       </c>
       <c r="E53" t="s">
+        <v>246</v>
+      </c>
+      <c r="F53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>398</v>
+      </c>
+      <c r="B54" t="s">
+        <v>406</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>2019</v>
       </c>
       <c r="E54" t="s">
+        <v>251</v>
+      </c>
+      <c r="F54" t="s">
+        <v>252</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>2019</v>
       </c>
       <c r="E55" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F55" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="B56" t="s">
+        <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>2019</v>
       </c>
       <c r="E56" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="F56" t="s">
-        <v>269</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57">
         <v>2019</v>
       </c>
       <c r="E57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>227</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="B58" t="s">
+        <v>411</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D58">
         <v>2020</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="B59" t="s">
+        <v>406</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>2020</v>
       </c>
       <c r="E59" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" t="s">
+        <v>278</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F59" t="s">
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
         <v>281</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>284</v>
+      <c r="B60" t="s">
+        <v>406</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>2020</v>
       </c>
       <c r="E60" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
         <v>285</v>
       </c>
-      <c r="F60" t="s">
-        <v>286</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>288</v>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>2020</v>
       </c>
       <c r="E61" t="s">
+        <v>286</v>
+      </c>
+      <c r="F61" t="s">
+        <v>287</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F61" t="s">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>293</v>
-      </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>2020</v>
       </c>
       <c r="E62" t="s">
+        <v>291</v>
+      </c>
+      <c r="F62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F62" t="s">
-        <v>295</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H62" s="4" t="s">
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>300</v>
-      </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>2020</v>
       </c>
       <c r="E63" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" t="s">
+        <v>296</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="14">
+    </row>
+    <row r="64" spans="1:15" ht="14">
       <c r="A64" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64">
         <v>2020</v>
       </c>
       <c r="E64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" t="s">
+        <v>302</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F64" t="s">
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
         <v>305</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>308</v>
+      <c r="B65" t="s">
+        <v>406</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>2020</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G65" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
         <v>309</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>312</v>
+      <c r="B66">
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>2020</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
+        <v>311</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" t="s">
         <v>314</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>317</v>
-      </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D67">
         <v>2020</v>
       </c>
       <c r="E67" t="s">
+        <v>312</v>
+      </c>
+      <c r="F67" t="s">
+        <v>313</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D68">
         <v>2020</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F68" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>318</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>2020</v>
       </c>
       <c r="E69" t="s">
+        <v>344</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>2020</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>2020</v>
       </c>
       <c r="E71" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>350</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="B72" t="s">
+        <v>409</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>2020</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>2020</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74">
         <v>2020</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H74" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="16">
+      <c r="A75" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="16">
-      <c r="A75" s="7" t="s">
-        <v>337</v>
+      <c r="B75">
+        <v>1</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>2020</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76">
         <v>2020</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D77">
         <v>2020</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="B78" t="s">
+        <v>405</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D78">
         <v>2020</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H78" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>2021</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G79" s="6" t="s">
+      <c r="H79" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="C80" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>2021</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G80" s="6" t="s">
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="7" t="s">
-        <v>379</v>
+      <c r="B81">
+        <v>1</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>2021</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="H81" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="7" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="7" t="s">
-        <v>389</v>
+      <c r="B82" t="s">
+        <v>411</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>2021</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>2021</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>381</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D84">
         <v>2021</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="H84" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="H84" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="7" t="s">
-        <v>398</v>
+      <c r="B85" t="s">
+        <v>406</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D85">
         <v>2021</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>400</v>
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="B86">
+        <f>SUM(B2:B85)</f>
+        <v>11</v>
+      </c>
+      <c r="L86">
+        <f>SUM(L2:L85)</f>
+        <v>29</v>
+      </c>
+      <c r="M86">
+        <f>SUM(M2:M85)</f>
+        <v>13</v>
+      </c>
+      <c r="N86">
+        <f>SUM(N2:N85)</f>
+        <v>29</v>
+      </c>
+      <c r="O86">
+        <f>SUM(O2:O85)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265792B0-452B-9E40-BDF4-DE95541AF0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EF207-D864-5A48-8A80-AA53BC6E29BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31540" yWindow="-320" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="-400" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="430">
   <si>
     <t>TITLE</t>
   </si>
@@ -1385,6 +1385,60 @@
   </si>
   <si>
     <t>移动操作系统演化分析</t>
+  </si>
+  <si>
+    <t>li2021understanding</t>
+  </si>
+  <si>
+    <t>Wen Li, Na Meng, Li Li, Haipeng Cai</t>
+  </si>
+  <si>
+    <t>Li, Wen and Meng, Na and Li, Li and Cai, Haipeng</t>
+  </si>
+  <si>
+    <t>Understanding Language Selection in Multi-Language Software Projects on GitHub</t>
+  </si>
+  <si>
+    <t>The 43rd ACM/IEEE International Conference on Software Engineering, Poster Track (ICSE-Poster 2021)</t>
+  </si>
+  <si>
+    <t>Checking App Behavior Against App Descriptions: What If There are No App Descriptions?</t>
+  </si>
+  <si>
+    <t>shamsujjoha2021checking</t>
+  </si>
+  <si>
+    <t>The 29th IEEE/ACM International Conference on Program Comprehension (ICPC 2021)</t>
+  </si>
+  <si>
+    <t>The 29th IEEE/ACM International Conference on Program Comprehension, RENE Track (ICPC-RENE 2021)</t>
+  </si>
+  <si>
+    <t>Kunsong Zhao, Jin Liu, Zhou Xu, Li Li, Meng Yan, Jiaojiao Yu and Yuxuan Zhou</t>
+  </si>
+  <si>
+    <t>zhao2021predicting</t>
+  </si>
+  <si>
+    <t>Zhao, Kunsong and Liu, Jin and Xu, Zhou and Li, Li and Yan, Meng and Yu, Jiaojiao and Zhou, Yuxuan</t>
+  </si>
+  <si>
+    <t>Predicting Crash Fault Residence via Simplified Deep Forest Based on A Reduced Feature Set</t>
+  </si>
+  <si>
+    <t>Unleashing the Hidden Power of Compiler Optimization on Binary Code Difference: An Empirical Study</t>
+  </si>
+  <si>
+    <t>Xiaolei Ren, Michael Ho, Jiang Ming, Jeff Y. Lei, Li Li</t>
+  </si>
+  <si>
+    <t>Ren, Xiaolei and Ho, Michael and Ming, Jiang and Y. Lei, Jeff and Li, Li</t>
+  </si>
+  <si>
+    <t>ren2021unleashing</t>
+  </si>
+  <si>
+    <t>The 42nd ACM SIGPLAN Conference on Programming Language Design and Implementation (PLDI 2021)</t>
   </si>
 </sst>
 </file>
@@ -2249,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4527,12 +4581,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" ht="14">
       <c r="A83" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
+        <v>412</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>13</v>
@@ -4541,108 +4592,181 @@
         <v>2021</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>291</v>
+        <v>413</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>380</v>
+        <v>414</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
+        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>2021</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>389</v>
+        <v>292</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B85" t="s">
-        <v>406</v>
+        <v>391</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D85">
         <v>2021</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B86" t="s">
+        <v>406</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>2021</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F86" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H86" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="B86">
-        <f>SUM(B2:B85)</f>
-        <v>11</v>
-      </c>
-      <c r="L86">
-        <f>SUM(L2:L85)</f>
-        <v>29</v>
-      </c>
-      <c r="M86">
-        <f>SUM(M2:M85)</f>
-        <v>13</v>
-      </c>
       <c r="N86">
-        <f>SUM(N2:N85)</f>
-        <v>29</v>
-      </c>
-      <c r="O86">
-        <f>SUM(O2:O85)</f>
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>2021</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>2021</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>2021</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EF207-D864-5A48-8A80-AA53BC6E29BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876519C5-F082-5942-AFBE-70772997E1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="-400" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29640" yWindow="-400" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="438">
   <si>
     <t>TITLE</t>
   </si>
@@ -1366,9 +1366,6 @@
     <t>隐私泄露检测</t>
   </si>
   <si>
-    <t>隐私泄露检测*</t>
-  </si>
-  <si>
     <t>恶意行为分析</t>
   </si>
   <si>
@@ -1439,6 +1436,33 @@
   </si>
   <si>
     <t>The 42nd ACM SIGPLAN Conference on Programming Language Design and Implementation (PLDI 2021)</t>
+  </si>
+  <si>
+    <t>通讯作者</t>
+  </si>
+  <si>
+    <t>移动操作系统演化分析，通讯作者</t>
+  </si>
+  <si>
+    <t>隐私泄露检测，通讯作者</t>
+  </si>
+  <si>
+    <t>联合通讯作者</t>
+  </si>
+  <si>
+    <t>恶意行为分析，通讯作者</t>
+  </si>
+  <si>
+    <t>移动应用缺陷分析，通讯作者</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>29 一作论文</t>
+  </si>
+  <si>
+    <t>12 通讯作者</t>
   </si>
 </sst>
 </file>
@@ -2303,9 +2327,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
@@ -2314,7 +2338,7 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="101" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="138.1640625" customWidth="1"/>
@@ -2746,7 +2770,7 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -2773,12 +2797,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15">
+    <row r="16" spans="1:15" ht="14">
       <c r="A16" t="s">
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -3086,8 +3110,8 @@
       <c r="A28" t="s">
         <v>113</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -3145,7 +3169,7 @@
         <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -3185,7 +3209,7 @@
       <c r="F31" t="s">
         <v>154</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>155</v>
       </c>
       <c r="H31" t="s">
@@ -3197,7 +3221,7 @@
         <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -3232,7 +3256,7 @@
         <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -3263,9 +3287,6 @@
       <c r="A34" t="s">
         <v>164</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -3370,6 +3391,9 @@
       <c r="A38" t="s">
         <v>181</v>
       </c>
+      <c r="B38" s="7" t="s">
+        <v>429</v>
+      </c>
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -3446,7 +3470,7 @@
         <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" t="s">
         <v>75</v>
@@ -3598,6 +3622,9 @@
       <c r="A47" t="s">
         <v>218</v>
       </c>
+      <c r="B47" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
@@ -3622,7 +3649,7 @@
         <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C48" t="s">
         <v>75</v>
@@ -3677,7 +3704,7 @@
         <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -3706,7 +3733,7 @@
         <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -3734,8 +3761,8 @@
       <c r="A52" t="s">
         <v>245</v>
       </c>
-      <c r="B52" t="s">
-        <v>408</v>
+      <c r="B52" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -3790,7 +3817,7 @@
         <v>398</v>
       </c>
       <c r="B54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -3839,7 +3866,7 @@
         <v>267</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -3867,6 +3894,9 @@
       <c r="A57" t="s">
         <v>274</v>
       </c>
+      <c r="B57" s="7" t="s">
+        <v>429</v>
+      </c>
       <c r="C57" t="s">
         <v>75</v>
       </c>
@@ -3897,7 +3927,7 @@
         <v>272</v>
       </c>
       <c r="B58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C58" t="s">
         <v>75</v>
@@ -3926,7 +3956,7 @@
         <v>276</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3955,7 +3985,7 @@
         <v>281</v>
       </c>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -3983,9 +4013,6 @@
       <c r="A61" t="s">
         <v>285</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
@@ -4084,8 +4111,8 @@
       <c r="A65" t="s">
         <v>305</v>
       </c>
-      <c r="B65" t="s">
-        <v>406</v>
+      <c r="B65" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -4116,8 +4143,8 @@
       <c r="A66" t="s">
         <v>309</v>
       </c>
-      <c r="B66">
-        <v>1</v>
+      <c r="B66" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -4148,6 +4175,7 @@
       <c r="A67" t="s">
         <v>314</v>
       </c>
+      <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>75</v>
       </c>
@@ -4171,9 +4199,6 @@
       <c r="A68" t="s">
         <v>321</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -4276,7 +4301,7 @@
         <v>327</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>13</v>
@@ -4304,9 +4329,6 @@
       <c r="A73" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
       <c r="C73" s="7" t="s">
         <v>13</v>
       </c>
@@ -4333,9 +4355,6 @@
       <c r="A74" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
       <c r="C74" s="7" t="s">
         <v>13</v>
       </c>
@@ -4362,8 +4381,8 @@
       <c r="A75" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B75">
-        <v>1</v>
+      <c r="B75" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>13</v>
@@ -4417,6 +4436,9 @@
       <c r="A77" s="7" t="s">
         <v>360</v>
       </c>
+      <c r="B77" s="7" t="s">
+        <v>429</v>
+      </c>
       <c r="C77" s="7" t="s">
         <v>75</v>
       </c>
@@ -4443,8 +4465,8 @@
       <c r="A78" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B78" t="s">
-        <v>405</v>
+      <c r="B78" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>75</v>
@@ -4524,9 +4546,6 @@
       <c r="A81" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
@@ -4553,8 +4572,8 @@
       <c r="A82" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B82" t="s">
-        <v>411</v>
+      <c r="B82" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>13</v>
@@ -4583,7 +4602,7 @@
     </row>
     <row r="83" spans="1:15" ht="14">
       <c r="A83" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>13</v>
@@ -4592,24 +4611,24 @@
         <v>2021</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B84">
-        <v>1</v>
+      <c r="B84" t="s">
+        <v>429</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>13</v>
@@ -4640,8 +4659,8 @@
       <c r="A85" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B85">
-        <v>1</v>
+      <c r="B85" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>75</v>
@@ -4676,7 +4695,7 @@
         <v>395</v>
       </c>
       <c r="B86" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>13</v>
@@ -4702,7 +4721,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
@@ -4717,15 +4736,15 @@
         <v>371</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>13</v>
@@ -4734,21 +4753,21 @@
         <v>2021</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>13</v>
@@ -4757,16 +4776,24 @@
         <v>2021</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="G89" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876519C5-F082-5942-AFBE-70772997E1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A015AE1-ACFC-E740-A989-4CDADD12B3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="-400" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31720" yWindow="-400" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="449">
   <si>
     <t>TITLE</t>
   </si>
@@ -1459,10 +1459,43 @@
     <t>check</t>
   </si>
   <si>
-    <t>29 一作论文</t>
-  </si>
-  <si>
-    <t>12 通讯作者</t>
+    <t>Evaluating and comparing memory error vulnerability detectors</t>
+  </si>
+  <si>
+    <t>Yu Nong, Haipeng Cai, Pengfei Ye, Li Li, Feng Chen</t>
+  </si>
+  <si>
+    <t>Nong, Yu and Cai, Haipeng and Ye, Pengfei and Li, Li and Chen, Feng</t>
+  </si>
+  <si>
+    <t>nong2021evaluating</t>
+  </si>
+  <si>
+    <t>Yanjie Zhao, Li Li, Xiaoyu Sun, Pei Liu, John Grundy</t>
+  </si>
+  <si>
+    <t>Icon2Code: Recommending Code Implementations for Android GUI Components</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Li, Li and Sun, Xiaoyu and Liu, Pei and Grundy, John</t>
+  </si>
+  <si>
+    <t>zhao2021icon2code</t>
+  </si>
+  <si>
+    <t>Bo Li, Qiang He, Feifei Chen, Xin Xia, Li Li, John Grundy, Yun Yang</t>
+  </si>
+  <si>
+    <t>Embedding App-Library Graph for Neural Third Party Library Recommendation</t>
+  </si>
+  <si>
+    <t>Li, Bo and He, Qiang and Chen, Feifei and Xia, Xin and Li, Li and Grundy, John and Yang, Yun</t>
+  </si>
+  <si>
+    <t>The 29th ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2021)</t>
+  </si>
+  <si>
+    <t>li2021embedding</t>
   </si>
 </sst>
 </file>
@@ -2327,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2797,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14">
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -4788,12 +4821,76 @@
         <v>428</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="7" t="s">
+    <row r="90" spans="1:15">
+      <c r="A90" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90">
+        <v>2021</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>437</v>
+      <c r="H90" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B91" t="s">
+        <v>429</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91">
+        <v>2021</v>
+      </c>
+      <c r="E91" t="s">
+        <v>440</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>2021</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A015AE1-ACFC-E740-A989-4CDADD12B3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53E6456-320B-6F4F-AC14-C717F4DF9E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31720" yWindow="-400" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31720" yWindow="500" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="475">
   <si>
     <t>TITLE</t>
   </si>
@@ -1318,9 +1318,6 @@
     <t>The 43rd ACM/IEEE International Conference on Software Engineering, SEIP Track (ICSE-SEIP 2021)</t>
   </si>
   <si>
-    <t>Zhao, Yanjie and Li, Li and Wang, Haoyu and Cai, Haipeng and Bissyande, Tegawende and Klein, Jacques and Grundy, John</t>
-  </si>
-  <si>
     <t>Yanjie Zhao, Li Li, Haoyu Wang, Haipeng Cai, Tegawendé F. Bissyandé, Jacques Klein and John Grundy</t>
   </si>
   <si>
@@ -1496,6 +1493,87 @@
   </si>
   <si>
     <t>li2021embedding</t>
+  </si>
+  <si>
+    <t>Xin Wang, Xiao Liu, Li Li, Xiao Chen, Jin Liu and Hao Wu</t>
+  </si>
+  <si>
+    <t>Wang, Xin and Liu, Xiao and Li, Li and Chen, Xiao and Liu, Jin and Wu, Hao</t>
+  </si>
+  <si>
+    <t>wang2021timeaware</t>
+  </si>
+  <si>
+    <t>Time-aware User Modeling with Check-in Time Prediction for Next POI Recommendation Service</t>
+  </si>
+  <si>
+    <t>Teng Zhou, Kui Liu, Li Li, Zhe Liu, Jacques Klein and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Jingtang Zhang, Kui Liu, Dongsun Kim, Li Li, Zhe Liu, Jacques Klein and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>SMARTGIFT: Learning to Generate Practical Inputs for Testing Smart Contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisiting Test Cases to Boost Generate-and-Validate Program Repair </t>
+  </si>
+  <si>
+    <t>zhou2021smartgift</t>
+  </si>
+  <si>
+    <t>zhang2021revisiting</t>
+  </si>
+  <si>
+    <t>The 37th International Conference on Software Maintenance and Evolution (ICSME 2021)</t>
+  </si>
+  <si>
+    <t>The International Conference on Web Services (ICWS 2021)</t>
+  </si>
+  <si>
+    <t>Developing Mobile Applications via Model Driven Development: A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>shamsujjoha2021developing</t>
+  </si>
+  <si>
+    <t>Pingfan Kong, Li Li, Jun Gao, Timothée Riom, Yanjie Zhao, Tegawendé F. Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Kong, Pingfan and Li, Li and Gao, Jun and Riom, Timothée and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>Zhang, Jingtang and Liu, Kui and Kim, Dongsun and Li, Li and Liu, Zhe and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>Zhou, Teng and Liu, Kui and Li, Li and Liu, Zhe and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Li, Li and Wang, Haoyu and Cai, Haipeng and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Grundy, John</t>
+  </si>
+  <si>
+    <t>kong2021anchor</t>
+  </si>
+  <si>
+    <t>Anchor: Locating Android Framework-specific Crashing Faults</t>
+  </si>
+  <si>
+    <t>Automated Software Engineering Journal (AUSE)</t>
+  </si>
+  <si>
+    <t>Xiaoyu Sun, Xiao Chen, Kui Liu, Sheng Wen, Li Li and John Grundy</t>
+  </si>
+  <si>
+    <t>Sun, Xiaoyu and Chen, Xiao and Liu, Kui and Wen, Sheng and Li, Li and Grundy, John</t>
+  </si>
+  <si>
+    <t>Characterizing Sensor Leaks in Android Apps</t>
+  </si>
+  <si>
+    <t>The 32nd International Symposium on Software Reliability Engineering (ISSRE 2021)</t>
+  </si>
+  <si>
+    <t>sun2021characterizing</t>
   </si>
 </sst>
 </file>
@@ -2360,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:E108"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2371,7 +2449,7 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="138.1640625" customWidth="1"/>
@@ -2388,7 +2466,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -2418,16 +2496,16 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M1" t="s">
         <v>399</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>400</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>401</v>
-      </c>
-      <c r="O1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2539,7 +2617,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2577,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2716,7 +2794,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -2803,7 +2881,7 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -2835,7 +2913,7 @@
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -3144,7 +3222,7 @@
         <v>113</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -3202,7 +3280,7 @@
         <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -3254,7 +3332,7 @@
         <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -3289,7 +3367,7 @@
         <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -3425,7 +3503,7 @@
         <v>181</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -3503,7 +3581,7 @@
         <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C41" t="s">
         <v>75</v>
@@ -3656,7 +3734,7 @@
         <v>218</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -3682,7 +3760,7 @@
         <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C48" t="s">
         <v>75</v>
@@ -3737,7 +3815,7 @@
         <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -3766,7 +3844,7 @@
         <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -3795,7 +3873,7 @@
         <v>245</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -3847,10 +3925,10 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -3899,7 +3977,7 @@
         <v>267</v>
       </c>
       <c r="B56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -3928,7 +4006,7 @@
         <v>274</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -3960,7 +4038,7 @@
         <v>272</v>
       </c>
       <c r="B58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C58" t="s">
         <v>75</v>
@@ -3989,7 +4067,7 @@
         <v>276</v>
       </c>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -4018,7 +4096,7 @@
         <v>281</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -4145,7 +4223,7 @@
         <v>305</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -4177,7 +4255,7 @@
         <v>309</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -4334,7 +4412,7 @@
         <v>327</v>
       </c>
       <c r="B72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>13</v>
@@ -4415,7 +4493,7 @@
         <v>334</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>13</v>
@@ -4470,7 +4548,7 @@
         <v>360</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>75</v>
@@ -4499,7 +4577,7 @@
         <v>365</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>75</v>
@@ -4606,7 +4684,7 @@
         <v>386</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>13</v>
@@ -4635,7 +4713,7 @@
     </row>
     <row r="83" spans="1:15" ht="14">
       <c r="A83" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>13</v>
@@ -4644,16 +4722,16 @@
         <v>2021</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4661,7 +4739,7 @@
         <v>379</v>
       </c>
       <c r="B84" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>13</v>
@@ -4690,10 +4768,10 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>75</v>
@@ -4702,13 +4780,13 @@
         <v>2021</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>389</v>
+        <v>466</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>364</v>
@@ -4725,10 +4803,10 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>13</v>
@@ -4737,16 +4815,16 @@
         <v>2021</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="G86" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -4754,7 +4832,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
@@ -4769,15 +4847,15 @@
         <v>371</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>13</v>
@@ -4786,21 +4864,21 @@
         <v>2021</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>13</v>
@@ -4809,21 +4887,21 @@
         <v>2021</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="G89" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>75</v>
@@ -4832,13 +4910,13 @@
         <v>2021</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="G90" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>228</v>
@@ -4846,10 +4924,10 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B91" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>75</v>
@@ -4858,13 +4936,13 @@
         <v>2021</v>
       </c>
       <c r="E91" t="s">
+        <v>439</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>228</v>
@@ -4872,7 +4950,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
@@ -4881,16 +4959,160 @@
         <v>2021</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G92" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>447</v>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>2021</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>2021</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>2021</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96">
+        <v>2021</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B97" t="s">
+        <v>428</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97">
+        <v>2021</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B98" t="s">
+        <v>428</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>2021</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53E6456-320B-6F4F-AC14-C717F4DF9E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC4661-E538-1A40-81A3-ED1CABF2AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31720" yWindow="500" windowWidth="35480" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="5040" windowWidth="38360" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="498">
   <si>
     <t>TITLE</t>
   </si>
@@ -1574,6 +1574,75 @@
   </si>
   <si>
     <t>sun2021characterizing</t>
+  </si>
+  <si>
+    <t>Research on Third-Party Libraries in Android Apps: A Taxonomy and Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>Xian Zhan, Tianming Liu, Lingling Fan, Li Li, Sen Chen, Xiapu Luo, Yang Liu</t>
+  </si>
+  <si>
+    <t>Zhan, Xian and Liu, Tianming and Fan, Lingling and Li, Li and Chen, Sen and Luo, Xiapu and Liu, Yang</t>
+  </si>
+  <si>
+    <t>zhan2021research</t>
+  </si>
+  <si>
+    <t>A Systematic Assessment on Android Third-party Library Detection Tools</t>
+  </si>
+  <si>
+    <t>Xian Zhan, Tianming Liu, Yepang Liu, Yang Liu, Li Li, Haoyu Wang, Xiapu Luo</t>
+  </si>
+  <si>
+    <t>Zhan, Xian and Liu, Tianming and Liu, Yepang and Liu, Yang and Li, Li and Wang, Haoyu and Luo, Xiapu</t>
+  </si>
+  <si>
+    <t>zhan2021systematic</t>
+  </si>
+  <si>
+    <t>Does Domain Change the Opinion of Individuals on Human Values? A Preliminary Investigation on eHealth Apps End-users</t>
+  </si>
+  <si>
+    <t>Humphrey O. Obie, Mojtaba Shahin, John Grundy, Burak Turhan, Li Li, Waqar Hussain and Jon Whittle</t>
+  </si>
+  <si>
+    <t>Obie, Humphrey and Shahin, Mojtaba and Grundy, John and Turhan, Burak and Li, Li and Hussain, Waqar and Whittle, Jon</t>
+  </si>
+  <si>
+    <t>The 28th Asia-Pacific Software Engineering Conference (APSEC), ERA track (APSEC 2021)</t>
+  </si>
+  <si>
+    <t>obie2021domain</t>
+  </si>
+  <si>
+    <t>liu2021privacy</t>
+  </si>
+  <si>
+    <t>Joseph Liu, Man Ho Au, Tsz Hon Yuen, Cong Zuo, Jiawei Wang, Amin Sakzad, Xiapu Luo, Li Li and Kim-Kwang Raymond Choo</t>
+  </si>
+  <si>
+    <t>Liu, Joseph and Au, Man Ho  and Yuen, Tsz Hon and Zuo, Cong and Wang, Jiawei and Sakzad, Amin and Luo, Xiapu and Li, Li and Choo, Kim-kwang Raymond</t>
+  </si>
+  <si>
+    <t>Privacy-Preserving Contact Tracing Protocol for Mobile Devices: A Zero-Knowledge Proof Approach</t>
+  </si>
+  <si>
+    <t>International Conference on Information Security Practice and Experience (ISPEC 2021)</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Software Engineering</t>
+  </si>
+  <si>
+    <t>How Secondary School Girls Perceive Computational Thinking Practices through Collaborative Programming with the Micro:bit</t>
+  </si>
+  <si>
+    <t>Mojtaba Shahin, Christabel Gonsalvez, Jon Whittle, Chunyang Chen, Li Li, Xin Xia</t>
+  </si>
+  <si>
+    <t>Shahin, Mojtaba and Gonsalvez, Christabel and Whittle, Jon and Chen, Chunyang and Li, Li and Xia, Xin</t>
+  </si>
+  <si>
+    <t>shahin2022secondary</t>
   </si>
 </sst>
 </file>
@@ -2438,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="G76" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5115,6 +5184,121 @@
         <v>473</v>
       </c>
     </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>2021</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>2021</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101">
+        <v>2021</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102">
+        <v>2021</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103">
+        <v>2022</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC4661-E538-1A40-81A3-ED1CABF2AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFCF5D-21B0-F74C-9488-006F482A2980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="5040" windowWidth="38360" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26120" yWindow="6080" windowWidth="38360" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="516">
   <si>
     <t>TITLE</t>
   </si>
@@ -1643,6 +1643,60 @@
   </si>
   <si>
     <t>shahin2022secondary</t>
+  </si>
+  <si>
+    <t>Difuzer: Uncovering Suspicious Hidden Sensitive Operations in Android Apps</t>
+  </si>
+  <si>
+    <t>The 44th International Conference on Software Engineering (ICSE 2022)</t>
+  </si>
+  <si>
+    <t>samhi2022difuzer</t>
+  </si>
+  <si>
+    <t>Jordan Samhi, Li Li, Tegawendé F. Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Samhi, Jordan and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>On the Importance of Building High-quality Training Datasets for Neural Code Search</t>
+  </si>
+  <si>
+    <t>Zhensu Sun, Li Li, Yan Liu, Xiaoning Du, Li Li</t>
+  </si>
+  <si>
+    <t>Sun, Zhensu and Li, Li and Liu, Yan and Du, Xiaoning and Li, Li</t>
+  </si>
+  <si>
+    <t>sun2022importance</t>
+  </si>
+  <si>
+    <t>Towards Automatically Repairing Compatibility Issues in Published Android Apps</t>
+  </si>
+  <si>
+    <t>zhao2022towards</t>
+  </si>
+  <si>
+    <t>Yanjie Zhao, Li Li, Kui Liu, John Grundy</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Li, Li and Liu, Kui and Grundy, John</t>
+  </si>
+  <si>
+    <t>Roland Croft, Muhammad Ali Babar, Li Li</t>
+  </si>
+  <si>
+    <t>Croft, Roland and Ali Babar, Muhammad and Li, Li</t>
+  </si>
+  <si>
+    <t>croft2022investigation</t>
+  </si>
+  <si>
+    <t>An Investigation into Inconsistency of Software Vulnerability Severity across Data Sources</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Software Analysis, Evolution and Reengineering (SANER 2022)</t>
   </si>
 </sst>
 </file>
@@ -2507,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G76" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5278,25 +5332,117 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>2022</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104">
+        <v>2022</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F104" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="G104" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>2022</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>2022</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>2022</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFCF5D-21B0-F74C-9488-006F482A2980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DF448-2871-5645-8088-F5D30CD8CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26120" yWindow="6080" windowWidth="38360" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28840" yWindow="6620" windowWidth="38360" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="525">
   <si>
     <t>TITLE</t>
   </si>
@@ -1697,6 +1697,33 @@
   </si>
   <si>
     <t>IEEE International Conference on Software Analysis, Evolution and Reengineering (SANER 2022)</t>
+  </si>
+  <si>
+    <t>Guosheng Xu, Siyi Li, Hao Zhou, Shucen Liu, Yutian Tang, Li Li, Xiapu Luo, Xusheng Xiao, Guoai Xu and Haoyu Wang</t>
+  </si>
+  <si>
+    <t>xu2022lie</t>
+  </si>
+  <si>
+    <t>Lie to Me: Abusing the Mobile Content Sharing Service for Fun and Profit</t>
+  </si>
+  <si>
+    <t>Xu, Guosheng and Li, Siyi and Zhou, Hao and Liu, Shucen and Tang, Yutian and Li, Li and Luo, Xiapu and Xiao, Xusheng and Xu, Guoai and Wang, Haoyu</t>
+  </si>
+  <si>
+    <t>The ACM Web Conference (WWW 2022)</t>
+  </si>
+  <si>
+    <t>CoProtector: Protect Open-Source Code against Unauthorized Training Usage with Data Poisoning</t>
+  </si>
+  <si>
+    <t>Zhensu Sun, Xiaoning Du, Fu Song, Mingze Ni and Li Li</t>
+  </si>
+  <si>
+    <t>Sun, Zhensu and Du, Xiaoning and Song, Fu and Ni, Mingze and Li, Li</t>
+  </si>
+  <si>
+    <t>sun2022coprotector</t>
   </si>
 </sst>
 </file>
@@ -2561,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5445,6 +5472,52 @@
         <v>499</v>
       </c>
     </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>2022</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>2022</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DF448-2871-5645-8088-F5D30CD8CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E531A6-720D-104A-9747-700EE6815152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="6620" windowWidth="38360" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="5200" windowWidth="38400" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="531">
   <si>
     <t>TITLE</t>
   </si>
@@ -1630,9 +1630,6 @@
     <t>International Conference on Information Security Practice and Experience (ISPEC 2021)</t>
   </si>
   <si>
-    <t>IEEE Transactions on Software Engineering</t>
-  </si>
-  <si>
     <t>How Secondary School Girls Perceive Computational Thinking Practices through Collaborative Programming with the Micro:bit</t>
   </si>
   <si>
@@ -1724,6 +1721,27 @@
   </si>
   <si>
     <t>sun2022coprotector</t>
+  </si>
+  <si>
+    <t>Code Implementation Recommendation for Android GUI Components</t>
+  </si>
+  <si>
+    <t>zhao2022code</t>
+  </si>
+  <si>
+    <t>The 44th International Conference on Software Engineering, Demonstrations Track (ICSE 2022)</t>
+  </si>
+  <si>
+    <t>APIMatchmaker: Matching the Right APIs for Supporting the Development of Android Apps</t>
+  </si>
+  <si>
+    <t>Yanjie Zhao, Li Li, Haoyu Wang, Qiang He, and John Grundy</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Li, Li and Wang, Haoyu and He, Qiang and Grundy, John</t>
+  </si>
+  <si>
+    <t>zhao2022apimatchmaker</t>
   </si>
 </sst>
 </file>
@@ -2588,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5331,7 +5349,7 @@
         <v>475</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>493</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5354,12 +5372,12 @@
         <v>479</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>493</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>13</v>
@@ -5368,21 +5386,21 @@
         <v>2022</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="G103" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>75</v>
@@ -5391,13 +5409,13 @@
         <v>2022</v>
       </c>
       <c r="E104" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>496</v>
-      </c>
       <c r="G104" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>236</v>
@@ -5405,7 +5423,10 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
+      </c>
+      <c r="B105" t="s">
+        <v>428</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
@@ -5413,22 +5434,25 @@
       <c r="D105">
         <v>2022</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>501</v>
+      <c r="E105" t="s">
+        <v>439</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="B106" t="s">
+        <v>428</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>13</v>
@@ -5437,21 +5461,21 @@
         <v>2022</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
@@ -5460,21 +5484,24 @@
         <v>2022</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
+      </c>
+      <c r="B108" t="s">
+        <v>428</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>13</v>
@@ -5483,21 +5510,21 @@
         <v>2022</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>13</v>
@@ -5506,16 +5533,68 @@
         <v>2022</v>
       </c>
       <c r="E109" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B110" t="s">
+        <v>428</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>2022</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H109" s="7" t="s">
+      <c r="G110" s="6" t="s">
         <v>520</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B111" t="s">
+        <v>428</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111">
+        <v>2022</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E531A6-720D-104A-9747-700EE6815152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C68011-A30E-1649-B02F-6C88B2D1C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="5200" windowWidth="38400" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46780" yWindow="6340" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="536">
   <si>
     <t>TITLE</t>
   </si>
@@ -1742,6 +1742,21 @@
   </si>
   <si>
     <t>zhao2022apimatchmaker</t>
+  </si>
+  <si>
+    <t>Juncai Guo, Jin Liu, Yao Wan, Li Li, Pingyi Zhou</t>
+  </si>
+  <si>
+    <t>Guo, Juncai and Liu, Jin and Wan, Yao and Li, Li and Zhou, Pingyi</t>
+  </si>
+  <si>
+    <t>Modeling Hierarchical Syntax Structure with Triplet Position for Source Code Summarization</t>
+  </si>
+  <si>
+    <t>The 60th Annual Meeting of the Association for Computational Linguistics (ACL 2022)</t>
+  </si>
+  <si>
+    <t>guo2022modeling</t>
   </si>
 </sst>
 </file>
@@ -2606,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3076,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15">
+    <row r="16" spans="1:15" ht="14">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -5595,6 +5610,29 @@
       </c>
       <c r="H111" s="7" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>2022</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C68011-A30E-1649-B02F-6C88B2D1C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46729DD-5947-FC44-9978-0AF4EF7BEB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46780" yWindow="6340" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32460" yWindow="3480" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="541">
   <si>
     <t>TITLE</t>
   </si>
@@ -1757,6 +1757,21 @@
   </si>
   <si>
     <t>guo2022modeling</t>
+  </si>
+  <si>
+    <t>Yonghui Liu, Li Li, Pingfan Kong, Xiaoyu Sun, and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Liu, Yonghui and Li, Li and Kong, Pingfan and Sun, Xiaoyu and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>A First Look at Security Risks of Android TV Apps</t>
+  </si>
+  <si>
+    <t>The 4th International Workshop on Advances in Mobile App Analysis (A-Mobile 2021), co-located with ASE 2021</t>
+  </si>
+  <si>
+    <t>liu2021first</t>
   </si>
 </sst>
 </file>
@@ -2621,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3091,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14">
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -5084,33 +5099,30 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="7" t="s">
-        <v>438</v>
+        <v>540</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>2021</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>436</v>
+        <v>536</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>437</v>
+        <v>537</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>435</v>
+        <v>538</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>228</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B91" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>75</v>
@@ -5118,14 +5130,14 @@
       <c r="D91">
         <v>2021</v>
       </c>
-      <c r="E91" t="s">
-        <v>439</v>
+      <c r="E91" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>228</v>
@@ -5133,30 +5145,33 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
+      </c>
+      <c r="B92" t="s">
+        <v>428</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D92">
         <v>2021</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>443</v>
+      <c r="E92" t="s">
+        <v>439</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>446</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
@@ -5165,21 +5180,21 @@
         <v>2021</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>13</v>
@@ -5188,21 +5203,21 @@
         <v>2021</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>13</v>
@@ -5211,13 +5226,13 @@
         <v>2021</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>458</v>
@@ -5225,33 +5240,30 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>2021</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>228</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B97" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>75</v>
@@ -5260,47 +5272,50 @@
         <v>2021</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>462</v>
+        <v>370</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>469</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B98" t="s">
         <v>428</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D98">
         <v>2021</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
+      </c>
+      <c r="B99" t="s">
+        <v>428</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>13</v>
@@ -5309,21 +5324,21 @@
         <v>2021</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>13</v>
@@ -5332,44 +5347,44 @@
         <v>2021</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D101">
         <v>2021</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>203</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>75</v>
@@ -5378,13 +5393,13 @@
         <v>2021</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>203</v>
@@ -5392,79 +5407,76 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="7" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D103">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>514</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <v>2022</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>236</v>
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B105" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D105">
         <v>2022</v>
       </c>
-      <c r="E105" t="s">
-        <v>439</v>
+      <c r="E105" s="7" t="s">
+        <v>494</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>526</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B106" t="s">
         <v>428</v>
@@ -5475,22 +5487,25 @@
       <c r="D106">
         <v>2022</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>508</v>
+      <c r="E106" t="s">
+        <v>439</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
+      </c>
+      <c r="B107" t="s">
+        <v>428</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
@@ -5499,13 +5514,13 @@
         <v>2022</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>498</v>
@@ -5513,10 +5528,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B108" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>13</v>
@@ -5525,13 +5537,13 @@
         <v>2022</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>498</v>
@@ -5539,7 +5551,10 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
+      </c>
+      <c r="B109" t="s">
+        <v>428</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>13</v>
@@ -5548,24 +5563,21 @@
         <v>2022</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B110" t="s">
-        <v>428</v>
+        <v>516</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>13</v>
@@ -5574,13 +5586,13 @@
         <v>2022</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>519</v>
@@ -5588,50 +5600,76 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B111" t="s">
         <v>428</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D111">
         <v>2022</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>203</v>
+        <v>519</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
+      </c>
+      <c r="B112" t="s">
+        <v>428</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D112">
         <v>2022</v>
       </c>
       <c r="E112" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>2022</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G113" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H113" s="7" t="s">
         <v>534</v>
       </c>
     </row>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46729DD-5947-FC44-9978-0AF4EF7BEB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01078A34-44D5-C049-B266-F7C4B16D7DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="3480" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32460" yWindow="3480" windowWidth="34740" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="550">
   <si>
     <t>TITLE</t>
   </si>
@@ -1772,6 +1772,33 @@
   </si>
   <si>
     <t>liu2021first</t>
+  </si>
+  <si>
+    <t>Do Customized Android Frameworks Keep Pace with Android?</t>
+  </si>
+  <si>
+    <t>Pei Liu, Mattia Fazzini, John Grundy, Li Li</t>
+  </si>
+  <si>
+    <t>Liu, Pei and Fazzini, Mattia and Grundy, John and Li, Li</t>
+  </si>
+  <si>
+    <t>The 19th International Conference on Mining Software Repositories (MSR 2022)</t>
+  </si>
+  <si>
+    <t>liu2022customized</t>
+  </si>
+  <si>
+    <t>obie2022violation</t>
+  </si>
+  <si>
+    <t>Humphrey O. Obie, Idowu Ilekura, Hung Du, Mojtaba Shahin, John Grundy, Li Li, Jon Whittle, Burak Turhan</t>
+  </si>
+  <si>
+    <t>Obie, Humphrey and Ilekura, Idowu and Du, Hung and Shahin, Mojtaba and Grundy, John and Li, Li and Whittle, Jon and Turhan, Burak</t>
+  </si>
+  <si>
+    <t>On the Violation of Honesty in Mobile Apps: Automated Detection and Categories</t>
   </si>
 </sst>
 </file>
@@ -2636,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2647,7 +2674,7 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" customWidth="1"/>
+    <col min="5" max="5" width="88" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="138.1640625" customWidth="1"/>
@@ -3949,7 +3976,7 @@
       <c r="G47" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="7" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5671,6 +5698,52 @@
       </c>
       <c r="H113" s="7" t="s">
         <v>534</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>2022</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>2022</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01078A34-44D5-C049-B266-F7C4B16D7DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE7351-8DBE-4C44-96BC-F35E01981B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32460" yWindow="3480" windowWidth="34740" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="564">
   <si>
     <t>TITLE</t>
   </si>
@@ -1799,6 +1799,48 @@
   </si>
   <si>
     <t>On the Violation of Honesty in Mobile Apps: Automated Detection and Categories</t>
+  </si>
+  <si>
+    <t>CODE-MVP: Learning to Represent Source Code from Multiple Views with Contrastive Pre-Training</t>
+  </si>
+  <si>
+    <t>Xin Wang, Yasheng Wang, Yao Wan, Jiawei Wang, Pingyi Zhou, Li Li, Hao Wu, Jin Liu</t>
+  </si>
+  <si>
+    <t>Wang, Xin and Wang, Yasheng and Wan, Yao and Wang, Jiawei and Zhou, Pingyi and Li, Li and Wu, Hao and Liu, Jin</t>
+  </si>
+  <si>
+    <t>Findings of the 2022 Annual Conference of the North American Chapter of the Association for Computational Linguistics (NAACL 2022)</t>
+  </si>
+  <si>
+    <t>wang2022codemvp</t>
+  </si>
+  <si>
+    <t>SSPCatcher: Learning to Catch Security Patches</t>
+  </si>
+  <si>
+    <t>Delwende Arthur Sawadogo, Tegawendé F. Bissyandé, Naouel Moha, Kevin Allix, Jacques Klein, Li Li and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Sawadogo, Delwende Arthur and Bissyand{\'e}, Tegawend{\'e} F and Moha, Naouel and Allix, Kevin and Klein, Jacques and Li, Li and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>sawadogo2022sspcatcher</t>
+  </si>
+  <si>
+    <t>Automatically Detecting API-induced Compatibility Issues in Android Apps: A Reproducibility Study</t>
+  </si>
+  <si>
+    <t>Pei Liu, Yanjie Zhao, Haipeng Cai, Mattia Fazzini, John Grundy, and Li Li</t>
+  </si>
+  <si>
+    <t>Liu, Pei and Zhao, Yanjie and Cai, Haipeng and Fazzini, Mattia and Grundy, John and Li, Li</t>
+  </si>
+  <si>
+    <t>liu2022automatically</t>
+  </si>
+  <si>
+    <t>The ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2022)</t>
   </si>
 </sst>
 </file>
@@ -2663,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5679,7 +5721,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>13</v>
@@ -5688,21 +5730,21 @@
         <v>2022</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>533</v>
+        <v>552</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
@@ -5711,39 +5753,108 @@
         <v>2022</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D115">
         <v>2022</v>
       </c>
       <c r="E115" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>2022</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>2022</v>
+      </c>
+      <c r="E117" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F117" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="G115" s="6" t="s">
+      <c r="G117" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>2022</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE7351-8DBE-4C44-96BC-F35E01981B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02B4C58-8247-5847-827F-8B0501C13EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32460" yWindow="3480" windowWidth="34740" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1828,9 +1828,6 @@
     <t>sawadogo2022sspcatcher</t>
   </si>
   <si>
-    <t>Automatically Detecting API-induced Compatibility Issues in Android Apps: A Reproducibility Study</t>
-  </si>
-  <si>
     <t>Pei Liu, Yanjie Zhao, Haipeng Cai, Mattia Fazzini, John Grundy, and Li Li</t>
   </si>
   <si>
@@ -1841,6 +1838,9 @@
   </si>
   <si>
     <t>The ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2022)</t>
+  </si>
+  <si>
+    <t>Automatically Detecting API-induced Compatibility Issues in Android Apps: A Comparative Analysis (Replicability Studies)</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="F85" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>13</v>
@@ -5845,16 +5845,16 @@
         <v>2022</v>
       </c>
       <c r="E118" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F118" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F118" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="G118" s="6" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02B4C58-8247-5847-827F-8B0501C13EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2B2975-BBFF-264E-BE5E-47AB44B9D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="3480" windowWidth="34740" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="4440" windowWidth="38400" windowHeight="19820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="569">
   <si>
     <t>TITLE</t>
   </si>
@@ -1840,7 +1840,22 @@
     <t>The ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2022)</t>
   </si>
   <si>
-    <t>Automatically Detecting API-induced Compatibility Issues in Android Apps: A Comparative Analysis (Replicability Studies)</t>
+    <t>Automatically Detecting API-induced Compatibility Issues in Android Apps: A Comparative Analysis (Replicability Study)</t>
+  </si>
+  <si>
+    <t>Lihong Tang, Tingmin Wu, Xiao Chen, Li Li, Xin Xia, Marthie Grobler, Yang Xiang</t>
+  </si>
+  <si>
+    <t>Tang, Lihong and Wu, Tingmin and Chen, Xiao and Li, Li and Xia, Xin and Grobler, Marthie and Xiang, Yang</t>
+  </si>
+  <si>
+    <t>How does Visualisation Help App Practitioners Analyse Android Apps?</t>
+  </si>
+  <si>
+    <t>IEEEE Transactions on Dependable and Secure Computing (TDSC)</t>
+  </si>
+  <si>
+    <t>tang2022how</t>
   </si>
 </sst>
 </file>
@@ -2705,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F85" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5857,6 +5872,29 @@
         <v>562</v>
       </c>
     </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D119">
+        <v>2022</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2B2975-BBFF-264E-BE5E-47AB44B9D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B61D2-493E-9F48-A5BD-C43E2CBB00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="4440" windowWidth="38400" windowHeight="19820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36220" yWindow="4880" windowWidth="26820" windowHeight="13820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="590">
   <si>
     <t>TITLE</t>
   </si>
@@ -1856,6 +1856,69 @@
   </si>
   <si>
     <t>tang2022how</t>
+  </si>
+  <si>
+    <t>Student First Supervisor Second</t>
+  </si>
+  <si>
+    <t>SUM=</t>
+  </si>
+  <si>
+    <t>qin2022peeler</t>
+  </si>
+  <si>
+    <t>Peeler: Learning to Effectively Predict Flakiness without Running Tests</t>
+  </si>
+  <si>
+    <t>International Conference on Software Maintenance and Evolution (ICSME 2022)</t>
+  </si>
+  <si>
+    <t>Yihao Qin, Shangwen Wang, Kui Liu, Bo Lin, Hongjun Wu, Li Li, Xiaoguang Mao, and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Qin, Yihao and Wang, Shangwen and Liu, Kui and Lin, Bo and Wu, Hongjun and Li, Li and Mao, Xiaoguang and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>Yuhao Gao, Guoai Xu, Li Li, Xiapu Luo, Chenyu Wang, and Yulei Sui</t>
+  </si>
+  <si>
+    <t>Demystifying the Underground Ecosystem of Account Registration Bots</t>
+  </si>
+  <si>
+    <t>ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2022)</t>
+  </si>
+  <si>
+    <t>Gao, Yuhao and Xu, Guoai and Li, Li and Luo, Xiapu and Wang, Chenyu and Sui, Yulei</t>
+  </si>
+  <si>
+    <t>gao2022demystifying</t>
+  </si>
+  <si>
+    <t>Li, Wen and Li, Li and Cai, Haipeng</t>
+  </si>
+  <si>
+    <t>On the Vulnerability Proneness of Multilingual Code</t>
+  </si>
+  <si>
+    <t>li2022vulnerability</t>
+  </si>
+  <si>
+    <t>Yue Liu, Chakkrit Tantithamthavorn, Li Li, and Yepang Liu</t>
+  </si>
+  <si>
+    <t>liu2022deep</t>
+  </si>
+  <si>
+    <t>Liu, Yue and Tantithamthavorn, Chakkrit and Li, Li and Liu, Yepang</t>
+  </si>
+  <si>
+    <t>Deep Learning for Android Malware Defenses: a Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>ACM Computing Surveys (CSUR)</t>
+  </si>
+  <si>
+    <t>Wen Li, Li Li, and Haipeng Cai</t>
   </si>
 </sst>
 </file>
@@ -2720,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2739,11 +2802,11 @@
     <col min="10" max="10" width="33.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
     <col min="12" max="12" width="19.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24.1640625" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="13" max="14" width="24.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2784,13 +2847,16 @@
         <v>399</v>
       </c>
       <c r="N1" t="s">
+        <v>569</v>
+      </c>
+      <c r="O1" t="s">
         <v>400</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2816,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14">
+    <row r="3" spans="1:16" ht="14">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2842,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2868,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2894,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2928,11 +2994,11 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2960,11 +3026,11 @@
       <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2990,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3019,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3045,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3071,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3102,11 +3168,11 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3132,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -3158,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -3190,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -3218,14 +3284,14 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -3251,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -3277,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -3303,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3329,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -3352,7 +3418,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -3378,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3404,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3427,7 +3493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -3453,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -3476,7 +3542,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3499,7 +3565,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3530,11 +3596,11 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -3557,7 +3623,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -3586,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -3609,7 +3675,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3640,11 +3706,11 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -3672,11 +3738,11 @@
       <c r="K33" t="s">
         <v>166</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -3698,11 +3764,11 @@
       <c r="H34" t="s">
         <v>161</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -3728,7 +3794,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3757,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -3780,7 +3846,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -3808,11 +3874,14 @@
       <c r="M38">
         <v>1</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -3835,7 +3904,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -3858,7 +3927,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -3886,14 +3955,14 @@
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
       <c r="O41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3919,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -3942,7 +4011,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -3965,7 +4034,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>209</v>
       </c>
@@ -3988,7 +4057,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -4011,7 +4080,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -4037,7 +4106,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>224</v>
       </c>
@@ -4062,14 +4131,14 @@
       <c r="H48" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
       <c r="O48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>230</v>
       </c>
@@ -4092,7 +4161,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="16">
+    <row r="50" spans="1:16" ht="16">
       <c r="A50" t="s">
         <v>237</v>
       </c>
@@ -4121,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>271</v>
       </c>
@@ -4146,11 +4215,11 @@
       <c r="H51" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -4181,8 +4250,11 @@
       <c r="N52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>250</v>
       </c>
@@ -4205,7 +4277,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>397</v>
       </c>
@@ -4231,7 +4303,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -4254,7 +4326,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>267</v>
       </c>
@@ -4279,11 +4351,11 @@
       <c r="H56" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -4311,11 +4383,14 @@
       <c r="M57">
         <v>1</v>
       </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>272</v>
       </c>
@@ -4344,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>276</v>
       </c>
@@ -4369,11 +4444,11 @@
       <c r="H59" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>281</v>
       </c>
@@ -4398,11 +4473,11 @@
       <c r="H60" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>285</v>
       </c>
@@ -4427,11 +4502,11 @@
       <c r="M61">
         <v>1</v>
       </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>290</v>
       </c>
@@ -4454,7 +4529,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>297</v>
       </c>
@@ -4477,7 +4552,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14">
+    <row r="64" spans="1:16" ht="14">
       <c r="A64" t="s">
         <v>300</v>
       </c>
@@ -4500,7 +4575,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>305</v>
       </c>
@@ -4531,8 +4606,11 @@
       <c r="N65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>309</v>
       </c>
@@ -4563,8 +4641,11 @@
       <c r="N66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>314</v>
       </c>
@@ -4588,7 +4669,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>321</v>
       </c>
@@ -4610,14 +4691,14 @@
       <c r="H68" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
       <c r="O68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="7" t="s">
         <v>343</v>
       </c>
@@ -4640,7 +4721,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:16">
       <c r="A70" s="7" t="s">
         <v>322</v>
       </c>
@@ -4663,7 +4744,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:16">
       <c r="A71" s="7" t="s">
         <v>348</v>
       </c>
@@ -4689,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:16">
       <c r="A72" s="7" t="s">
         <v>327</v>
       </c>
@@ -4714,11 +4795,11 @@
       <c r="H72" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="7" t="s">
         <v>338</v>
       </c>
@@ -4740,11 +4821,11 @@
       <c r="H73" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="7" t="s">
         <v>342</v>
       </c>
@@ -4766,11 +4847,11 @@
       <c r="H74" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="16">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="16">
       <c r="A75" s="7" t="s">
         <v>334</v>
       </c>
@@ -4798,11 +4879,11 @@
       <c r="M75">
         <v>1</v>
       </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="7" t="s">
         <v>356</v>
       </c>
@@ -4825,7 +4906,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:16">
       <c r="A77" s="7" t="s">
         <v>360</v>
       </c>
@@ -4854,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:16">
       <c r="A78" s="7" t="s">
         <v>365</v>
       </c>
@@ -4888,8 +4969,11 @@
       <c r="O78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="P78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="7" t="s">
         <v>368</v>
       </c>
@@ -4912,7 +4996,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:16">
       <c r="A80" s="7" t="s">
         <v>372</v>
       </c>
@@ -4935,7 +5019,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:16">
       <c r="A81" s="7" t="s">
         <v>376</v>
       </c>
@@ -4957,11 +5041,11 @@
       <c r="H81" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="7" t="s">
         <v>386</v>
       </c>
@@ -4992,8 +5076,11 @@
       <c r="N82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="14">
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="14">
       <c r="A83" s="7" t="s">
         <v>410</v>
       </c>
@@ -5016,7 +5103,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:16">
       <c r="A84" s="7" t="s">
         <v>379</v>
       </c>
@@ -5047,8 +5134,11 @@
       <c r="N84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="7" t="s">
         <v>390</v>
       </c>
@@ -5082,8 +5172,11 @@
       <c r="O85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="7" t="s">
         <v>394</v>
       </c>
@@ -5108,11 +5201,11 @@
       <c r="H86" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="7" t="s">
         <v>416</v>
       </c>
@@ -5135,7 +5228,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:16">
       <c r="A88" s="7" t="s">
         <v>420</v>
       </c>
@@ -5158,7 +5251,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:16">
       <c r="A89" s="7" t="s">
         <v>426</v>
       </c>
@@ -5180,8 +5273,11 @@
       <c r="H89" s="7" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="7" t="s">
         <v>540</v>
       </c>
@@ -5203,8 +5299,11 @@
       <c r="H90" s="7" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="7" t="s">
         <v>438</v>
       </c>
@@ -5227,7 +5326,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:16">
       <c r="A92" s="7" t="s">
         <v>442</v>
       </c>
@@ -5252,8 +5351,14 @@
       <c r="H92" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="7" t="s">
         <v>447</v>
       </c>
@@ -5275,8 +5380,11 @@
       <c r="H93" s="7" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="7" t="s">
         <v>450</v>
       </c>
@@ -5299,7 +5407,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:16">
       <c r="A95" s="7" t="s">
         <v>456</v>
       </c>
@@ -5322,7 +5430,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:16">
       <c r="A96" s="7" t="s">
         <v>457</v>
       </c>
@@ -5345,7 +5453,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:16">
       <c r="A97" s="7" t="s">
         <v>461</v>
       </c>
@@ -5367,8 +5475,11 @@
       <c r="H97" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="N97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="7" t="s">
         <v>467</v>
       </c>
@@ -5393,8 +5504,11 @@
       <c r="H98" s="7" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="7" t="s">
         <v>474</v>
       </c>
@@ -5419,8 +5533,11 @@
       <c r="H99" s="7" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="7" t="s">
         <v>487</v>
       </c>
@@ -5443,7 +5560,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:16">
       <c r="A101" s="7" t="s">
         <v>488</v>
       </c>
@@ -5466,7 +5583,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:16">
       <c r="A102" s="7" t="s">
         <v>478</v>
       </c>
@@ -5488,8 +5605,14 @@
       <c r="H102" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="7" t="s">
         <v>482</v>
       </c>
@@ -5511,8 +5634,14 @@
       <c r="H103" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="7" t="s">
         <v>512</v>
       </c>
@@ -5535,7 +5664,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:16">
       <c r="A105" s="7" t="s">
         <v>496</v>
       </c>
@@ -5558,7 +5687,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:16">
       <c r="A106" s="7" t="s">
         <v>525</v>
       </c>
@@ -5583,8 +5712,14 @@
       <c r="H106" s="7" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="7" t="s">
         <v>507</v>
       </c>
@@ -5609,8 +5744,17 @@
       <c r="H107" s="7" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="7" t="s">
         <v>499</v>
       </c>
@@ -5632,8 +5776,14 @@
       <c r="H108" s="7" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="7" t="s">
         <v>505</v>
       </c>
@@ -5658,8 +5808,14 @@
       <c r="H109" s="7" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="7" t="s">
         <v>516</v>
       </c>
@@ -5681,8 +5837,11 @@
       <c r="H110" s="7" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="7" t="s">
         <v>523</v>
       </c>
@@ -5707,8 +5866,14 @@
       <c r="H111" s="7" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="7" t="s">
         <v>530</v>
       </c>
@@ -5733,8 +5898,20 @@
       <c r="H112" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="7" t="s">
         <v>554</v>
       </c>
@@ -5757,7 +5934,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:16">
       <c r="A114" s="7" t="s">
         <v>535</v>
       </c>
@@ -5779,8 +5956,11 @@
       <c r="H114" s="7" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="7" t="s">
         <v>558</v>
       </c>
@@ -5803,7 +5983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:16">
       <c r="A116" s="7" t="s">
         <v>546</v>
       </c>
@@ -5826,7 +6006,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:16">
       <c r="A117" s="7" t="s">
         <v>545</v>
       </c>
@@ -5848,8 +6028,11 @@
       <c r="H117" s="7" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="7" t="s">
         <v>561</v>
       </c>
@@ -5871,8 +6054,14 @@
       <c r="H118" s="7" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="7" t="s">
         <v>568</v>
       </c>
@@ -5893,6 +6082,129 @@
       </c>
       <c r="H119" s="7" t="s">
         <v>567</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>2022</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121">
+        <v>2022</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>2022</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D123">
+        <v>2022</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="130" spans="5:16">
+      <c r="E130" t="s">
+        <v>570</v>
+      </c>
+      <c r="L130">
+        <f>SUM(L2:L129)</f>
+        <v>29</v>
+      </c>
+      <c r="M130">
+        <f>SUM(M2:M129)</f>
+        <v>23</v>
+      </c>
+      <c r="N130">
+        <f>SUM(N2:N129)</f>
+        <v>16</v>
+      </c>
+      <c r="O130">
+        <f>SUM(O2:O129)</f>
+        <v>42</v>
+      </c>
+      <c r="P130">
+        <f t="shared" ref="P130" si="0">SUM(P2:P129)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clii0040/Projects/github/lilicoding.github.io/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li.li/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B61D2-493E-9F48-A5BD-C43E2CBB00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97A573-A1F5-B649-8987-A97607AE2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36220" yWindow="4880" windowWidth="26820" windowHeight="13820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="606">
   <si>
     <t>TITLE</t>
   </si>
@@ -1919,6 +1919,54 @@
   </si>
   <si>
     <t>Wen Li, Li Li, and Haipeng Cai</t>
+  </si>
+  <si>
+    <t>Dapeng Yan, Kui Liu, Yuqing Niu, Li Li, Zhe Liu, Zhiming Liu, Jacques Klein, and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Yan, Dapeng and Liu, Kui and Niu, Yuqing and Li, Li and Liu, Zhe and Liu, Zhiming and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>yan2022crex</t>
+  </si>
+  <si>
+    <t>Crex: Predicting Patch Correctness in Automated Repair of C Programs through Transfer Learning of Execution Semantics</t>
+  </si>
+  <si>
+    <t>Haowei Quan, Jiawei Wang, Bo Li, Xiaoning Du, Kui Liu and Li Li</t>
+  </si>
+  <si>
+    <t>Quan, Haowei and Wang, Jiawei and Li, Bo and Du, Xiaoning and Liu, Kui and Li, Li</t>
+  </si>
+  <si>
+    <t>Characterizing Python Method Evolution with PyMevol: An Essential Step Towards Enabling Reliable Software Systems</t>
+  </si>
+  <si>
+    <t>quan2022characterizing</t>
+  </si>
+  <si>
+    <t>Wen Li, Li LI, and Haipeng Cai</t>
+  </si>
+  <si>
+    <t>PolyFax: A Toolkit for Characterizing Multi-Language Software</t>
+  </si>
+  <si>
+    <t>ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering, Demo Track (ESEC/FSE 2022)</t>
+  </si>
+  <si>
+    <t>li2022polyfax</t>
+  </si>
+  <si>
+    <t>Explainable AI for Android Malware Detection: Towards Understanding Why the Models Perform So Well?</t>
+  </si>
+  <si>
+    <t>The 33rd IEEE International Symposium on Software Reliability Engineering (ISSRE 2022)</t>
+  </si>
+  <si>
+    <t>The 33rd IEEE International Symposium on Software Reliability Engineering, Industry Track (ISSRE 2022)</t>
+  </si>
+  <si>
+    <t>liu2022explainable</t>
   </si>
 </sst>
 </file>
@@ -2783,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6115,7 +6163,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="7" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>13</v>
@@ -6124,16 +6172,16 @@
         <v>2022</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6161,49 +6209,141 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D123">
         <v>2022</v>
       </c>
       <c r="E123" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D124">
+        <v>2022</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F124" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="G124" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="130" spans="5:16">
-      <c r="E130" t="s">
+    <row r="125" spans="1:16">
+      <c r="A125" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125">
+        <v>2022</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" t="s">
+        <v>597</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>2022</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" t="s">
+        <v>605</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>2022</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="5:16">
+      <c r="E131" t="s">
         <v>570</v>
       </c>
-      <c r="L130">
-        <f>SUM(L2:L129)</f>
+      <c r="L131">
+        <f>SUM(L2:L130)</f>
         <v>29</v>
       </c>
-      <c r="M130">
-        <f>SUM(M2:M129)</f>
+      <c r="M131">
+        <f>SUM(M2:M130)</f>
         <v>23</v>
       </c>
-      <c r="N130">
-        <f>SUM(N2:N129)</f>
+      <c r="N131">
+        <f>SUM(N2:N130)</f>
         <v>16</v>
       </c>
-      <c r="O130">
-        <f>SUM(O2:O129)</f>
+      <c r="O131">
+        <f>SUM(O2:O130)</f>
         <v>42</v>
       </c>
-      <c r="P130">
-        <f t="shared" ref="P130" si="0">SUM(P2:P129)</f>
+      <c r="P131">
+        <f t="shared" ref="P131" si="0">SUM(P2:P130)</f>
         <v>12</v>
       </c>
     </row>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li.li/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97A573-A1F5-B649-8987-A97607AE2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AB4F6-3252-824B-A004-ED2041D5ED9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="7840" windowWidth="29160" windowHeight="12320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="616">
   <si>
     <t>TITLE</t>
   </si>
@@ -1967,6 +1967,36 @@
   </si>
   <si>
     <t>liu2022explainable</t>
+  </si>
+  <si>
+    <t>Pei Liu, Xiaoyu Sun, Yanjie Zhao, Yonghui Liu, John Grundy and Li Li</t>
+  </si>
+  <si>
+    <t>Liu, Pei and Sun, Xiaoyu and Zhao, Yanjie and Liu, Yonghui and Grundy, John and Li, Li</t>
+  </si>
+  <si>
+    <t>A First Look at CI/CD Adoptions in Open-Source Android Apps</t>
+  </si>
+  <si>
+    <t>liu2022first</t>
+  </si>
+  <si>
+    <t>The 5th International Workshop on Advances in Mobile App Analysis (A-Mobile 2022), co-located with ASE 2022</t>
+  </si>
+  <si>
+    <t>Mining Android API Usage to Generate Unit Test Cases for Pinpointing Compatibility Issues</t>
+  </si>
+  <si>
+    <t>sun2022mining</t>
+  </si>
+  <si>
+    <t>Xiaoyu Sun, Xiao Chen, Yanjie Zhao, Pei Liu, John Grundy and Li Li</t>
+  </si>
+  <si>
+    <t>Sun, Xiaoyu and Chen, Xiao and Zhao, Yanjie and Liu, Pei and Grundy, John and Li, Li</t>
+  </si>
+  <si>
+    <t>The 37th IEEE/ACM International Conference on Automated Software Engineering (ASE 2022)</t>
   </si>
 </sst>
 </file>
@@ -2834,7 +2864,7 @@
   <dimension ref="A1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6322,7 +6352,53 @@
         <v>603</v>
       </c>
     </row>
-    <row r="131" spans="5:16">
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>609</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128">
+        <v>2022</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" t="s">
+        <v>612</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>2022</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="E131" t="s">
         <v>570</v>
       </c>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li.li/Projects/github/lilicoding.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AB4F6-3252-824B-A004-ED2041D5ED9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D9E4E7-FFA8-6143-A71E-87F0A53B6EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="7840" windowWidth="29160" windowHeight="12320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="615">
   <si>
     <t>TITLE</t>
   </si>
@@ -1861,9 +1861,6 @@
     <t>Student First Supervisor Second</t>
   </si>
   <si>
-    <t>SUM=</t>
-  </si>
-  <si>
     <t>qin2022peeler</t>
   </si>
   <si>
@@ -1945,9 +1942,6 @@
     <t>quan2022characterizing</t>
   </si>
   <si>
-    <t>Wen Li, Li LI, and Haipeng Cai</t>
-  </si>
-  <si>
     <t>PolyFax: A Toolkit for Characterizing Multi-Language Software</t>
   </si>
   <si>
@@ -1997,6 +1991,9 @@
   </si>
   <si>
     <t>The 37th IEEE/ACM International Conference on Automated Software Engineering (ASE 2022)</t>
+  </si>
+  <si>
+    <t>Full Paper</t>
   </si>
 </sst>
 </file>
@@ -2303,19 +2300,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2861,30 +2855,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="88" customWidth="1"/>
-    <col min="6" max="6" width="105.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
-    <col min="8" max="8" width="138.1640625" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" customWidth="1"/>
-    <col min="10" max="10" width="33.1640625" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="138.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="19.83203125" customWidth="1"/>
-    <col min="13" max="14" width="24.1640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2925,16 +2921,19 @@
         <v>399</v>
       </c>
       <c r="N1" t="s">
+        <v>614</v>
+      </c>
+      <c r="O1" t="s">
         <v>569</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>400</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2959,8 +2958,11 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="14">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3037,8 +3039,11 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3072,11 +3077,14 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3104,11 +3112,14 @@
       <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3133,8 +3144,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3163,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3188,8 +3202,11 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3215,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3246,11 +3263,14 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3276,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -3302,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -3333,8 +3353,11 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -3362,14 +3385,17 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="N16">
         <v>1</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -3395,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -3421,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -3447,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3472,8 +3498,11 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -3496,7 +3525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -3522,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3547,8 +3576,11 @@
       <c r="L23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3570,8 +3602,11 @@
       <c r="H24" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -3596,8 +3631,11 @@
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -3620,7 +3658,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3642,12 +3680,15 @@
       <c r="H27" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>431</v>
       </c>
       <c r="C28" t="s">
@@ -3674,11 +3715,14 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -3700,8 +3744,11 @@
       <c r="H29" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -3729,8 +3776,11 @@
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -3746,14 +3796,17 @@
       <c r="F31" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>155</v>
       </c>
       <c r="H31" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3784,11 +3837,14 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -3816,11 +3872,14 @@
       <c r="K33" t="s">
         <v>166</v>
       </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -3830,10 +3889,10 @@
       <c r="D34">
         <v>2018</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" t="s">
         <v>165</v>
       </c>
       <c r="G34" t="s">
@@ -3842,11 +3901,14 @@
       <c r="H34" t="s">
         <v>161</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -3871,8 +3933,11 @@
       <c r="K35" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3900,8 +3965,11 @@
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -3923,12 +3991,15 @@
       <c r="H37" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>428</v>
       </c>
       <c r="C38" t="s">
@@ -3955,11 +4026,14 @@
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -3981,8 +4055,11 @@
       <c r="H39" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -4004,8 +4081,11 @@
       <c r="H40" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -4033,14 +4113,17 @@
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="O41">
+      <c r="N41">
         <v>1</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -4065,8 +4148,11 @@
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -4089,7 +4175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -4112,7 +4198,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>209</v>
       </c>
@@ -4125,17 +4211,17 @@
       <c r="E45" t="s">
         <v>210</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" t="s">
         <v>211</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" t="s">
         <v>212</v>
       </c>
       <c r="H45" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -4148,21 +4234,24 @@
       <c r="E46" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" t="s">
         <v>216</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" t="s">
         <v>213</v>
       </c>
       <c r="H46" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>218</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>434</v>
       </c>
       <c r="C47" t="s">
@@ -4177,14 +4266,17 @@
       <c r="F47" t="s">
         <v>220</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" t="s">
         <v>219</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>224</v>
       </c>
@@ -4203,20 +4295,23 @@
       <c r="F48" t="s">
         <v>223</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" t="s">
         <v>225</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" t="s">
         <v>226</v>
       </c>
-      <c r="O48">
+      <c r="N48">
         <v>1</v>
       </c>
       <c r="P48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>230</v>
       </c>
@@ -4232,14 +4327,17 @@
       <c r="F49" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" t="s">
         <v>233</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="16">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="16">
       <c r="A50" t="s">
         <v>237</v>
       </c>
@@ -4258,17 +4356,20 @@
       <c r="F50" t="s">
         <v>239</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>236</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>271</v>
       </c>
@@ -4287,21 +4388,24 @@
       <c r="F51" t="s">
         <v>270</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" t="s">
         <v>241</v>
       </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>245</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>433</v>
       </c>
       <c r="C52" t="s">
@@ -4316,10 +4420,10 @@
       <c r="F52" t="s">
         <v>244</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" t="s">
         <v>241</v>
       </c>
       <c r="M52">
@@ -4331,8 +4435,11 @@
       <c r="O52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>250</v>
       </c>
@@ -4348,14 +4455,17 @@
       <c r="F53" t="s">
         <v>247</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>397</v>
       </c>
@@ -4374,14 +4484,17 @@
       <c r="F54" t="s">
         <v>252</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -4397,14 +4510,14 @@
       <c r="F55" t="s">
         <v>263</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>267</v>
       </c>
@@ -4423,21 +4536,24 @@
       <c r="F56" t="s">
         <v>266</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" t="s">
         <v>259</v>
       </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>274</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>428</v>
       </c>
       <c r="C57" t="s">
@@ -4452,10 +4568,10 @@
       <c r="F57" t="s">
         <v>142</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" t="s">
         <v>227</v>
       </c>
       <c r="M57">
@@ -4464,11 +4580,14 @@
       <c r="N57">
         <v>1</v>
       </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>272</v>
       </c>
@@ -4487,17 +4606,20 @@
       <c r="F58" t="s">
         <v>132</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>256</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>276</v>
       </c>
@@ -4516,17 +4638,20 @@
       <c r="F59" t="s">
         <v>278</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" t="s">
         <v>280</v>
       </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>281</v>
       </c>
@@ -4545,17 +4670,20 @@
       <c r="F60" t="s">
         <v>283</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" t="s">
         <v>280</v>
       </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>285</v>
       </c>
@@ -4571,20 +4699,23 @@
       <c r="F61" t="s">
         <v>287</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" t="s">
         <v>289</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>290</v>
       </c>
@@ -4600,14 +4731,14 @@
       <c r="F62" t="s">
         <v>292</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>297</v>
       </c>
@@ -4623,14 +4754,14 @@
       <c r="F63" t="s">
         <v>296</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14">
+    <row r="64" spans="1:17" ht="14">
       <c r="A64" t="s">
         <v>300</v>
       </c>
@@ -4646,18 +4777,21 @@
       <c r="F64" t="s">
         <v>302</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="5" t="s">
         <v>303</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>305</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>432</v>
       </c>
       <c r="C65" t="s">
@@ -4669,13 +4803,13 @@
       <c r="E65" t="s">
         <v>273</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" t="s">
         <v>307</v>
       </c>
       <c r="M65">
@@ -4687,12 +4821,15 @@
       <c r="O65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>309</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>431</v>
       </c>
       <c r="C66" t="s">
@@ -4707,10 +4844,10 @@
       <c r="F66" t="s">
         <v>311</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" t="s">
         <v>307</v>
       </c>
       <c r="M66">
@@ -4722,12 +4859,15 @@
       <c r="O66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="P66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>314</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="6"/>
       <c r="C67" t="s">
         <v>75</v>
       </c>
@@ -4740,14 +4880,17 @@
       <c r="F67" t="s">
         <v>313</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>321</v>
       </c>
@@ -4763,24 +4906,27 @@
       <c r="F68" t="s">
         <v>320</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" t="s">
         <v>318</v>
       </c>
-      <c r="O68">
+      <c r="N68">
         <v>1</v>
       </c>
       <c r="P68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="7" t="s">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D69">
@@ -4789,44 +4935,50 @@
       <c r="E69" t="s">
         <v>344</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="7" t="s">
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D70">
         <v>2020</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="7" t="s">
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D71">
@@ -4835,213 +4987,232 @@
       <c r="E71" t="s">
         <v>351</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="6" t="s">
         <v>350</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="7" t="s">
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B72" t="s">
         <v>407</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D72">
         <v>2020</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" s="7" t="s">
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D73">
         <v>2020</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="7" t="s">
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D74">
         <v>2020</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="16">
-      <c r="A75" s="7" t="s">
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="16">
+      <c r="A75" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D75">
         <v>2020</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="6" t="s">
         <v>331</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" s="7" t="s">
+      <c r="N75" s="6">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D76">
         <v>2020</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="7" t="s">
+      <c r="N76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D77">
         <v>2020</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="6" t="s">
         <v>236</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="7" t="s">
+      <c r="N77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D78">
         <v>2020</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="6" t="s">
         <v>364</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="6">
         <v>1</v>
       </c>
       <c r="O78">
@@ -5050,201 +5221,216 @@
       <c r="P78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="7" t="s">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D79">
         <v>2021</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="7" t="s">
+      <c r="N79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D80">
         <v>2021</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="7" t="s">
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D81">
         <v>2021</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="7" t="s">
+      <c r="N81" s="6">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D82">
         <v>2021</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>388</v>
       </c>
       <c r="M82">
         <v>1</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="6">
         <v>1</v>
       </c>
       <c r="O82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="14">
-      <c r="A83" s="7" t="s">
+      <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="14">
+      <c r="A83" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D83">
         <v>2021</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>412</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="6" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="7" t="s">
+      <c r="N83" s="6"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="6" t="s">
         <v>379</v>
       </c>
       <c r="B84" t="s">
         <v>428</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D84">
         <v>2021</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>381</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
+      <c r="N84" s="6"/>
       <c r="O84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="7" t="s">
+      <c r="P84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D85">
         <v>2021</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>364</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="6">
         <v>1</v>
       </c>
       <c r="O85">
@@ -5253,165 +5439,184 @@
       <c r="P85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="7" t="s">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="6" t="s">
         <v>394</v>
       </c>
       <c r="B86" t="s">
         <v>404</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D86">
         <v>2021</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
-      <c r="A87" s="7" t="s">
+      <c r="N86" s="6">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D87">
         <v>2021</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
-      <c r="A88" s="7" t="s">
+      <c r="N87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D88">
         <v>2021</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="6" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="A89" s="7" t="s">
+      <c r="N88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D89">
         <v>2021</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="A90" s="7" t="s">
+      <c r="N89" s="6">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D90">
         <v>2021</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="7" t="s">
+      <c r="N90" s="6"/>
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D91">
         <v>2021</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" s="7" t="s">
+      <c r="N91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B92" t="s">
         <v>428</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D92">
@@ -5420,359 +5625,399 @@
       <c r="E92" t="s">
         <v>439</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="6" t="s">
         <v>228</v>
       </c>
       <c r="M92">
         <v>1</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="7" t="s">
+      <c r="N92" s="6">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D93">
         <v>2021</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" s="7" t="s">
+      <c r="N93" s="6">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D94">
         <v>2021</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="6" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="A95" s="7" t="s">
+      <c r="N94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D95">
         <v>2021</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="6" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" s="7" t="s">
+      <c r="N95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D96">
         <v>2021</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="6" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
-      <c r="A97" s="7" t="s">
+      <c r="N96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D97">
         <v>2021</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
-      <c r="A98" s="7" t="s">
+      <c r="N97" s="6">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="6" t="s">
         <v>467</v>
       </c>
       <c r="B98" t="s">
         <v>428</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D98">
         <v>2021</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="6" t="s">
         <v>469</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
-      <c r="A99" s="7" t="s">
+      <c r="N98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="6" t="s">
         <v>474</v>
       </c>
       <c r="B99" t="s">
         <v>428</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D99">
         <v>2021</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G99" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="6" t="s">
         <v>473</v>
       </c>
       <c r="M99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:16">
-      <c r="A100" s="7" t="s">
+      <c r="N99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D100">
         <v>2021</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G100" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="6" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
-      <c r="A101" s="7" t="s">
+      <c r="N100" s="6"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D101">
         <v>2021</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="6" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="102" spans="1:16">
-      <c r="A102" s="7" t="s">
+      <c r="N101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D102">
         <v>2021</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G102" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="O102">
+      <c r="N102" s="6">
         <v>1</v>
       </c>
       <c r="P102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="A103" s="7" t="s">
+      <c r="Q102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D103">
         <v>2021</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="G103" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="O103">
+      <c r="N103" s="6">
         <v>1</v>
       </c>
       <c r="P103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
-      <c r="A104" s="7" t="s">
+      <c r="Q103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D104">
         <v>2022</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G104" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="6" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
-      <c r="A105" s="7" t="s">
+      <c r="N104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D105">
         <v>2022</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G105" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H105" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
-      <c r="A106" s="7" t="s">
+      <c r="N105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="6" t="s">
         <v>525</v>
       </c>
       <c r="B106" t="s">
         <v>428</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D106">
@@ -5781,205 +6026,221 @@
       <c r="E106" t="s">
         <v>439</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G106" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M106">
         <v>1</v>
       </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
-      <c r="A107" s="7" t="s">
+      <c r="N106" s="6"/>
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="6" t="s">
         <v>507</v>
       </c>
       <c r="B107" t="s">
         <v>428</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D107">
         <v>2022</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="G107" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="6" t="s">
         <v>498</v>
       </c>
       <c r="M107">
         <v>1</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="6">
         <v>1</v>
       </c>
       <c r="O107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
-      <c r="A108" s="7" t="s">
+      <c r="P107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D108">
         <v>2022</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G108" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="N108">
+      <c r="N108" s="6">
         <v>1</v>
       </c>
       <c r="O108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:16">
-      <c r="A109" s="7" t="s">
+      <c r="P108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="6" t="s">
         <v>505</v>
       </c>
       <c r="B109" t="s">
         <v>428</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D109">
         <v>2022</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="G109" s="6" t="s">
+      <c r="G109" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="6" t="s">
         <v>498</v>
       </c>
       <c r="M109">
         <v>1</v>
       </c>
-      <c r="O109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
-      <c r="A110" s="7" t="s">
+      <c r="N109" s="6">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D110">
         <v>2022</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="G110" s="6" t="s">
+      <c r="G110" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H110" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="O110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
-      <c r="A111" s="7" t="s">
+      <c r="N110" s="6">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="6" t="s">
         <v>523</v>
       </c>
       <c r="B111" t="s">
         <v>428</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D111">
         <v>2022</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G111" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="6" t="s">
         <v>519</v>
       </c>
       <c r="M111">
         <v>1</v>
       </c>
-      <c r="O111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
-      <c r="A112" s="7" t="s">
+      <c r="N111" s="6">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="6" t="s">
         <v>530</v>
       </c>
       <c r="B112" t="s">
         <v>428</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D112">
         <v>2022</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G112" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="6" t="s">
         <v>203</v>
       </c>
       <c r="M112">
         <v>1</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="6">
         <v>1</v>
       </c>
       <c r="O112">
@@ -5988,438 +6249,506 @@
       <c r="P112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:16">
-      <c r="A113" s="7" t="s">
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D113">
         <v>2022</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G113" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H113" s="6" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
-      <c r="A114" s="7" t="s">
+      <c r="N113" s="6"/>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D114">
         <v>2022</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="G114" s="6" t="s">
+      <c r="G114" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="O114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16">
-      <c r="A115" s="7" t="s">
+      <c r="N114" s="6">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D115">
         <v>2022</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="G115" s="6" t="s">
+      <c r="G115" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H115" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="116" spans="1:16">
-      <c r="A116" s="7" t="s">
+      <c r="N115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D116">
         <v>2022</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G116" s="6" t="s">
+      <c r="G116" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H116" s="6" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="117" spans="1:16">
-      <c r="A117" s="7" t="s">
+      <c r="N116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D117">
         <v>2022</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="G117" s="6" t="s">
+      <c r="G117" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H117" s="6" t="s">
         <v>544</v>
       </c>
       <c r="M117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" s="7" t="s">
+      <c r="N117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D118">
         <v>2022</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G118" s="6" t="s">
+      <c r="G118" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H118" s="6" t="s">
         <v>562</v>
       </c>
       <c r="M118">
         <v>1</v>
       </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
-      <c r="A119" s="7" t="s">
+      <c r="N118" s="6">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D119">
         <v>2022</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="G119" s="6" t="s">
+      <c r="G119" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H119" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="O119">
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" s="6">
         <v>1</v>
       </c>
       <c r="P119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="C120" s="7" t="s">
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D120">
         <v>2022</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F120" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="G120" s="6" t="s">
+      <c r="G120" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="H120" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="H120" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="C121" s="7" t="s">
+      <c r="N120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D121">
         <v>2022</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="H121" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="C122" s="7" t="s">
+      <c r="N121" s="6"/>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D122">
         <v>2022</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="F122" s="7" t="s">
+      <c r="E122" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="G122" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="C123" s="7" t="s">
+      <c r="H122" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="N122" s="6">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D123">
         <v>2022</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="G123" s="6" t="s">
+      <c r="H123" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="H123" s="7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C124" s="7" t="s">
+      <c r="N123" s="6">
+        <v>1</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D124">
         <v>2022</v>
       </c>
-      <c r="E124" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="F124" s="7" t="s">
+      <c r="E124" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G124" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="H124" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="H124" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
-      <c r="A125" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C125" s="7" t="s">
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D125">
         <v>2022</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F125" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="H125" s="7" t="s">
+      <c r="G125" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="H125" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="N125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
-        <v>597</v>
-      </c>
-      <c r="C126" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D126">
         <v>2022</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="F126" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="G126" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="G126" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="H126" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="N126" s="6"/>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
-        <v>605</v>
-      </c>
-      <c r="C127" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D127">
         <v>2022</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="E127" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
-        <v>609</v>
-      </c>
-      <c r="C128" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D128">
         <v>2022</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F128" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="G128" s="6" t="s">
+      <c r="H128" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="H128" s="7" t="s">
+      <c r="N128" s="6"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="129" spans="1:16">
-      <c r="A129" t="s">
-        <v>612</v>
-      </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D129">
         <v>2022</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="H129" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F129" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
-      <c r="E131" t="s">
-        <v>570</v>
-      </c>
-      <c r="L131">
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129" s="6">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="L143">
         <f>SUM(L2:L130)</f>
         <v>29</v>
       </c>
-      <c r="M131">
+      <c r="M143">
         <f>SUM(M2:M130)</f>
-        <v>23</v>
-      </c>
-      <c r="N131">
+        <v>27</v>
+      </c>
+      <c r="N143">
         <f>SUM(N2:N130)</f>
+        <v>99</v>
+      </c>
+      <c r="O143">
+        <f>SUM(O2:O130)</f>
         <v>16</v>
       </c>
-      <c r="O131">
-        <f>SUM(O2:O130)</f>
-        <v>42</v>
-      </c>
-      <c r="P131">
-        <f t="shared" ref="P131" si="0">SUM(P2:P130)</f>
+      <c r="P143">
+        <f>SUM(P2:P130)</f>
+        <v>45</v>
+      </c>
+      <c r="Q143">
+        <f>SUM(Q2:Q130)</f>
         <v>12</v>
       </c>
     </row>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -1,42 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li.li/Projects/github/lilicoding.github.io/src/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D9E4E7-FFA8-6143-A71E-87F0A53B6EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="616">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TOPIC</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>AUTHORS</t>
+  </si>
+  <si>
+    <t>AUTHORS_BIB</t>
+  </si>
   <si>
     <t>TITLE</t>
   </si>
@@ -44,162 +40,195 @@
     <t>VENUE</t>
   </si>
   <si>
-    <t>YEAR</t>
+    <t>WWW</t>
+  </si>
+  <si>
+    <t>TECHNICAL REPORT</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>First Author</t>
+  </si>
+  <si>
+    <t>Corresponding Author</t>
+  </si>
+  <si>
+    <t>Full Paper</t>
+  </si>
+  <si>
+    <t>Student First Supervisor Second</t>
+  </si>
+  <si>
+    <t>CCF A</t>
+  </si>
+  <si>
+    <t>CCF B</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>li2014automatically</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Li Li, Alexandre Bartel, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Bartel, Alexandre and Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>Automatically Exploiting Potential Component Leaks in Android Applications</t>
+  </si>
+  <si>
+    <t>The 13th International Conference on Trust, Security and Privacy in Computing and Communications (TrustCom 2014)</t>
+  </si>
+  <si>
+    <t>li2014detecting</t>
+  </si>
+  <si>
+    <t>Detecting privacy leaks in Android Apps</t>
+  </si>
+  <si>
+    <t>The 2014 Doctoral Symposium of International Symposium on Engineering Secure Software and Systems (ESSoS-DS 2014)</t>
+  </si>
+  <si>
+    <t>li2015potential</t>
+  </si>
+  <si>
+    <t>Li Li, Kevin Allix, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Li, Li and Allix, Kevin and Li, Daoyuan and Bartel, Alexandre and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>Potential Component Leaks in Android Apps: An Investigation into a New Feature Set for Malware Detection</t>
+  </si>
+  <si>
+    <t>The IEEE International Conference on Software Quality, Reliability and Security (QRS 2015)</t>
   </si>
   <si>
     <t>li2015apkcombiner</t>
   </si>
   <si>
+    <t>Li Li, Alexandre Bartel, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Bartel, Alexandre and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>ApkCombiner: Combining Multiple Android Apps to Support Inter-App Analysis</t>
+  </si>
+  <si>
+    <t>The 30th International Information Security and Privacy Conference (IFIP SEC 2015)</t>
+  </si>
+  <si>
     <t>li2015iccta</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>AUTHORS</t>
-  </si>
-  <si>
-    <t>WWW</t>
-  </si>
-  <si>
-    <t>NOTES</t>
+    <t>隐私泄露检测</t>
+  </si>
+  <si>
+    <t>Li Li, Alexandre Bartel, Tegawendé F. Bissyandé Jacques Klein, Yves Le Traon, Steven Arzt, Siegfried Rasthofer, Eric Bodden, Damien Octeau and Patrick McDaniel</t>
+  </si>
+  <si>
+    <t>Li, Li and Bartel, Alexandre and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves and Arzt, Steven and Rasthofer, Siegfried and Bodden, Eric and Octeau, Damien and Mcdaniel, Patrick</t>
+  </si>
+  <si>
+    <t>IccTA: Detecting Inter-Component Privacy Leaks in Android Apps</t>
+  </si>
+  <si>
+    <t>The 37th International Conference on Software Engineering (ICSE 2015)</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/icctawebpage/</t>
+  </si>
+  <si>
+    <t>acceptance rate: 18.5%, (84/452)</t>
+  </si>
+  <si>
+    <t>octeau2016combining</t>
+  </si>
+  <si>
+    <t>Damien Octeau, Somesh Jha, Matthew Dering, Patrick McDaniel, Alexandre Bartel, Li Li, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Octeau, Damien and Jha, Somesh and Dering, Matthew and Mcdaniel, Patrick and Bartel, Alexandre and Li, Li and Klein, Jacques and Le Traon, Yves</t>
   </si>
   <si>
     <t>Combining Static Analysis with Probabilistic Models to Enable Market-Scale Android Inter-component Analysis</t>
   </si>
   <si>
-    <t>octeau2016combining</t>
+    <t>The 43rd Symposium on Principles of Programming Languages (POPL 2016)</t>
   </si>
   <si>
     <t>acceptance rate: 23.32% (59/253)</t>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>li2016towards</t>
+  </si>
+  <si>
+    <t>Li Li, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Li, Daoyuan and Bartel, Alexandre and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves</t>
   </si>
   <si>
     <t>Towards a Generic Framework for Automating Extensive Analysis of Android Applications</t>
   </si>
   <si>
-    <t>li2016towards</t>
-  </si>
-  <si>
-    <t>Potential Component Leaks in Android Apps: An Investigation into a New Feature Set for Malware Detection</t>
-  </si>
-  <si>
-    <t>li2015potential</t>
-  </si>
-  <si>
     <t>The 31st ACM/SIGAPP Symposium on Applied Computing (SAC 2016)</t>
   </si>
   <si>
-    <t>Li Li, Alexandre Bartel, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>ApkCombiner: Combining Multiple Android Apps to Support Inter-App Analysis</t>
-  </si>
-  <si>
-    <t>The 30th International Information Security and Privacy Conference (IFIP SEC 2015)</t>
-  </si>
-  <si>
-    <t>IccTA: Detecting Inter-Component Privacy Leaks in Android Apps</t>
-  </si>
-  <si>
-    <t>The 37th International Conference on Software Engineering (ICSE 2015)</t>
-  </si>
-  <si>
-    <t>https://sites.google.com/site/icctawebpage/</t>
-  </si>
-  <si>
-    <t>Automatically Exploiting Potential Component Leaks in Android Applications</t>
-  </si>
-  <si>
-    <t>li2014automatically</t>
-  </si>
-  <si>
-    <t>The 13th International Conference on Trust, Security and Privacy in Computing and Communications (TrustCom 2014)</t>
-  </si>
-  <si>
-    <t>TECHNICAL REPORT</t>
+    <t>li2016parameter</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves</t>
   </si>
   <si>
     <t>Parameter Values of Android APIs: A Preliminary Study on 100,000 Apps</t>
   </si>
   <si>
-    <t>li2016parameter</t>
-  </si>
-  <si>
     <t>The 23rd IEEE International Conference on Software Analysis, Evolution, and Reengineering (SANER 2016)</t>
   </si>
   <si>
+    <t>Best Paper Award</t>
+  </si>
+  <si>
+    <t>li2016investigation</t>
+  </si>
+  <si>
     <t>An Investigation into the Use of Common Libraries in Android Apps</t>
   </si>
   <si>
-    <t>li2016investigation</t>
-  </si>
-  <si>
-    <t>Detecting privacy leaks in Android Apps</t>
-  </si>
-  <si>
-    <t>li2014detecting</t>
-  </si>
-  <si>
-    <t>The IEEE International Conference on Software Quality, Reliability and Security (QRS 2015)</t>
-  </si>
-  <si>
-    <t>The 43rd Symposium on Principles of Programming Languages (POPL 2016)</t>
-  </si>
-  <si>
-    <t>The 2014 Doctoral Symposium of International Symposium on Engineering Secure Software and Systems (ESSoS-DS 2014)</t>
-  </si>
-  <si>
-    <t>AUTHORS_BIB</t>
-  </si>
-  <si>
-    <t>Li, Li and Bartel, Alexandre and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>Li, Li and Bartel, Alexandre and Klein, Jacques and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>Li, Li and Bartel, Alexandre and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves and Arzt, Steven and Rasthofer, Siegfried and Bodden, Eric and Octeau, Damien and Mcdaniel, Patrick</t>
-  </si>
-  <si>
-    <t>Li, Li and Allix, Kevin and Li, Daoyuan and Bartel, Alexandre and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
-  </si>
-  <si>
-    <t>Li, Li and Li, Daoyuan and Bartel, Alexandre and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>Octeau, Damien and Jha, Somesh and Dering, Matthew and Mcdaniel, Patrick and Bartel, Alexandre and Li, Li and Klein, Jacques and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>Best Paper Award</t>
+    <t>li2016boosting</t>
+  </si>
+  <si>
+    <t>Li Li</t>
+  </si>
+  <si>
+    <t>Li, Li</t>
+  </si>
+  <si>
+    <t>Boosting Static Analysis of Android Apps through Code Instrumentation</t>
   </si>
   <si>
     <t xml:space="preserve">The Doctoral Symposium of 38th International Conference on Software Engineering (ICSE-DS 2016) </t>
   </si>
   <si>
-    <t>li2016boosting</t>
-  </si>
-  <si>
-    <t>Li Li</t>
-  </si>
-  <si>
-    <t>Boosting Static Analysis of Android Apps through Code Instrumentation</t>
-  </si>
-  <si>
-    <t>Li, Li</t>
-  </si>
-  <si>
     <t>li2016droidra</t>
   </si>
   <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Damien Octeau and Jacques Klein</t>
+  </si>
+  <si>
     <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Octeau, Damien and Klein, Jacques</t>
   </si>
   <si>
@@ -212,9 +241,6 @@
     <t>acceptance rate: 25.17% (37/147)</t>
   </si>
   <si>
-    <t>acceptance rate: 18.5%, (84/452)</t>
-  </si>
-  <si>
     <t>li2016mining</t>
   </si>
   <si>
@@ -230,28 +256,46 @@
     <t>The 20th International Systems and Software Product Line Conference (SPLC 2016)</t>
   </si>
   <si>
+    <t>li2016reflection</t>
+  </si>
+  <si>
+    <t>Reflection-Aware Static Analysis of Android Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 31st IEEE/ACM International Conference on Automated Software Engineering, Demo Track (ASE 2016) </t>
+  </si>
+  <si>
     <t>li2016accessing</t>
   </si>
   <si>
+    <t>移动操作系统演化分析</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Yves Le Traon and Jacques Klein</t>
+  </si>
+  <si>
     <t xml:space="preserve">Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Le Traon, Yves and Klein, Jacques </t>
   </si>
   <si>
+    <t>Accessing Inaccessible Android APIs: An Empirical Study</t>
+  </si>
+  <si>
     <t>The 32nd International Conference on Software Maintenance and Evolution (ICSME 2016)</t>
   </si>
   <si>
-    <t>Accessing Inaccessible Android APIs: An Empirical Study</t>
-  </si>
-  <si>
     <t>acceptance rate: 29% (37/127)</t>
   </si>
   <si>
-    <t>li2016reflection</t>
-  </si>
-  <si>
-    <t>Reflection-Aware Static Analysis of Android Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 31st IEEE/ACM International Conference on Automated Software Engineering, Demo Track (ASE 2016) </t>
+    <t>li2017understanding</t>
+  </si>
+  <si>
+    <t>恶意行为分析</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li Li, Daoyuan Li, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon, David Lo and Lorenzo Cavallaro </t>
   </si>
   <si>
     <t>Li, Li and Li, Daoyuan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Le Traon, Yves and Lo, David and Cavallaro, Lorenzo</t>
@@ -263,31 +307,73 @@
     <t>IEEE Transactions on Information Forensics &amp; Security (TIFS)</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Li Li, Daoyuan Li, Tegawendé F. Bissyandé, Jacques Klein, Yves Le Traon, David Lo and Lorenzo Cavallaro </t>
-  </si>
-  <si>
-    <t>li2017understanding</t>
+    <t>li2017understanding2</t>
+  </si>
+  <si>
+    <t>Understanding Android App Piggybacking</t>
+  </si>
+  <si>
+    <t>The 39th International Conference on Software Engineering, Poster Track (ICSE 2017)</t>
+  </si>
+  <si>
+    <t>li2017the</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Alexandre Bartel, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Bartel, Alexandre and Klein, Jacques and Le Traon, Yves</t>
   </si>
   <si>
     <t>The Multi-Generation Repackaging Hypothesis</t>
   </si>
   <si>
-    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Bartel, Alexandre and Klein, Jacques and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>li2017the</t>
-  </si>
-  <si>
-    <t>The 39th International Conference on Software Engineering, Poster Track (ICSE 2017)</t>
-  </si>
-  <si>
-    <t>Understanding Android App Piggybacking</t>
-  </si>
-  <si>
-    <t>li2017understanding2</t>
+    <t>li2017mining</t>
+  </si>
+  <si>
+    <t>Mining androzoo: A retrospect</t>
+  </si>
+  <si>
+    <t>The Doctoral Symposium of 33rd International Conference on Software Maintenance and Evolution (ICSME-DS 2017)</t>
+  </si>
+  <si>
+    <t>li2017simidroid</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>SimiDroid: Identifying and Explaining Similarities in Android Apps</t>
+  </si>
+  <si>
+    <t>The 16th IEEE International Conference On Trust, Security And Privacy In Computing And Communications (TrustCom 2017)</t>
+  </si>
+  <si>
+    <t>gajrani2017detection</t>
+  </si>
+  <si>
+    <t>Jyoti Gajrani, Li Li, Vijay Laxmi, Meenakshi Tripathi, Manoj Singh Gaur and Mauro Conti</t>
+  </si>
+  <si>
+    <t>Gajrani, Jyoti and Li, Li and Laxmi, Vijay and Tripathi, Meenakshi and Gaur, Manoj Singh and Conti, Mauro</t>
+  </si>
+  <si>
+    <t>POSTER: Detection of Information Leaks via Reflection in Android Apps</t>
+  </si>
+  <si>
+    <t>The 2017 ACM on Asia Conference on Computer and Communications Security (AsiaCCS 2017)</t>
+  </si>
+  <si>
+    <t>li2017automatically</t>
+  </si>
+  <si>
+    <t>Li Li, Daoyuan Li, Tegawendé F. Bissyandé, Jacques Klein, Haipeng Cai, David Lo and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Li, Daoyuan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Cai, Haipeng and Lo, David and Le Traon, Yves</t>
   </si>
   <si>
     <t>Automatically locating malicious packages in piggybacked android apps</t>
@@ -296,37 +382,49 @@
     <t>The 4th IEEE/ACM International Conference on Mobile Software Engineering and Systems (MobileSoft 2017)</t>
   </si>
   <si>
-    <t>Li, Li and Li, Daoyuan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Cai, Haipeng and Lo, David and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>li2017automatically</t>
+    <t>li2017static</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Mike Papadakis, Siegfried Rasthofer, Alexandre Bartel, Damien Octeau, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Papadakis, Mike and Rasthofer, Siegfried and Bartel, Alexandre and Octeau, Damien and Klein, Jacques and Le Traon, Yves</t>
   </si>
   <si>
     <t>Static Analysis of Android Apps: A Systematic Literature Review</t>
   </si>
   <si>
-    <t>li2017static</t>
-  </si>
-  <si>
-    <t>Li Li, Alexandre Bartel, Tegawendé F. Bissyandé Jacques Klein, Yves Le Traon, Steven Arzt, Siegfried Rasthofer, Eric Bodden, Damien Octeau and Patrick McDaniel</t>
-  </si>
-  <si>
-    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Papadakis, Mike and Rasthofer, Siegfried and Bartel, Alexandre and Octeau, Damien and Klein, Jacques and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>POSTER: Detection of Information Leaks via Reflection in Android Apps</t>
-  </si>
-  <si>
-    <t>Gajrani, Jyoti and Li, Li and Laxmi, Vijay and Tripathi, Meenakshi and Gaur, Manoj Singh and Conti, Mauro</t>
-  </si>
-  <si>
-    <t>gajrani2017detection</t>
-  </si>
-  <si>
-    <t>The 2017 ACM on Asia Conference on Computer and Communications Security (AsiaCCS 2017)</t>
+    <t>Information and Software Technology (IST)</t>
+  </si>
+  <si>
+    <t>yang2017characterizing</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Xinli Yang, David Lo, Li Li, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Xin Xia, Tegawendé F. Bissyandé and Jacques Klein</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Yang, Xinli and Lo, David and Li, Li and </t>
     </r>
     <r>
@@ -334,79 +432,65 @@
         <sz val="10"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Xia, Xin and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
     </r>
   </si>
   <si>
-    <t>Li Li, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Jacques Klein and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Damien Octeau and Jacques Klein</t>
-  </si>
-  <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Yves Le Traon and Jacques Klein</t>
-  </si>
-  <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Alexandre Bartel, Jacques Klein and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>Jyoti Gajrani, Li Li, Vijay Laxmi, Meenakshi Tripathi, Manoj Singh Gaur and Mauro Conti</t>
-  </si>
-  <si>
-    <t>Li Li, Daoyuan Li, Tegawendé F. Bissyandé, Jacques Klein, Haipeng Cai, David Lo and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Mike Papadakis, Siegfried Rasthofer, Alexandre Bartel, Damien Octeau, Jacques Klein and Yves Le Traon</t>
-  </si>
-  <si>
-    <r>
-      <t>Xinli Yang, David Lo, Li Li, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Xin Xia, Tegawendé F. Bissyandé and Jacques Klein</t>
-    </r>
-  </si>
-  <si>
-    <t>Damien Octeau, Somesh Jha, Matthew Dering, Patrick McDaniel, Alexandre Bartel, Li Li, Jacques Klein and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>Li Li, Kevin Allix, Daoyuan Li, Alexandre Bartel, Tegawendé F. Bissyandé and Jacques Klein</t>
-  </si>
-  <si>
-    <t>Li Li, Alexandre Bartel, Jacques Klein and Yves Le Traon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Characterizing malicious Android apps by mining topic-specific data flow signatures </t>
   </si>
   <si>
-    <t>yang2017characterizing</t>
-  </si>
-  <si>
     <t>li2017locating</t>
   </si>
   <si>
     <t>On Locating Malicious Code in Piggybacked Android Apps</t>
   </si>
   <si>
+    <t>Journal of Computer Science and Technology (JCST)</t>
+  </si>
+  <si>
+    <t>dong2018mobile</t>
+  </si>
+  <si>
+    <t>Feng Dong, Haoyu Wang, Li Li, Yao Guo, Guoai Xu and Shaodong Zhang</t>
+  </si>
+  <si>
+    <t>Dong, Feng and Wang, Haoyu and Li, Li and Guo, Yao and Xu, Guoai and Zhang, Shaodong</t>
+  </si>
+  <si>
+    <t>How Do Mobile Apps Violate the Behavioral Policy of Advertisement Libraries? </t>
+  </si>
+  <si>
+    <t>The 19th Workshop on Mobile Computing Systems and Applications (HotMobile 2018)</t>
+  </si>
+  <si>
+    <t>gao2018vulnerability</t>
+  </si>
+  <si>
+    <t>Jun Gao, Li Li, Pingfan Kong, Tegawendé F. Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Gao, Jun and Li, Li and Kong, Pingfan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>On Vulnerability Evolution in Android Apps</t>
+  </si>
+  <si>
+    <t>The 40th International Conference on Software Engineering, Poster Track (ICSE 2018)</t>
+  </si>
+  <si>
     <t>kim2018facoy</t>
+  </si>
+  <si>
+    <t>联合通讯作者</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Kisub Kim, </t>
     </r>
@@ -415,7 +499,7 @@
         <sz val="10"/>
         <color rgb="FF3B3B3B"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Dongsun Kim, Tegawendé F. Bissyandé, Eunjong Choi, Li Li, Jacques Klein, and Yves Le Traon</t>
     </r>
@@ -433,40 +517,22 @@
     <t>acceptance rate: 21%, (105/502)</t>
   </si>
   <si>
-    <t>li2017simidroid</t>
-  </si>
-  <si>
-    <t>Li Li, Tegawendé F. Bissyandé and Jacques Klein</t>
-  </si>
-  <si>
-    <t>SimiDroid: Identifying and Explaining Similarities in Android Apps</t>
-  </si>
-  <si>
-    <t>Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
-  </si>
-  <si>
-    <t>The 16th IEEE International Conference On Trust, Security And Privacy In Computing And Communications (TrustCom 2017)</t>
-  </si>
-  <si>
-    <t>Feng Dong, Haoyu Wang, Li Li, Yao Guo, Guoai Xu and Shaodong Zhang</t>
-  </si>
-  <si>
-    <t>dong2018mobile</t>
-  </si>
-  <si>
-    <t>Dong, Feng and Wang, Haoyu and Li, Li and Guo, Yao and Xu, Guoai and Zhang, Shaodong</t>
-  </si>
-  <si>
-    <t>The 19th Workshop on Mobile Computing Systems and Applications (HotMobile 2018)</t>
-  </si>
-  <si>
-    <t>Mining androzoo: A retrospect</t>
-  </si>
-  <si>
-    <t>li2017mining</t>
-  </si>
-  <si>
-    <t>The Doctoral Symposium of 33rd International Conference on Software Maintenance and Evolution (ICSME-DS 2017)</t>
+    <t>wang2018android</t>
+  </si>
+  <si>
+    <t>Haoyu Wang, Hao Li, Li Li, Yao Guo, Guoai Xu</t>
+  </si>
+  <si>
+    <t>Wang, Haoyu and Li, Hao and Li, Li and Guo, Yao and Xu, Guoai</t>
+  </si>
+  <si>
+    <t>Why are Android Apps Removed From Google Play? A Large-scale Empirical Study</t>
+  </si>
+  <si>
+    <t>The 15th International Conference on Mining Software Repositories (MSR 2018)</t>
+  </si>
+  <si>
+    <t>li2018characterising</t>
   </si>
   <si>
     <t>Li Li, Jun Gao, Tegawendé F. Bissyandé, Lei Ma, Xin Xia, Jacques Klein</t>
@@ -478,45 +544,27 @@
     <t>Characterising Deprecated Android APIs</t>
   </si>
   <si>
-    <t>The 15th International Conference on Mining Software Repositories (MSR 2018)</t>
-  </si>
-  <si>
-    <t>li2018characterising</t>
-  </si>
-  <si>
-    <t>Why are Android Apps Removed From Google Play? A Large-scale Empirical Study</t>
-  </si>
-  <si>
-    <t>Haoyu Wang, Hao Li, Li Li, Yao Guo, Guoai Xu</t>
-  </si>
-  <si>
-    <t>Wang, Haoyu and Li, Hao and Li, Li and Guo, Yao and Xu, Guoai</t>
-  </si>
-  <si>
-    <t>wang2018android</t>
-  </si>
-  <si>
-    <t>gao2018vulnerability</t>
-  </si>
-  <si>
-    <t>Jun Gao, Li Li, Pingfan Kong, Tegawendé F. Bissyandé, Jacques Klein</t>
-  </si>
-  <si>
-    <t>Gao, Jun and Li, Li and Kong, Pingfan and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
-  </si>
-  <si>
-    <t>On Vulnerability Evolution in Android Apps</t>
-  </si>
-  <si>
-    <t>The 40th International Conference on Software Engineering, Poster Track (ICSE 2018)</t>
-  </si>
-  <si>
-    <t>How Do Mobile Apps Violate the Behavioral Policy of Advertisement Libraries? </t>
+    <t>liu2018closer</t>
+  </si>
+  <si>
+    <t>Kui Liu, Dongsun Kim, Li Li, Anil Koyuncu, Tegawendé Bissyande, and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Liu, Kui and Kim, Dongsun and Li, Li and Koyuncu, Anil and Bissyand{\'e}, Tegawend{\'e} F and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>A Closer Look at Real-World Patches</t>
+  </si>
+  <si>
+    <t>The 34th International Conference on Software Maintenance and Evolution (ICSME 2018)</t>
   </si>
   <si>
     <t>li2018cid</t>
   </si>
   <si>
+    <t>移动应用缺陷分析/移动操作系统演化分析</t>
+  </si>
+  <si>
     <t>Li Li, Tegawendé F. Bissyandé, Haoyu Wang and Jacques Klein</t>
   </si>
   <si>
@@ -532,18 +580,6 @@
     <t>acceptance rate: 23.8%, (31/130)</t>
   </si>
   <si>
-    <t>liu2018closer</t>
-  </si>
-  <si>
-    <t>Kui Liu, Dongsun Kim, Li Li, Anil Koyuncu, Tegawendé Bissyande, and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>Liu, Kui and Kim, Dongsun and Li, Li and Koyuncu, Anil and Bissyand{\'e}, Tegawend{\'e} F and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>A Closer Look at Real-World Patches</t>
-  </si>
-  <si>
     <t>dong2018frauddroid</t>
   </si>
   <si>
@@ -556,16 +592,21 @@
     <t>FraudDroid: Automated Ad Fraud Detection for Android Apps</t>
   </si>
   <si>
-    <t>DeepGauge: Multi-Granularity Testing Criteria for Deep Learning Systems</t>
-  </si>
-  <si>
-    <t>The 33rd IEEE/ACM International Conference on Automated Software Engineering (ASE 2018)</t>
-  </si>
-  <si>
     <t>The 26th ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2018)</t>
   </si>
   <si>
+    <t>acceptance rate: 21%, (61/289)</t>
+  </si>
+  <si>
+    <t>ma2018deepgauge</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Lei Ma, Felix Juefei-Xu, Fuyuan Zhang, Jiyuan Sun, Minhui Xue, Bo Li, Chunyang Chen, </t>
     </r>
     <r>
@@ -573,65 +614,69 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="-webkit-standard"/>
+        <charset val="134"/>
       </rPr>
       <t>Ting Su, Li Li, Yang Liu, Jianjun Zhao, and Yadong Wang</t>
     </r>
   </si>
   <si>
-    <t>ma2018deepgauge</t>
-  </si>
-  <si>
     <t>Ma, Lei and Juefei-Xu, Felix and Sun, Jiyuan and Chen, Chunyang and Su, Ting and Zhang, Fuyuan and Xue, Minhui and Li, Bo and Li, Li and Liu, Yang and Zhao, Jianjun and Wang, Yadong</t>
   </si>
   <si>
-    <t>acceptance rate: 21%, (61/289)</t>
+    <t>DeepGauge: Multi-Granularity Testing Criteria for Deep Learning Systems</t>
+  </si>
+  <si>
+    <t>The 33rd IEEE/ACM International Conference on Automated Software Engineering (ASE 2018)</t>
+  </si>
+  <si>
+    <t>ma2018deepmutation</t>
+  </si>
+  <si>
+    <t>Lei Ma, Fuyuan Zhang, Jiyuan Sun, Minhui Xue, Bo Li, Felix Juefei-Xu, Chao Xie, Li Li, Yang Liu, Jianjun Zhao, and Yadong Wang</t>
+  </si>
+  <si>
+    <t>Ma, Lei and Zhang, Fuyuan  and Sun, Jiyuan and Xue, Minhui and Li, Bo and Juefei-Xu, Felix and Xie, Chao and Li, Li and Liu, Yang and Zhao, Jianjun and Wang, Yadong</t>
+  </si>
+  <si>
+    <t>DeepMutation: Mutation Testing of Deep Learning Systems</t>
+  </si>
+  <si>
+    <t>The 29th IEEE International Symposium on Software Reliability Engineering (ISSRE 2018)</t>
+  </si>
+  <si>
+    <t>acceptance rate: 23.9%, (23/96)</t>
+  </si>
+  <si>
+    <t>li2018moonlightbox</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, and Jacques Klein</t>
+  </si>
+  <si>
+    <t>MoonlightBox: Mining Android API Histories for Uncovering Release-time Inconsistencies</t>
+  </si>
+  <si>
+    <t>wang2018beyond</t>
+  </si>
+  <si>
+    <t>Haoyu Wang, Zhe Liu, Jingyue Liang, Narseo Vallina-Rodriguez, Yao Guo, Li Li, Juan Tapiador, Jingcun Cao, and Guoai Xu</t>
+  </si>
+  <si>
+    <t>Wang, Haoyu and Liu, Zhe and Liang, Jingyue and Vallina-Rodriguez, Narseo and Guo, Yao and Li, Li and Tapiador, Juan and Cao, Jingcun and Xu, Guoai</t>
   </si>
   <si>
     <t>Beyond Google Play: A Large-Scale Comparative Study of Chinese Android App Markets</t>
   </si>
   <si>
-    <t>Ma, Lei and Zhang, Fuyuan  and Sun, Jiyuan and Xue, Minhui and Li, Bo and Juefei-Xu, Felix and Xie, Chao and Li, Li and Liu, Yang and Zhao, Jianjun and Wang, Yadong</t>
-  </si>
-  <si>
-    <t>Lei Ma, Fuyuan Zhang, Jiyuan Sun, Minhui Xue, Bo Li, Felix Juefei-Xu, Chao Xie, Li Li, Yang Liu, Jianjun Zhao, and Yadong Wang</t>
-  </si>
-  <si>
-    <t>ma2018deepmutation</t>
-  </si>
-  <si>
-    <t>DeepMutation: Mutation Testing of Deep Learning Systems</t>
-  </si>
-  <si>
-    <t>The 29th IEEE International Symposium on Software Reliability Engineering (ISSRE 2018)</t>
-  </si>
-  <si>
-    <t>acceptance rate: 23.9%, (23/96)</t>
-  </si>
-  <si>
-    <t>li2018moonlightbox</t>
-  </si>
-  <si>
-    <t>MoonlightBox: Mining Android API Histories for Uncovering Release-time Inconsistencies</t>
-  </si>
-  <si>
-    <t>Li Li, Tegawendé F. Bissyandé, and Jacques Klein</t>
-  </si>
-  <si>
-    <t>Haoyu Wang, Zhe Liu, Jingyue Liang, Narseo Vallina-Rodriguez, Yao Guo, Li Li, Juan Tapiador, Jingcun Cao, and Guoai Xu</t>
-  </si>
-  <si>
     <t>The 2018 Internet Measurement Conference (IMC 2018)</t>
   </si>
   <si>
-    <t>Wang, Haoyu and Liu, Zhe and Liang, Jingyue and Vallina-Rodriguez, Narseo and Guo, Yao and Li, Li and Tapiador, Juan and Cao, Jingcun and Xu, Guoai</t>
-  </si>
-  <si>
-    <t>wang2018beyond</t>
-  </si>
-  <si>
     <t>kong2018automated</t>
   </si>
   <si>
+    <t>通讯作者</t>
+  </si>
+  <si>
     <t>Pingfan Kong, Li Li, Jun Gao, Kui Liu, Tegawendé Bissyandé, Jacques Klein</t>
   </si>
   <si>
@@ -641,78 +686,84 @@
     <t>Automated Testing of Android Apps: A Systematic Literature Review</t>
   </si>
   <si>
+    <t>IEEE Transactions on Reliability (TRel)</t>
+  </si>
+  <si>
+    <t>chen2018categorizing</t>
+  </si>
+  <si>
     <t>Qiuyuan Chen, Lingfeng Bao, Li Li, Xin Xia, Liang Cai</t>
   </si>
   <si>
     <t>Chen, Qiuyuan and Bao, Lingfeng and Li, Li and Xia, Xin and Cai, Liang</t>
   </si>
   <si>
-    <t>chen2018categorizing</t>
-  </si>
-  <si>
     <t>Categorizing and Predicting Invalid Vulnerabilities on Common Vulnerabilities and Exposures</t>
   </si>
   <si>
     <t>The 25th Asia-Pacific Software Engineering Conference (APSEC 2018)</t>
   </si>
   <si>
+    <t>le2018towards</t>
+  </si>
+  <si>
     <t>Tien-Duy B. Le, Lingfeng Bao, David Lo, Debin Gao, Li Li</t>
   </si>
   <si>
-    <t>le2018towards</t>
-  </si>
-  <si>
     <t>Le, Tien-Duy B and Bao, Lingfeng and Lo, David and Gao, Debin and Li, Li</t>
   </si>
   <si>
     <t>Towards Mining Comprehensive Android Sandboxes</t>
   </si>
   <si>
+    <t>The 23rd International Conference on Engineering of Complex Computer Systems (ICECCS 2018)</t>
+  </si>
+  <si>
+    <t>li2019rebooting</t>
+  </si>
+  <si>
+    <t>重打包分析</t>
+  </si>
+  <si>
+    <t>Li Li, Tegawendé F. Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Rebooting Research on Detecting Repackaged Android Apps: Literature Review and Benchmark</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Software Engineering (TSE)</t>
+  </si>
+  <si>
+    <t>li2019identifying</t>
+  </si>
+  <si>
+    <t>On Identifying and Explaining Similarities in Android Apps</t>
+  </si>
+  <si>
+    <t>hu2019want</t>
+  </si>
+  <si>
+    <t>Yangyu Hu, Haoyu Wang, Li Li, Yao Guo, Guoai Xu, and Ren He</t>
+  </si>
+  <si>
+    <t>Hu, Yangyu and Wang, Haoyu and Li, Li and Guo, Yao and Xu, Guoai and He, Ren</t>
+  </si>
+  <si>
     <t>Want to Earn a Few Extra Bucks? A First Look at Money-making Apps</t>
   </si>
   <si>
     <t>IEEE International Conference on Software Analysis, Evolution and Reengineering (SANER 2019)</t>
   </si>
   <si>
-    <t>The 23rd International Conference on Engineering of Complex Computer Systems (ICECCS 2018)</t>
-  </si>
-  <si>
-    <t>Hu, Yangyu and Wang, Haoyu and Li, Li and Guo, Yao and Xu, Guoai and He, Ren</t>
-  </si>
-  <si>
-    <t>Yangyu Hu, Haoyu Wang, Li Li, Yao Guo, Guoai Xu, and Ren He</t>
-  </si>
-  <si>
-    <t>hu2019want</t>
-  </si>
-  <si>
-    <t>li2019rebooting</t>
-  </si>
-  <si>
-    <t>Li Li, Tegawendé F. Bissyandé, Jacques Klein</t>
-  </si>
-  <si>
-    <t>Rebooting Research on Detecting Repackaged Android Apps: Literature Review and Benchmark</t>
-  </si>
-  <si>
-    <t>IEEE Transactions on Software Engineering (TSE)</t>
-  </si>
-  <si>
-    <t>li2019identifying</t>
-  </si>
-  <si>
-    <t>On Identifying and Explaining Similarities in Android Apps</t>
-  </si>
-  <si>
-    <t>Journal of Computer Science and Technology (JCST)</t>
-  </si>
-  <si>
     <t>gao2019should</t>
   </si>
   <si>
     <t>Should You Consider Adware as Malware in Your Study?</t>
   </si>
   <si>
+    <t>IEEE International Conference on Software Analysis, Evolution and Reengineering, ERA Track (SANER 2019)</t>
+  </si>
+  <si>
     <t>ma2019deepct</t>
   </si>
   <si>
@@ -725,57 +776,51 @@
     <t>DeepCT: Tomographic Combinatorial Testing for Deep Learning Systems</t>
   </si>
   <si>
+    <t>zhao2019knowledge</t>
+  </si>
+  <si>
+    <t>Yanjie Zhao, Haoyu Wang, Lei Ma, Yuxin Liu, Li Li and John Grundy</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Wang, Haoyu and Ma, Lei and Liu, Yuxin and Li, Li and Grundy, John</t>
+  </si>
+  <si>
     <t>Knowledge Graphing Git Repositories: A Preliminary Study</t>
   </si>
   <si>
-    <t>zhao2019knowledge</t>
-  </si>
-  <si>
-    <t>Yanjie Zhao, Haoyu Wang, Lei Ma, Yuxin Liu, Li Li and John Grundy</t>
-  </si>
-  <si>
-    <t>Zhao, Yanjie and Wang, Haoyu and Ma, Lei and Liu, Yuxin and Li, Li and Grundy, John</t>
+    <t>gao2019negative</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>Jun Gao, Pingfan Kong, Li Li, Tegawendé F. Bissyandé and Jacques Klein</t>
   </si>
   <si>
-    <t>gao2019negative</t>
+    <t>Gao, Jun and Kong, Pingfan and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
   </si>
   <si>
     <t>Negative Results on Mining Crypto-API Usage Rules in Android Apps</t>
   </si>
   <si>
-    <t>Gao, Jun and Kong, Pingfan and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
-  </si>
-  <si>
     <t>The 16th International Conference on Mining Software Repositories (MSR 2019)</t>
   </si>
   <si>
+    <t>hu2019dating</t>
+  </si>
+  <si>
     <t>Yangyu Hu, Haoyu Wang, Yajin Zhou, Yao Guo, Li Li, Bingxuan Luo, Fangren Xu</t>
   </si>
   <si>
     <t>Hu, Yangyu and Wang, Haoyu and Zhou, Yajin and Guo, Yao  and Li, Li and  Luo, Bingxuan and Xu, Fangren</t>
   </si>
   <si>
-    <t>hu2019dating</t>
-  </si>
-  <si>
     <t>Dating with Scambots: Understanding the Ecosystem of Fraudulent Dating Applications</t>
   </si>
   <si>
     <t>IEEE Transactions on Dependable and Secure Computing (TDSC)</t>
   </si>
   <si>
-    <t>IEEE Transactions on Reliability (TRel)</t>
-  </si>
-  <si>
-    <t>Information and Software Technology (IST)</t>
-  </si>
-  <si>
-    <t>The 34th International Conference on Software Maintenance and Evolution (ICSME 2018)</t>
-  </si>
-  <si>
     <t>li2019watch</t>
   </si>
   <si>
@@ -791,19 +836,34 @@
     <t>Journal of Software: Evolution and Process</t>
   </si>
   <si>
+    <t>li2019revisiting</t>
+  </si>
+  <si>
+    <t>第三方库分析</t>
+  </si>
+  <si>
+    <t>Li Li, Timothée Riom, Tegawendé F. Bissyandé, Haoyu Wang, Jacques Klein and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Li, Li and Riom, Timoth{\'e}e and Bissyand{\'e}, Tegawend{\'e} F and Wang, Haoyu and Klein, Jacques and Le Traon, Yves</t>
+  </si>
+  <si>
     <t>Revisiting the Impact of Common Libraries for Android-related Investigations</t>
   </si>
   <si>
     <t>Journal of Systems and Software (JSS)</t>
   </si>
   <si>
-    <t>li2019revisiting</t>
-  </si>
-  <si>
-    <t>Li Li, Timothée Riom, Tegawendé F. Bissyandé, Haoyu Wang, Jacques Klein and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>Li, Li and Riom, Timoth{\'e}e and Bissyand{\'e}, Tegawend{\'e} F and Wang, Haoyu and Klein, Jacques and Le Traon, Yves</t>
+    <t>cai2019large</t>
+  </si>
+  <si>
+    <t>移动应用缺陷分析</t>
+  </si>
+  <si>
+    <t>Haipeng Cai, Ziyi Zhang, Li Li, Xiaoqin Fu</t>
+  </si>
+  <si>
+    <t>Cai, Haipeng and Zhang, Ziyi and Li, Li and Fu, Xiaoqin</t>
   </si>
   <si>
     <t>A Large-Scale Study of Application Incompatibilities in Android</t>
@@ -812,19 +872,30 @@
     <t>The 28th ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2019)</t>
   </si>
   <si>
+    <t>kong2019mining</t>
+  </si>
+  <si>
+    <t>移动应用缺陷分析，通讯作者</t>
+  </si>
+  <si>
+    <t>Pingfan Kong, Li Li, Jun Gao, Tegawendé Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Kong, Pingfan and Li, Li and Gao, Jun and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+  </si>
+  <si>
     <t>Mining Android Crash Fixes in the Absence of Issue- and Change-Tracking Systems</t>
   </si>
   <si>
-    <t>Pingfan Kong, Li Li, Jun Gao, Tegawendé Bissyandé, Jacques Klein</t>
-  </si>
-  <si>
-    <t>Kong, Pingfan and Li, Li and Gao, Jun and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
-  </si>
-  <si>
-    <t>kong2019mining</t>
+    <t>cruz2019energy</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Luis Cruz, Rui Abreu, John Grundy, Li Li,  </t>
     </r>
     <r>
@@ -833,7 +904,7 @@
         <sz val="10"/>
         <color rgb="FF222222"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Xin Xia</t>
     </r>
@@ -848,7 +919,7 @@
     <t>The 35th IEEE International Conference on Software Maintenance and Evolution (ICSME 2019)</t>
   </si>
   <si>
-    <t>cruz2019energy</t>
+    <t>gao22019evolution</t>
   </si>
   <si>
     <t>Jun Gao, Li Li, Tegawendé F. Bissyandé and Jacques Klein</t>
@@ -863,69 +934,57 @@
     <t>The 24th International Conference on Engineering of Complex Computer Systems (ICECCS 2019)</t>
   </si>
   <si>
+    <t>sadiq2019sip4j</t>
+  </si>
+  <si>
+    <t>Ayesha Sadiq, Li Li, Yuan-Fang Li, Ijaz Ahmed, and Sea Ling</t>
+  </si>
+  <si>
+    <t>Sadiq, Ayesha and Li, Li and Li, Yuan-Fang and Ahmed, Ijaz and Ling, Sea</t>
+  </si>
+  <si>
+    <t>Sip4J: Statically Inferring Access Permission Contracts for Parallelising Sequential Java Programs</t>
+  </si>
+  <si>
+    <t>The 34th IEEE/ACM International Conference on Automated Software Engineering, Demo Track (ASE 2019)</t>
+  </si>
+  <si>
+    <t>liu2019dapanda</t>
+  </si>
+  <si>
+    <t>Tianming Liu, Haoyu Wang, Li Li, Guangdong Bai, Yao Guo and Guoai Xu</t>
+  </si>
+  <si>
+    <t>Liu, Tianming and Wang, Haoyu and Li, Li and Bai, Guangdong and Guo, Yao and Xu, Guoai</t>
+  </si>
+  <si>
+    <t>DaPanda: Detecting Aggressive Push Notification in Android Apps</t>
+  </si>
+  <si>
+    <t>The 34th IEEE/ACM International Conference on Automated Software Engineering (ASE 2019)</t>
+  </si>
+  <si>
+    <t>gao2019understanding</t>
+  </si>
+  <si>
+    <t>Jun Gao, Li Li, Pingfan Kong, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Understanding the Evolution of Android App Vulnerabilities</t>
+  </si>
+  <si>
+    <t>li2020cda</t>
+  </si>
+  <si>
+    <t>Li Li, Jun Gao, Tegawendé F. Bissyandé, Lei Ma, Xin Xia and Jacques Klein</t>
+  </si>
+  <si>
     <t>CDA: Characterising Deprecated Android APIs</t>
   </si>
   <si>
     <t>Empirical Software Engineering (EMSE)</t>
   </si>
   <si>
-    <t>Li Li, Jun Gao, Tegawendé F. Bissyandé, Lei Ma, Xin Xia and Jacques Klein</t>
-  </si>
-  <si>
-    <t>Sip4J: Statically Inferring Access Permission Contracts for Parallelising Sequential Java Programs</t>
-  </si>
-  <si>
-    <t>The 34th IEEE/ACM International Conference on Automated Software Engineering (ASE 2019)</t>
-  </si>
-  <si>
-    <t>The 34th IEEE/ACM International Conference on Automated Software Engineering, Demo Track (ASE 2019)</t>
-  </si>
-  <si>
-    <t>IEEE International Conference on Software Analysis, Evolution and Reengineering, ERA Track (SANER 2019)</t>
-  </si>
-  <si>
-    <t>Ayesha Sadiq, Li Li, Yuan-Fang Li, Ijaz Ahmed, and Sea Ling</t>
-  </si>
-  <si>
-    <t>Sadiq, Ayesha and Li, Li and Li, Yuan-Fang and Ahmed, Ijaz and Ling, Sea</t>
-  </si>
-  <si>
-    <t>sadiq2019sip4j</t>
-  </si>
-  <si>
-    <t>Tianming Liu, Haoyu Wang, Li Li, Guangdong Bai, Yao Guo and Guoai Xu</t>
-  </si>
-  <si>
-    <t>Liu, Tianming and Wang, Haoyu and Li, Li and Bai, Guangdong and Guo, Yao and Xu, Guoai</t>
-  </si>
-  <si>
-    <t>liu2019dapanda</t>
-  </si>
-  <si>
-    <t>DaPanda: Detecting Aggressive Push Notification in Android Apps</t>
-  </si>
-  <si>
-    <t>Haipeng Cai, Ziyi Zhang, Li Li, Xiaoqin Fu</t>
-  </si>
-  <si>
-    <t>Cai, Haipeng and Zhang, Ziyi and Li, Li and Fu, Xiaoqin</t>
-  </si>
-  <si>
-    <t>cai2019large</t>
-  </si>
-  <si>
-    <t>li2020cda</t>
-  </si>
-  <si>
-    <t>Jun Gao, Li Li, Pingfan Kong, Tegawendé F. Bissyandé and Jacques Klein</t>
-  </si>
-  <si>
-    <t>gao2019understanding</t>
-  </si>
-  <si>
-    <t>Understanding the Evolution of Android App Vulnerabilities</t>
-  </si>
-  <si>
     <t>hu2020mobile</t>
   </si>
   <si>
@@ -983,15 +1042,15 @@
     <t>The 42nd International Conference on Software Engineering, NIER Track (ICSE 2020)</t>
   </si>
   <si>
+    <t>liu2020androzooopen</t>
+  </si>
+  <si>
     <t>Pei Liu, Li Li, Yanjie Zhao, Xiaoyu Sun, John Grundy</t>
   </si>
   <si>
     <t>Liu, Pei and Li, Li and Zhao, Yanjie and Sun, Xiaoyu and Grundy, John</t>
   </si>
   <si>
-    <t>liu2020androzooopen</t>
-  </si>
-  <si>
     <t>AndroZooOpen: Collecting Large-scale Open Source Android Apps for the Research Community</t>
   </si>
   <si>
@@ -1016,22 +1075,28 @@
     <t>gao2020borrowing</t>
   </si>
   <si>
+    <t>恶意行为分析，通讯作者</t>
+  </si>
+  <si>
     <t>Borrowing Your Enemy’s Arrows: the Case of Code Reuse in Android via Direct Inter-app Code Invocation</t>
   </si>
   <si>
     <t>The 28th ACM Joint Meeting on European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2020)</t>
   </si>
   <si>
+    <t>wang2020exploring</t>
+  </si>
+  <si>
+    <t>Jiawei Wang, Li Li, Kui Liu, Haipeng Cai</t>
+  </si>
+  <si>
+    <t>Wang, Jiawei and Li, Li and Liu, Kui and Cai, Haipeng</t>
+  </si>
+  <si>
     <t>Exploring How Deprecated Python Library APIs are (Not) Handled</t>
   </si>
   <si>
-    <t>wang2020exploring</t>
-  </si>
-  <si>
-    <t>Jiawei Wang, Li Li, Kui Liu, Haipeng Cai</t>
-  </si>
-  <si>
-    <t>Wang, Jiawei and Li, Li and Liu, Kui and Cai, Haipeng</t>
+    <t>wang2020need</t>
   </si>
   <si>
     <t>Dabao Wang, Kui Liu, Li Li</t>
@@ -1040,28 +1105,40 @@
     <t>Wang, Dabao and Liu, Kui and Li, Li</t>
   </si>
   <si>
-    <t>wang2020need</t>
-  </si>
-  <si>
     <t>On the Need of Understanding the Failures of Smart Contracts</t>
   </si>
   <si>
     <t>IEEE Software</t>
   </si>
   <si>
+    <t>fu2020seads</t>
+  </si>
+  <si>
+    <t>Xiaoqin Fu, Haipeng Cai, Wen Li, and Li Li</t>
+  </si>
+  <si>
+    <t>Fu, Xiaoqin and Cai, Haipeng and Li, Wen and Li, Li</t>
+  </si>
+  <si>
     <t>Seads: Scalable and cost-effective dynamic dependence analysis of distributed systems via reinforcement learning</t>
   </si>
   <si>
     <t>ACM Transactions on Software Engineering and Methodology (TOSEM)</t>
   </si>
   <si>
-    <t>Xiaoqin Fu, Haipeng Cai, Wen Li, and Li Li</t>
-  </si>
-  <si>
-    <t>Fu, Xiaoqin and Cai, Haipeng and Li, Wen and Li, Li</t>
-  </si>
-  <si>
-    <t>fu2020seads</t>
+    <t>fu2020dads</t>
+  </si>
+  <si>
+    <t>Xiaoqin Fu, Haipeng Cai, and Li Li</t>
+  </si>
+  <si>
+    <t>Fu, Xiaoqin and Cai, Haipeng and Li, Li</t>
+  </si>
+  <si>
+    <t>Dads: Dynamic Slicing Continuously-Running Distributed Programs with Budget Constraints</t>
+  </si>
+  <si>
+    <t>The Tool Demo Track of the 28th ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE-Tool 2020)</t>
   </si>
   <si>
     <t>xu2020dissecting</t>
@@ -1079,6 +1156,21 @@
     <t>The 20th IEEE International Conference on Software Quality, Reliability, and Security (QRS 2020)</t>
   </si>
   <si>
+    <t>li2020knowledgezooclient</t>
+  </si>
+  <si>
+    <t>Li Li, Jun Gao, Pingfan Kong, Haoyu Wang, Mengyu Huang, Yuan-Fang Li, and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Li, Li and Gao, Jun and Kong, Pingfan and Huang, Mengyu and Li Yuan-Fang and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>KnowledgeZooClient: Constructing Knowledge Graph for Android</t>
+  </si>
+  <si>
+    <t>The 3rd International Workshop on Advances in Mobile App Analysis (A-Mobile 2020), co-located with ASE 2020</t>
+  </si>
+  <si>
     <t>zhan2020automated</t>
   </si>
   <si>
@@ -1094,7 +1186,39 @@
     <t>The 35th IEEE/ACM International Conference on Automated Software Engineering (ASE 2020)</t>
   </si>
   <si>
+    <t>tian2020evaluating</t>
+  </si>
+  <si>
+    <t>Haoye Tian, Kui Liu, Abdoul Kader Kaboré, Anil Koyuncu, Li Li, Jacques Klein, Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Tian, Haoye and Liu, Kui and Kabor{\'e}, Abdoul Kader and Koyuncu, Anil and Li, Li and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>Evaluating Representation Learning of Code Changes for Predicting Patch Correctness in Program Repair</t>
+  </si>
+  <si>
+    <t>wang2020detecting</t>
+  </si>
+  <si>
+    <t>Xin Wang, Jin Liu, Li Li, Xiao Chen, Xiao Liu, Hao Wu</t>
+  </si>
+  <si>
+    <t>Wang, Xin and Liu, Jin and Li, Li and Chen, Xiao and Liu, Xiao and Wu, Hao</t>
+  </si>
+  <si>
+    <t>Detecting and Explaining Self-Admitted Technical Debts with Attention-based Neural Networks</t>
+  </si>
+  <si>
+    <t>wang2020assessing</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Jiawei Wang</t>
     </r>
     <r>
@@ -1102,7 +1226,7 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>, </t>
     </r>
@@ -1110,7 +1234,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Tzu-yang Kuo</t>
     </r>
@@ -1119,7 +1243,7 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>, </t>
     </r>
@@ -1127,7 +1251,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Li Li</t>
     </r>
@@ -1136,7 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>, </t>
     </r>
@@ -1144,7 +1268,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Andreas Zeller</t>
     </r>
@@ -1153,61 +1277,7 @@
     <t>Assessing and Restoring Reproducibility of Jupyter Notebooks</t>
   </si>
   <si>
-    <t>wang2020assessing</t>
-  </si>
-  <si>
-    <t>Evaluating Representation Learning of Code Changes for Predicting Patch Correctness in Program Repair</t>
-  </si>
-  <si>
-    <t>Haoye Tian, Kui Liu, Abdoul Kader Kaboré, Anil Koyuncu, Li Li, Jacques Klein, Tegawendé F. Bissyandé</t>
-  </si>
-  <si>
-    <t>Tian, Haoye and Liu, Kui and Kabor{\'e}, Abdoul Kader and Koyuncu, Anil and Li, Li and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
-  </si>
-  <si>
-    <t>tian2020evaluating</t>
-  </si>
-  <si>
-    <t>Xin Wang, Jin Liu, Li Li, Xiao Chen, Xiao Liu, Hao Wu</t>
-  </si>
-  <si>
-    <t>Wang, Xin and Liu, Jin and Li, Li and Chen, Xiao and Liu, Xiao and Wu, Hao</t>
-  </si>
-  <si>
-    <t>Detecting and Explaining Self-Admitted Technical Debts with Attention-based Neural Networks</t>
-  </si>
-  <si>
-    <t>wang2020detecting</t>
-  </si>
-  <si>
-    <t>fu2020dads</t>
-  </si>
-  <si>
-    <t>Xiaoqin Fu, Haipeng Cai, and Li Li</t>
-  </si>
-  <si>
-    <t>Dads: Dynamic Slicing Continuously-Running Distributed Programs with Budget Constraints</t>
-  </si>
-  <si>
-    <t>Fu, Xiaoqin and Cai, Haipeng and Li, Li</t>
-  </si>
-  <si>
-    <t>The Tool Demo Track of the 28th ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE-Tool 2020)</t>
-  </si>
-  <si>
-    <t>li2020knowledgezooclient</t>
-  </si>
-  <si>
-    <t>KnowledgeZooClient: Constructing Knowledge Graph for Android</t>
-  </si>
-  <si>
-    <t>The 3rd International Workshop on Advances in Mobile App Analysis (A-Mobile 2020), co-located with ASE 2020</t>
-  </si>
-  <si>
-    <t>Li Li, Jun Gao, Pingfan Kong, Haoyu Wang, Mengyu Huang, Yuan-Fang Li, and Tegawendé F. Bissyandé</t>
-  </si>
-  <si>
-    <t>Li, Li and Gao, Jun and Kong, Pingfan and Huang, Mengyu and Li Yuan-Fang and Bissyand{\'e}, Tegawend{\'e} F</t>
+    <t>xu2020comprehensive</t>
   </si>
   <si>
     <t>Zhou Xu, Li Li, Meng Yan, Jin Liu, Xiapu Luo, John Grundy, Yifeng Zhang, Xiaohong Zhang</t>
@@ -1219,7 +1289,7 @@
     <t>A comprehensive comparative study of clustering-based unsupervised defect prediction models</t>
   </si>
   <si>
-    <t>xu2020comprehensive</t>
+    <t>liu2020critical</t>
   </si>
   <si>
     <t>Kui Liu, Li Li, Anil Koyuncu, Dongsun Kim, Zhe Liu, Jacques Klein, and Tegawendé F. Bissyandé</t>
@@ -1231,7 +1301,10 @@
     <t>A Critical Review on the Evaluation of Automated Program Repair Systems</t>
   </si>
   <si>
-    <t>liu2020critical</t>
+    <t>sun2020taming</t>
+  </si>
+  <si>
+    <t>隐私泄露检测，通讯作者</t>
   </si>
   <si>
     <t>Xiaoyu Sun, Li Li, Tegawendé F. Bissyandé, Jacques Klein, Damien Octeau, John Grundy</t>
@@ -1246,7 +1319,7 @@
     <t xml:space="preserve"> ACM Transactions on Software Engineering and Methodology (TOSEM)</t>
   </si>
   <si>
-    <t>sun2020taming</t>
+    <t>chen2021comparative</t>
   </si>
   <si>
     <t>Xiao Chen, Wanli Chen, Kui Liu, Chunyang Chen and Li Li</t>
@@ -1255,39 +1328,75 @@
     <t>Chen, Xiao and Chen, Wanli and Liu, Kui and Chen, Chunyang and Li, Li</t>
   </si>
   <si>
-    <t>chen2021comparative</t>
-  </si>
-  <si>
     <t>A Comparative Study of Smartphone and Smartwatch Apps</t>
   </si>
   <si>
+    <t>The 2021 ACM/SIGAPP Symposium on Applied Computing (SAC 2021)</t>
+  </si>
+  <si>
+    <t>shamsujjoha2021human</t>
+  </si>
+  <si>
     <t>Md. Shamsujjoha, John Grundy, Li Li, Hourieh Khalajzadeh and Qinghua Lu</t>
   </si>
   <si>
     <t>Shamsujjoha, Md. and Grundy, John and Li, Li and Khalajzadeh, Hourieh and Lu, Qinghua</t>
   </si>
   <si>
-    <t>shamsujjoha2021human</t>
-  </si>
-  <si>
     <t>Human-Centric Issues in eHealth App Development and Usage: A Preliminary Assessment</t>
   </si>
   <si>
     <t>The 28th IEEE International Conference on Software Analysis, Evolution and Reengineering, ERA track (SANER-ERA 2021)</t>
   </si>
   <si>
+    <t>obie2021first</t>
+  </si>
+  <si>
     <t>Humphrey O. Obie, Waqar Hussain, Xin Xia, John Grundy, Li Li, Burak Turhan, Jon Whittle and Mojtaba Shahin</t>
   </si>
   <si>
-    <t>obie2021first</t>
-  </si>
-  <si>
     <t>Obie, Humphrey and Hussain, Waqar and Xia, Xin and Grundy, John and Li, Li and Turhan, Burak and Whittle, Jon and Shahin, Mojtaba</t>
   </si>
   <si>
     <t>A First Look at Human Values-Violation in  App Reviews</t>
   </si>
   <si>
+    <t>The 43rd ACM/IEEE International Conference on Software Engineering, SEIS Track (ICSE-SEIS 2021)</t>
+  </si>
+  <si>
+    <t>liu2021identifying</t>
+  </si>
+  <si>
+    <t>移动操作系统演化分析，通讯作者</t>
+  </si>
+  <si>
+    <t>Pei Liu, Li Li, Yichun Yan, Mattia Fazzini and John Grundy</t>
+  </si>
+  <si>
+    <t>Liu, Pei and Li, Li and Yan, Yichun and Fazzini, Mattia and Grundy, John</t>
+  </si>
+  <si>
+    <t>Identifying and Characterizing Silently-Evolved Methods in the Android API</t>
+  </si>
+  <si>
+    <t>The 43rd ACM/IEEE International Conference on Software Engineering, SEIP Track (ICSE-SEIP 2021)</t>
+  </si>
+  <si>
+    <t>li2021understanding</t>
+  </si>
+  <si>
+    <t>Wen Li, Na Meng, Li Li, Haipeng Cai</t>
+  </si>
+  <si>
+    <t>Li, Wen and Meng, Na and Li, Li and Cai, Haipeng</t>
+  </si>
+  <si>
+    <t>Understanding Language Selection in Multi-Language Software Projects on GitHub</t>
+  </si>
+  <si>
+    <t>The 43rd ACM/IEEE International Conference on Software Engineering, Poster Track (ICSE-Poster 2021)</t>
+  </si>
+  <si>
     <t>wang2021restoring</t>
   </si>
   <si>
@@ -1297,202 +1406,127 @@
     <t>The 43rd ACM/IEEE International Conference on Software Engineering (ICSE 2021)</t>
   </si>
   <si>
-    <t>The 2021 ACM/SIGAPP Symposium on Applied Computing (SAC 2021)</t>
-  </si>
-  <si>
-    <t>The 43rd ACM/IEEE International Conference on Software Engineering, SEIS Track (ICSE-SEIS 2021)</t>
-  </si>
-  <si>
-    <t>Pei Liu, Li Li, Yichun Yan, Mattia Fazzini and John Grundy</t>
-  </si>
-  <si>
-    <t>Liu, Pei and Li, Li and Yan, Yichun and Fazzini, Mattia and Grundy, John</t>
-  </si>
-  <si>
-    <t>liu2021identifying</t>
-  </si>
-  <si>
-    <t>Identifying and Characterizing Silently-Evolved Methods in the Android API</t>
-  </si>
-  <si>
-    <t>The 43rd ACM/IEEE International Conference on Software Engineering, SEIP Track (ICSE-SEIP 2021)</t>
+    <t>zhao2021impact</t>
   </si>
   <si>
     <t>Yanjie Zhao, Li Li, Haoyu Wang, Haipeng Cai, Tegawendé F. Bissyandé, Jacques Klein and John Grundy</t>
   </si>
   <si>
-    <t>zhao2021impact</t>
+    <t>Zhao, Yanjie and Li, Li and Wang, Haoyu and Cai, Haipeng and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Grundy, John</t>
   </si>
   <si>
     <t>On the Impact of Sample Duplication in Machine Learning based Android Malware Detection</t>
   </si>
   <si>
+    <t>gao2021demystifying</t>
+  </si>
+  <si>
     <t>Yuhao Gao, Haoyu Wang, Li Li, Xiapu Luo, Xuanzhe Liu and Guoai Xu</t>
   </si>
   <si>
     <t>Gao, Yuhao and Wang, Haoyu and Li, Li and Luo, Xiapu and Liu, Xuanzhe and Xu, Guoai</t>
   </si>
   <si>
-    <t>gao2021demystifying</t>
-  </si>
-  <si>
     <t>Demystifying Illegal Mobile Gambling Apps</t>
   </si>
   <si>
     <t>The Web Conference 2021 (WWW 2021)</t>
   </si>
   <si>
-    <t>gao22019evolution</t>
-  </si>
-  <si>
-    <t>First Author</t>
-  </si>
-  <si>
-    <t>Corresponding Author</t>
-  </si>
-  <si>
-    <t>CCF A</t>
-  </si>
-  <si>
-    <t>Trans</t>
-  </si>
-  <si>
-    <t>TOPIC</t>
-  </si>
-  <si>
-    <t>隐私泄露检测</t>
-  </si>
-  <si>
-    <t>恶意行为分析</t>
-  </si>
-  <si>
-    <t>重打包分析</t>
-  </si>
-  <si>
-    <t>移动应用缺陷分析</t>
-  </si>
-  <si>
-    <t>第三方库分析</t>
-  </si>
-  <si>
-    <t>移动应用缺陷分析/移动操作系统演化分析</t>
-  </si>
-  <si>
-    <t>移动操作系统演化分析</t>
-  </si>
-  <si>
-    <t>li2021understanding</t>
-  </si>
-  <si>
-    <t>Wen Li, Na Meng, Li Li, Haipeng Cai</t>
-  </si>
-  <si>
-    <t>Li, Wen and Meng, Na and Li, Li and Cai, Haipeng</t>
-  </si>
-  <si>
-    <t>Understanding Language Selection in Multi-Language Software Projects on GitHub</t>
-  </si>
-  <si>
-    <t>The 43rd ACM/IEEE International Conference on Software Engineering, Poster Track (ICSE-Poster 2021)</t>
+    <t>shamsujjoha2021checking</t>
   </si>
   <si>
     <t>Checking App Behavior Against App Descriptions: What If There are No App Descriptions?</t>
   </si>
   <si>
-    <t>shamsujjoha2021checking</t>
+    <t>The 29th IEEE/ACM International Conference on Program Comprehension, RENE Track (ICPC-RENE 2021)</t>
+  </si>
+  <si>
+    <t>zhao2021predicting</t>
+  </si>
+  <si>
+    <t>Kunsong Zhao, Jin Liu, Zhou Xu, Li Li, Meng Yan, Jiaojiao Yu and Yuxuan Zhou</t>
+  </si>
+  <si>
+    <t>Zhao, Kunsong and Liu, Jin and Xu, Zhou and Li, Li and Yan, Meng and Yu, Jiaojiao and Zhou, Yuxuan</t>
+  </si>
+  <si>
+    <t>Predicting Crash Fault Residence via Simplified Deep Forest Based on A Reduced Feature Set</t>
   </si>
   <si>
     <t>The 29th IEEE/ACM International Conference on Program Comprehension (ICPC 2021)</t>
   </si>
   <si>
-    <t>The 29th IEEE/ACM International Conference on Program Comprehension, RENE Track (ICPC-RENE 2021)</t>
-  </si>
-  <si>
-    <t>Kunsong Zhao, Jin Liu, Zhou Xu, Li Li, Meng Yan, Jiaojiao Yu and Yuxuan Zhou</t>
-  </si>
-  <si>
-    <t>zhao2021predicting</t>
-  </si>
-  <si>
-    <t>Zhao, Kunsong and Liu, Jin and Xu, Zhou and Li, Li and Yan, Meng and Yu, Jiaojiao and Zhou, Yuxuan</t>
-  </si>
-  <si>
-    <t>Predicting Crash Fault Residence via Simplified Deep Forest Based on A Reduced Feature Set</t>
+    <t>ren2021unleashing</t>
+  </si>
+  <si>
+    <t>Xiaolei Ren, Michael Ho, Jiang Ming, Jeff Y. Lei, Li Li</t>
+  </si>
+  <si>
+    <t>Ren, Xiaolei and Ho, Michael and Ming, Jiang and Y. Lei, Jeff and Li, Li</t>
   </si>
   <si>
     <t>Unleashing the Hidden Power of Compiler Optimization on Binary Code Difference: An Empirical Study</t>
   </si>
   <si>
-    <t>Xiaolei Ren, Michael Ho, Jiang Ming, Jeff Y. Lei, Li Li</t>
-  </si>
-  <si>
-    <t>Ren, Xiaolei and Ho, Michael and Ming, Jiang and Y. Lei, Jeff and Li, Li</t>
-  </si>
-  <si>
-    <t>ren2021unleashing</t>
-  </si>
-  <si>
     <t>The 42nd ACM SIGPLAN Conference on Programming Language Design and Implementation (PLDI 2021)</t>
   </si>
   <si>
-    <t>通讯作者</t>
-  </si>
-  <si>
-    <t>移动操作系统演化分析，通讯作者</t>
-  </si>
-  <si>
-    <t>隐私泄露检测，通讯作者</t>
-  </si>
-  <si>
-    <t>联合通讯作者</t>
-  </si>
-  <si>
-    <t>恶意行为分析，通讯作者</t>
-  </si>
-  <si>
-    <t>移动应用缺陷分析，通讯作者</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>liu2021first</t>
+  </si>
+  <si>
+    <t>Yonghui Liu, Li Li, Pingfan Kong, Xiaoyu Sun, and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Liu, Yonghui and Li, Li and Kong, Pingfan and Sun, Xiaoyu and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>A First Look at Security Risks of Android TV Apps</t>
+  </si>
+  <si>
+    <t>The 4th International Workshop on Advances in Mobile App Analysis (A-Mobile 2021), co-located with ASE 2021</t>
+  </si>
+  <si>
+    <t>nong2021evaluating</t>
+  </si>
+  <si>
+    <t>Yu Nong, Haipeng Cai, Pengfei Ye, Li Li, Feng Chen</t>
+  </si>
+  <si>
+    <t>Nong, Yu and Cai, Haipeng and Ye, Pengfei and Li, Li and Chen, Feng</t>
   </si>
   <si>
     <t>Evaluating and comparing memory error vulnerability detectors</t>
   </si>
   <si>
-    <t>Yu Nong, Haipeng Cai, Pengfei Ye, Li Li, Feng Chen</t>
-  </si>
-  <si>
-    <t>Nong, Yu and Cai, Haipeng and Ye, Pengfei and Li, Li and Chen, Feng</t>
-  </si>
-  <si>
-    <t>nong2021evaluating</t>
+    <t>zhao2021icon2code</t>
   </si>
   <si>
     <t>Yanjie Zhao, Li Li, Xiaoyu Sun, Pei Liu, John Grundy</t>
   </si>
   <si>
+    <t>Zhao, Yanjie and Li, Li and Sun, Xiaoyu and Liu, Pei and Grundy, John</t>
+  </si>
+  <si>
     <t>Icon2Code: Recommending Code Implementations for Android GUI Components</t>
   </si>
   <si>
-    <t>Zhao, Yanjie and Li, Li and Sun, Xiaoyu and Liu, Pei and Grundy, John</t>
-  </si>
-  <si>
-    <t>zhao2021icon2code</t>
+    <t>li2021embedding</t>
   </si>
   <si>
     <t>Bo Li, Qiang He, Feifei Chen, Xin Xia, Li Li, John Grundy, Yun Yang</t>
   </si>
   <si>
+    <t>Li, Bo and He, Qiang and Chen, Feifei and Xia, Xin and Li, Li and Grundy, John and Yang, Yun</t>
+  </si>
+  <si>
     <t>Embedding App-Library Graph for Neural Third Party Library Recommendation</t>
   </si>
   <si>
-    <t>Li, Bo and He, Qiang and Chen, Feifei and Xia, Xin and Li, Li and Grundy, John and Yang, Yun</t>
-  </si>
-  <si>
     <t>The 29th ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2021)</t>
   </si>
   <si>
-    <t>li2021embedding</t>
+    <t>wang2021timeaware</t>
   </si>
   <si>
     <t>Xin Wang, Xiao Liu, Li Li, Xiao Chen, Jin Liu and Hao Wu</t>
@@ -1501,40 +1535,46 @@
     <t>Wang, Xin and Liu, Xiao and Li, Li and Chen, Xiao and Liu, Jin and Wu, Hao</t>
   </si>
   <si>
-    <t>wang2021timeaware</t>
-  </si>
-  <si>
     <t>Time-aware User Modeling with Check-in Time Prediction for Next POI Recommendation Service</t>
   </si>
   <si>
+    <t>The International Conference on Web Services (ICWS 2021)</t>
+  </si>
+  <si>
+    <t>zhou2021smartgift</t>
+  </si>
+  <si>
     <t>Teng Zhou, Kui Liu, Li Li, Zhe Liu, Jacques Klein and Tegawendé F. Bissyandé</t>
   </si>
   <si>
+    <t>Zhou, Teng and Liu, Kui and Li, Li and Liu, Zhe and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
+    <t>SMARTGIFT: Learning to Generate Practical Inputs for Testing Smart Contracts</t>
+  </si>
+  <si>
+    <t>The 37th International Conference on Software Maintenance and Evolution (ICSME 2021)</t>
+  </si>
+  <si>
+    <t>zhang2021revisiting</t>
+  </si>
+  <si>
     <t>Jingtang Zhang, Kui Liu, Dongsun Kim, Li Li, Zhe Liu, Jacques Klein and Tegawendé F. Bissyandé</t>
   </si>
   <si>
-    <t>SMARTGIFT: Learning to Generate Practical Inputs for Testing Smart Contracts</t>
+    <t>Zhang, Jingtang and Liu, Kui and Kim, Dongsun and Li, Li and Liu, Zhe and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
   </si>
   <si>
     <t xml:space="preserve">Revisiting Test Cases to Boost Generate-and-Validate Program Repair </t>
   </si>
   <si>
-    <t>zhou2021smartgift</t>
-  </si>
-  <si>
-    <t>zhang2021revisiting</t>
-  </si>
-  <si>
-    <t>The 37th International Conference on Software Maintenance and Evolution (ICSME 2021)</t>
-  </si>
-  <si>
-    <t>The International Conference on Web Services (ICWS 2021)</t>
+    <t>shamsujjoha2021developing</t>
   </si>
   <si>
     <t>Developing Mobile Applications via Model Driven Development: A Systematic Literature Review</t>
   </si>
   <si>
-    <t>shamsujjoha2021developing</t>
+    <t>kong2021anchor</t>
   </si>
   <si>
     <t>Pingfan Kong, Li Li, Jun Gao, Timothée Riom, Yanjie Zhao, Tegawendé F. Bissyandé, Jacques Klein</t>
@@ -1543,24 +1583,15 @@
     <t>Kong, Pingfan and Li, Li and Gao, Jun and Riom, Timothée and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
   </si>
   <si>
-    <t>Zhang, Jingtang and Liu, Kui and Kim, Dongsun and Li, Li and Liu, Zhe and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
-  </si>
-  <si>
-    <t>Zhou, Teng and Liu, Kui and Li, Li and Liu, Zhe and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
-  </si>
-  <si>
-    <t>Zhao, Yanjie and Li, Li and Wang, Haoyu and Cai, Haipeng and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques and Grundy, John</t>
-  </si>
-  <si>
-    <t>kong2021anchor</t>
-  </si>
-  <si>
     <t>Anchor: Locating Android Framework-specific Crashing Faults</t>
   </si>
   <si>
     <t>Automated Software Engineering Journal (AUSE)</t>
   </si>
   <si>
+    <t>sun2021characterizing</t>
+  </si>
+  <si>
     <t>Xiaoyu Sun, Xiao Chen, Kui Liu, Sheng Wen, Li Li and John Grundy</t>
   </si>
   <si>
@@ -1573,175 +1604,190 @@
     <t>The 32nd International Symposium on Software Reliability Engineering (ISSRE 2021)</t>
   </si>
   <si>
-    <t>sun2021characterizing</t>
+    <t>obie2021domain</t>
+  </si>
+  <si>
+    <t>Humphrey O. Obie, Mojtaba Shahin, John Grundy, Burak Turhan, Li Li, Waqar Hussain and Jon Whittle</t>
+  </si>
+  <si>
+    <t>Obie, Humphrey and Shahin, Mojtaba and Grundy, John and Turhan, Burak and Li, Li and Hussain, Waqar and Whittle, Jon</t>
+  </si>
+  <si>
+    <t>Does Domain Change the Opinion of Individuals on Human Values? A Preliminary Investigation on eHealth Apps End-users</t>
+  </si>
+  <si>
+    <t>The 28th Asia-Pacific Software Engineering Conference (APSEC), ERA track (APSEC 2021)</t>
+  </si>
+  <si>
+    <t>liu2021privacy</t>
+  </si>
+  <si>
+    <t>Joseph Liu, Man Ho Au, Tsz Hon Yuen, Cong Zuo, Jiawei Wang, Amin Sakzad, Xiapu Luo, Li Li and Kim-Kwang Raymond Choo</t>
+  </si>
+  <si>
+    <t>Liu, Joseph and Au, Man Ho  and Yuen, Tsz Hon and Zuo, Cong and Wang, Jiawei and Sakzad, Amin and Luo, Xiapu and Li, Li and Choo, Kim-kwang Raymond</t>
+  </si>
+  <si>
+    <t>Privacy-Preserving Contact Tracing Protocol for Mobile Devices: A Zero-Knowledge Proof Approach</t>
+  </si>
+  <si>
+    <t>International Conference on Information Security Practice and Experience (ISPEC 2021)</t>
+  </si>
+  <si>
+    <t>zhan2021research</t>
+  </si>
+  <si>
+    <t>Xian Zhan, Tianming Liu, Lingling Fan, Li Li, Sen Chen, Xiapu Luo, Yang Liu</t>
+  </si>
+  <si>
+    <t>Zhan, Xian and Liu, Tianming and Fan, Lingling and Li, Li and Chen, Sen and Luo, Xiapu and Liu, Yang</t>
   </si>
   <si>
     <t>Research on Third-Party Libraries in Android Apps: A Taxonomy and Systematic Literature Review</t>
   </si>
   <si>
-    <t>Xian Zhan, Tianming Liu, Lingling Fan, Li Li, Sen Chen, Xiapu Luo, Yang Liu</t>
-  </si>
-  <si>
-    <t>Zhan, Xian and Liu, Tianming and Fan, Lingling and Li, Li and Chen, Sen and Luo, Xiapu and Liu, Yang</t>
-  </si>
-  <si>
-    <t>zhan2021research</t>
+    <t>zhan2021systematic</t>
+  </si>
+  <si>
+    <t>Xian Zhan, Tianming Liu, Yepang Liu, Yang Liu, Li Li, Haoyu Wang, Xiapu Luo</t>
+  </si>
+  <si>
+    <t>Zhan, Xian and Liu, Tianming and Liu, Yepang and Liu, Yang and Li, Li and Wang, Haoyu and Luo, Xiapu</t>
   </si>
   <si>
     <t>A Systematic Assessment on Android Third-party Library Detection Tools</t>
   </si>
   <si>
-    <t>Xian Zhan, Tianming Liu, Yepang Liu, Yang Liu, Li Li, Haoyu Wang, Xiapu Luo</t>
-  </si>
-  <si>
-    <t>Zhan, Xian and Liu, Tianming and Liu, Yepang and Liu, Yang and Li, Li and Wang, Haoyu and Luo, Xiapu</t>
-  </si>
-  <si>
-    <t>zhan2021systematic</t>
-  </si>
-  <si>
-    <t>Does Domain Change the Opinion of Individuals on Human Values? A Preliminary Investigation on eHealth Apps End-users</t>
-  </si>
-  <si>
-    <t>Humphrey O. Obie, Mojtaba Shahin, John Grundy, Burak Turhan, Li Li, Waqar Hussain and Jon Whittle</t>
-  </si>
-  <si>
-    <t>Obie, Humphrey and Shahin, Mojtaba and Grundy, John and Turhan, Burak and Li, Li and Hussain, Waqar and Whittle, Jon</t>
-  </si>
-  <si>
-    <t>The 28th Asia-Pacific Software Engineering Conference (APSEC), ERA track (APSEC 2021)</t>
-  </si>
-  <si>
-    <t>obie2021domain</t>
-  </si>
-  <si>
-    <t>liu2021privacy</t>
-  </si>
-  <si>
-    <t>Joseph Liu, Man Ho Au, Tsz Hon Yuen, Cong Zuo, Jiawei Wang, Amin Sakzad, Xiapu Luo, Li Li and Kim-Kwang Raymond Choo</t>
-  </si>
-  <si>
-    <t>Liu, Joseph and Au, Man Ho  and Yuen, Tsz Hon and Zuo, Cong and Wang, Jiawei and Sakzad, Amin and Luo, Xiapu and Li, Li and Choo, Kim-kwang Raymond</t>
-  </si>
-  <si>
-    <t>Privacy-Preserving Contact Tracing Protocol for Mobile Devices: A Zero-Knowledge Proof Approach</t>
-  </si>
-  <si>
-    <t>International Conference on Information Security Practice and Experience (ISPEC 2021)</t>
+    <t>croft2022investigation</t>
+  </si>
+  <si>
+    <t>Roland Croft, Muhammad Ali Babar, Li Li</t>
+  </si>
+  <si>
+    <t>Croft, Roland and Ali Babar, Muhammad and Li, Li</t>
+  </si>
+  <si>
+    <t>An Investigation into Inconsistency of Software Vulnerability Severity across Data Sources</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Software Analysis, Evolution and Reengineering (SANER 2022)</t>
+  </si>
+  <si>
+    <t>shahin2022secondary</t>
+  </si>
+  <si>
+    <t>Mojtaba Shahin, Christabel Gonsalvez, Jon Whittle, Chunyang Chen, Li Li, Xin Xia</t>
+  </si>
+  <si>
+    <t>Shahin, Mojtaba and Gonsalvez, Christabel and Whittle, Jon and Chen, Chunyang and Li, Li and Xia, Xin</t>
   </si>
   <si>
     <t>How Secondary School Girls Perceive Computational Thinking Practices through Collaborative Programming with the Micro:bit</t>
   </si>
   <si>
-    <t>Mojtaba Shahin, Christabel Gonsalvez, Jon Whittle, Chunyang Chen, Li Li, Xin Xia</t>
-  </si>
-  <si>
-    <t>Shahin, Mojtaba and Gonsalvez, Christabel and Whittle, Jon and Chen, Chunyang and Li, Li and Xia, Xin</t>
-  </si>
-  <si>
-    <t>shahin2022secondary</t>
+    <t>zhao2022code</t>
+  </si>
+  <si>
+    <t>Code Implementation Recommendation for Android GUI Components</t>
+  </si>
+  <si>
+    <t>The 44th International Conference on Software Engineering, Demonstrations Track (ICSE 2022)</t>
+  </si>
+  <si>
+    <t>zhao2022towards</t>
+  </si>
+  <si>
+    <t>Yanjie Zhao, Li Li, Kui Liu, John Grundy</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Li, Li and Liu, Kui and Grundy, John</t>
+  </si>
+  <si>
+    <t>Towards Automatically Repairing Compatibility Issues in Published Android Apps</t>
+  </si>
+  <si>
+    <t>The 44th International Conference on Software Engineering (ICSE 2022)</t>
+  </si>
+  <si>
+    <t>samhi2022difuzer</t>
+  </si>
+  <si>
+    <t>Jordan Samhi, Li Li, Tegawendé F. Bissyandé, Jacques Klein</t>
+  </si>
+  <si>
+    <t>Samhi, Jordan and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
   </si>
   <si>
     <t>Difuzer: Uncovering Suspicious Hidden Sensitive Operations in Android Apps</t>
   </si>
   <si>
-    <t>The 44th International Conference on Software Engineering (ICSE 2022)</t>
-  </si>
-  <si>
-    <t>samhi2022difuzer</t>
-  </si>
-  <si>
-    <t>Jordan Samhi, Li Li, Tegawendé F. Bissyandé, Jacques Klein</t>
-  </si>
-  <si>
-    <t>Samhi, Jordan and Li, Li and Bissyand{\'e}, Tegawend{\'e} F and Klein, Jacques</t>
+    <t>sun2022importance</t>
+  </si>
+  <si>
+    <t>Zhensu Sun, Li Li, Yan Liu, Xiaoning Du, Li Li</t>
+  </si>
+  <si>
+    <t>Sun, Zhensu and Li, Li and Liu, Yan and Du, Xiaoning and Li, Li</t>
   </si>
   <si>
     <t>On the Importance of Building High-quality Training Datasets for Neural Code Search</t>
   </si>
   <si>
-    <t>Zhensu Sun, Li Li, Yan Liu, Xiaoning Du, Li Li</t>
-  </si>
-  <si>
-    <t>Sun, Zhensu and Li, Li and Liu, Yan and Du, Xiaoning and Li, Li</t>
-  </si>
-  <si>
-    <t>sun2022importance</t>
-  </si>
-  <si>
-    <t>Towards Automatically Repairing Compatibility Issues in Published Android Apps</t>
-  </si>
-  <si>
-    <t>zhao2022towards</t>
-  </si>
-  <si>
-    <t>Yanjie Zhao, Li Li, Kui Liu, John Grundy</t>
-  </si>
-  <si>
-    <t>Zhao, Yanjie and Li, Li and Liu, Kui and Grundy, John</t>
-  </si>
-  <si>
-    <t>Roland Croft, Muhammad Ali Babar, Li Li</t>
-  </si>
-  <si>
-    <t>Croft, Roland and Ali Babar, Muhammad and Li, Li</t>
-  </si>
-  <si>
-    <t>croft2022investigation</t>
-  </si>
-  <si>
-    <t>An Investigation into Inconsistency of Software Vulnerability Severity across Data Sources</t>
-  </si>
-  <si>
-    <t>IEEE International Conference on Software Analysis, Evolution and Reengineering (SANER 2022)</t>
+    <t>xu2022lie</t>
   </si>
   <si>
     <t>Guosheng Xu, Siyi Li, Hao Zhou, Shucen Liu, Yutian Tang, Li Li, Xiapu Luo, Xusheng Xiao, Guoai Xu and Haoyu Wang</t>
   </si>
   <si>
-    <t>xu2022lie</t>
+    <t>Xu, Guosheng and Li, Siyi and Zhou, Hao and Liu, Shucen and Tang, Yutian and Li, Li and Luo, Xiapu and Xiao, Xusheng and Xu, Guoai and Wang, Haoyu</t>
   </si>
   <si>
     <t>Lie to Me: Abusing the Mobile Content Sharing Service for Fun and Profit</t>
   </si>
   <si>
-    <t>Xu, Guosheng and Li, Siyi and Zhou, Hao and Liu, Shucen and Tang, Yutian and Li, Li and Luo, Xiapu and Xiao, Xusheng and Xu, Guoai and Wang, Haoyu</t>
-  </si>
-  <si>
     <t>The ACM Web Conference (WWW 2022)</t>
   </si>
   <si>
+    <t>sun2022coprotector</t>
+  </si>
+  <si>
+    <t>Zhensu Sun, Xiaoning Du, Fu Song, Mingze Ni and Li Li</t>
+  </si>
+  <si>
+    <t>Sun, Zhensu and Du, Xiaoning and Song, Fu and Ni, Mingze and Li, Li</t>
+  </si>
+  <si>
     <t>CoProtector: Protect Open-Source Code against Unauthorized Training Usage with Data Poisoning</t>
   </si>
   <si>
-    <t>Zhensu Sun, Xiaoning Du, Fu Song, Mingze Ni and Li Li</t>
-  </si>
-  <si>
-    <t>Sun, Zhensu and Du, Xiaoning and Song, Fu and Ni, Mingze and Li, Li</t>
-  </si>
-  <si>
-    <t>sun2022coprotector</t>
-  </si>
-  <si>
-    <t>Code Implementation Recommendation for Android GUI Components</t>
-  </si>
-  <si>
-    <t>zhao2022code</t>
-  </si>
-  <si>
-    <t>The 44th International Conference on Software Engineering, Demonstrations Track (ICSE 2022)</t>
+    <t>zhao2022apimatchmaker</t>
+  </si>
+  <si>
+    <t>Yanjie Zhao, Li Li, Haoyu Wang, Qiang He, and John Grundy</t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Li, Li and Wang, Haoyu and He, Qiang and Grundy, John</t>
   </si>
   <si>
     <t>APIMatchmaker: Matching the Right APIs for Supporting the Development of Android Apps</t>
   </si>
   <si>
-    <t>Yanjie Zhao, Li Li, Haoyu Wang, Qiang He, and John Grundy</t>
-  </si>
-  <si>
-    <t>Zhao, Yanjie and Li, Li and Wang, Haoyu and He, Qiang and Grundy, John</t>
-  </si>
-  <si>
-    <t>zhao2022apimatchmaker</t>
+    <t>wang2022codemvp</t>
+  </si>
+  <si>
+    <t>Xin Wang, Yasheng Wang, Yao Wan, Jiawei Wang, Pingyi Zhou, Li Li, Hao Wu, Jin Liu</t>
+  </si>
+  <si>
+    <t>Wang, Xin and Wang, Yasheng and Wan, Yao and Wang, Jiawei and Zhou, Pingyi and Li, Li and Wu, Hao and Liu, Jin</t>
+  </si>
+  <si>
+    <t>CODE-MVP: Learning to Represent Source Code from Multiple Views with Contrastive Pre-Training</t>
+  </si>
+  <si>
+    <t>Findings of the 2022 Annual Conference of the North American Chapter of the Association for Computational Linguistics (NAACL 2022)</t>
+  </si>
+  <si>
+    <t>guo2022modeling</t>
   </si>
   <si>
     <t>Juncai Guo, Jin Liu, Yao Wan, Li Li, Pingyi Zhou</t>
@@ -1756,76 +1802,46 @@
     <t>The 60th Annual Meeting of the Association for Computational Linguistics (ACL 2022)</t>
   </si>
   <si>
-    <t>guo2022modeling</t>
-  </si>
-  <si>
-    <t>Yonghui Liu, Li Li, Pingfan Kong, Xiaoyu Sun, and Tegawendé F. Bissyandé</t>
-  </si>
-  <si>
-    <t>Liu, Yonghui and Li, Li and Kong, Pingfan and Sun, Xiaoyu and Bissyand{\'e}, Tegawend{\'e} F</t>
-  </si>
-  <si>
-    <t>A First Look at Security Risks of Android TV Apps</t>
-  </si>
-  <si>
-    <t>The 4th International Workshop on Advances in Mobile App Analysis (A-Mobile 2021), co-located with ASE 2021</t>
-  </si>
-  <si>
-    <t>liu2021first</t>
+    <t>sawadogo2022sspcatcher</t>
+  </si>
+  <si>
+    <t>Delwende Arthur Sawadogo, Tegawendé F. Bissyandé, Naouel Moha, Kevin Allix, Jacques Klein, Li Li and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Sawadogo, Delwende Arthur and Bissyand{\'e}, Tegawend{\'e} F and Moha, Naouel and Allix, Kevin and Klein, Jacques and Li, Li and Le Traon, Yves</t>
+  </si>
+  <si>
+    <t>SSPCatcher: Learning to Catch Security Patches</t>
+  </si>
+  <si>
+    <t>obie2022violation</t>
+  </si>
+  <si>
+    <t>Humphrey O. Obie, Idowu Ilekura, Hung Du, Mojtaba Shahin, John Grundy, Li Li, Jon Whittle, Burak Turhan</t>
+  </si>
+  <si>
+    <t>Obie, Humphrey and Ilekura, Idowu and Du, Hung and Shahin, Mojtaba and Grundy, John and Li, Li and Whittle, Jon and Turhan, Burak</t>
+  </si>
+  <si>
+    <t>On the Violation of Honesty in Mobile Apps: Automated Detection and Categories</t>
+  </si>
+  <si>
+    <t>The 19th International Conference on Mining Software Repositories (MSR 2022)</t>
+  </si>
+  <si>
+    <t>liu2022customized</t>
+  </si>
+  <si>
+    <t>Pei Liu, Mattia Fazzini, John Grundy, Li Li</t>
+  </si>
+  <si>
+    <t>Liu, Pei and Fazzini, Mattia and Grundy, John and Li, Li</t>
   </si>
   <si>
     <t>Do Customized Android Frameworks Keep Pace with Android?</t>
   </si>
   <si>
-    <t>Pei Liu, Mattia Fazzini, John Grundy, Li Li</t>
-  </si>
-  <si>
-    <t>Liu, Pei and Fazzini, Mattia and Grundy, John and Li, Li</t>
-  </si>
-  <si>
-    <t>The 19th International Conference on Mining Software Repositories (MSR 2022)</t>
-  </si>
-  <si>
-    <t>liu2022customized</t>
-  </si>
-  <si>
-    <t>obie2022violation</t>
-  </si>
-  <si>
-    <t>Humphrey O. Obie, Idowu Ilekura, Hung Du, Mojtaba Shahin, John Grundy, Li Li, Jon Whittle, Burak Turhan</t>
-  </si>
-  <si>
-    <t>Obie, Humphrey and Ilekura, Idowu and Du, Hung and Shahin, Mojtaba and Grundy, John and Li, Li and Whittle, Jon and Turhan, Burak</t>
-  </si>
-  <si>
-    <t>On the Violation of Honesty in Mobile Apps: Automated Detection and Categories</t>
-  </si>
-  <si>
-    <t>CODE-MVP: Learning to Represent Source Code from Multiple Views with Contrastive Pre-Training</t>
-  </si>
-  <si>
-    <t>Xin Wang, Yasheng Wang, Yao Wan, Jiawei Wang, Pingyi Zhou, Li Li, Hao Wu, Jin Liu</t>
-  </si>
-  <si>
-    <t>Wang, Xin and Wang, Yasheng and Wan, Yao and Wang, Jiawei and Zhou, Pingyi and Li, Li and Wu, Hao and Liu, Jin</t>
-  </si>
-  <si>
-    <t>Findings of the 2022 Annual Conference of the North American Chapter of the Association for Computational Linguistics (NAACL 2022)</t>
-  </si>
-  <si>
-    <t>wang2022codemvp</t>
-  </si>
-  <si>
-    <t>SSPCatcher: Learning to Catch Security Patches</t>
-  </si>
-  <si>
-    <t>Delwende Arthur Sawadogo, Tegawendé F. Bissyandé, Naouel Moha, Kevin Allix, Jacques Klein, Li Li and Yves Le Traon</t>
-  </si>
-  <si>
-    <t>Sawadogo, Delwende Arthur and Bissyand{\'e}, Tegawend{\'e} F and Moha, Naouel and Allix, Kevin and Klein, Jacques and Li, Li and Le Traon, Yves</t>
-  </si>
-  <si>
-    <t>sawadogo2022sspcatcher</t>
+    <t>liu2022automatically</t>
   </si>
   <si>
     <t>Pei Liu, Yanjie Zhao, Haipeng Cai, Mattia Fazzini, John Grundy, and Li Li</t>
@@ -1834,13 +1850,13 @@
     <t>Liu, Pei and Zhao, Yanjie and Cai, Haipeng and Fazzini, Mattia and Grundy, John and Li, Li</t>
   </si>
   <si>
-    <t>liu2022automatically</t>
+    <t>Automatically Detecting API-induced Compatibility Issues in Android Apps: A Comparative Analysis (Replicability Study)</t>
   </si>
   <si>
     <t>The ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2022)</t>
   </si>
   <si>
-    <t>Automatically Detecting API-induced Compatibility Issues in Android Apps: A Comparative Analysis (Replicability Study)</t>
+    <t>tang2022how</t>
   </si>
   <si>
     <t>Lihong Tang, Tingmin Wu, Xiao Chen, Li Li, Xin Xia, Marthie Grobler, Yang Xiang</t>
@@ -1855,57 +1871,63 @@
     <t>IEEEE Transactions on Dependable and Secure Computing (TDSC)</t>
   </si>
   <si>
-    <t>tang2022how</t>
-  </si>
-  <si>
-    <t>Student First Supervisor Second</t>
-  </si>
-  <si>
     <t>qin2022peeler</t>
   </si>
   <si>
+    <t>Yihao Qin, Shangwen Wang, Kui Liu, Bo Lin, Hongjun Wu, Li Li, Xiaoguang Mao, and Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t>Qin, Yihao and Wang, Shangwen and Liu, Kui and Lin, Bo and Wu, Hongjun and Li, Li and Mao, Xiaoguang and Bissyand{\'e}, Tegawend{\'e} F</t>
+  </si>
+  <si>
     <t>Peeler: Learning to Effectively Predict Flakiness without Running Tests</t>
   </si>
   <si>
     <t>International Conference on Software Maintenance and Evolution (ICSME 2022)</t>
   </si>
   <si>
-    <t>Yihao Qin, Shangwen Wang, Kui Liu, Bo Lin, Hongjun Wu, Li Li, Xiaoguang Mao, and Tegawendé F. Bissyandé</t>
-  </si>
-  <si>
-    <t>Qin, Yihao and Wang, Shangwen and Liu, Kui and Lin, Bo and Wu, Hongjun and Li, Li and Mao, Xiaoguang and Bissyand{\'e}, Tegawend{\'e} F</t>
+    <t>li2022polyfax</t>
+  </si>
+  <si>
+    <t>Wen Li, Li Li, and Haipeng Cai</t>
+  </si>
+  <si>
+    <t>Li, Wen and Li, Li and Cai, Haipeng</t>
+  </si>
+  <si>
+    <t>PolyFax: A Toolkit for Characterizing Multi-Language Software</t>
+  </si>
+  <si>
+    <t>ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering, Demo Track (ESEC/FSE 2022)</t>
+  </si>
+  <si>
+    <t>li2022vulnerability</t>
+  </si>
+  <si>
+    <t>On the Vulnerability Proneness of Multilingual Code</t>
+  </si>
+  <si>
+    <t>ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2022)</t>
+  </si>
+  <si>
+    <t>gao2022demystifying</t>
   </si>
   <si>
     <t>Yuhao Gao, Guoai Xu, Li Li, Xiapu Luo, Chenyu Wang, and Yulei Sui</t>
   </si>
   <si>
+    <t>Gao, Yuhao and Xu, Guoai and Li, Li and Luo, Xiapu and Wang, Chenyu and Sui, Yulei</t>
+  </si>
+  <si>
     <t>Demystifying the Underground Ecosystem of Account Registration Bots</t>
   </si>
   <si>
-    <t>ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2022)</t>
-  </si>
-  <si>
-    <t>Gao, Yuhao and Xu, Guoai and Li, Li and Luo, Xiapu and Wang, Chenyu and Sui, Yulei</t>
-  </si>
-  <si>
-    <t>gao2022demystifying</t>
-  </si>
-  <si>
-    <t>Li, Wen and Li, Li and Cai, Haipeng</t>
-  </si>
-  <si>
-    <t>On the Vulnerability Proneness of Multilingual Code</t>
-  </si>
-  <si>
-    <t>li2022vulnerability</t>
+    <t>liu2022deep</t>
   </si>
   <si>
     <t>Yue Liu, Chakkrit Tantithamthavorn, Li Li, and Yepang Liu</t>
   </si>
   <si>
-    <t>liu2022deep</t>
-  </si>
-  <si>
     <t>Liu, Yue and Tantithamthavorn, Chakkrit and Li, Li and Liu, Yepang</t>
   </si>
   <si>
@@ -1915,7 +1937,7 @@
     <t>ACM Computing Surveys (CSUR)</t>
   </si>
   <si>
-    <t>Wen Li, Li Li, and Haipeng Cai</t>
+    <t>yan2022crex</t>
   </si>
   <si>
     <t>Dapeng Yan, Kui Liu, Yuqing Niu, Li Li, Zhe Liu, Zhiming Liu, Jacques Klein, and Tegawendé F. Bissyandé</t>
@@ -1924,12 +1946,12 @@
     <t>Yan, Dapeng and Liu, Kui and Niu, Yuqing and Li, Li and Liu, Zhe and Liu, Zhiming and Klein, Jacques and Bissyand{\'e}, Tegawend{\'e} F</t>
   </si>
   <si>
-    <t>yan2022crex</t>
-  </si>
-  <si>
     <t>Crex: Predicting Patch Correctness in Automated Repair of C Programs through Transfer Learning of Execution Semantics</t>
   </si>
   <si>
+    <t>quan2022characterizing</t>
+  </si>
+  <si>
     <t>Haowei Quan, Jiawei Wang, Bo Li, Xiaoning Du, Kui Liu and Li Li</t>
   </si>
   <si>
@@ -1939,16 +1961,10 @@
     <t>Characterizing Python Method Evolution with PyMevol: An Essential Step Towards Enabling Reliable Software Systems</t>
   </si>
   <si>
-    <t>quan2022characterizing</t>
-  </si>
-  <si>
-    <t>PolyFax: A Toolkit for Characterizing Multi-Language Software</t>
-  </si>
-  <si>
-    <t>ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering, Demo Track (ESEC/FSE 2022)</t>
-  </si>
-  <si>
-    <t>li2022polyfax</t>
+    <t>The 33rd IEEE International Symposium on Software Reliability Engineering, Industry Track (ISSRE 2022)</t>
+  </si>
+  <si>
+    <t>liu2022explainable</t>
   </si>
   <si>
     <t>Explainable AI for Android Malware Detection: Towards Understanding Why the Models Perform So Well?</t>
@@ -1957,10 +1973,7 @@
     <t>The 33rd IEEE International Symposium on Software Reliability Engineering (ISSRE 2022)</t>
   </si>
   <si>
-    <t>The 33rd IEEE International Symposium on Software Reliability Engineering, Industry Track (ISSRE 2022)</t>
-  </si>
-  <si>
-    <t>liu2022explainable</t>
+    <t>liu2022first</t>
   </si>
   <si>
     <t>Pei Liu, Xiaoyu Sun, Yanjie Zhao, Yonghui Liu, John Grundy and Li Li</t>
@@ -1972,117 +1985,428 @@
     <t>A First Look at CI/CD Adoptions in Open-Source Android Apps</t>
   </si>
   <si>
-    <t>liu2022first</t>
-  </si>
-  <si>
     <t>The 5th International Workshop on Advances in Mobile App Analysis (A-Mobile 2022), co-located with ASE 2022</t>
   </si>
   <si>
+    <t>sun2022mining</t>
+  </si>
+  <si>
+    <t>Xiaoyu Sun, Xiao Chen, Yanjie Zhao, Pei Liu, John Grundy and Li Li</t>
+  </si>
+  <si>
+    <t>Sun, Xiaoyu and Chen, Xiao and Zhao, Yanjie and Liu, Pei and Grundy, John and Li, Li</t>
+  </si>
+  <si>
     <t>Mining Android API Usage to Generate Unit Test Cases for Pinpointing Compatibility Issues</t>
   </si>
   <si>
-    <t>sun2022mining</t>
-  </si>
-  <si>
-    <t>Xiaoyu Sun, Xiao Chen, Yanjie Zhao, Pei Liu, John Grundy and Li Li</t>
-  </si>
-  <si>
-    <t>Sun, Xiaoyu and Chen, Xiao and Zhao, Yanjie and Liu, Pei and Grundy, John and Li, Li</t>
-  </si>
-  <si>
     <t>The 37th IEEE/ACM International Conference on Automated Software Engineering (ASE 2022)</t>
-  </si>
-  <si>
-    <t>Full Paper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Verdana,Italic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial  "/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF3B3B3B"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial  "/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2090,444 +2414,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="207">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+  <cellStyles count="47">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
+    <cellStyle name="Percent" xfId="46" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2849,111 +3039,114 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L142" sqref="L142"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="Q137" sqref="Q137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3303571428571" customWidth="1"/>
+    <col min="2" max="2" width="22.6607142857143" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="10.8303571428571" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.8303571428571" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="30" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="83.5" customWidth="1"/>
-    <col min="8" max="8" width="138.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="33.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24.1640625" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="24.1640625" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="83.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="107.732142857143" customWidth="1"/>
+    <col min="9" max="9" width="36.1607142857143" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="33.1607142857143" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6607142857143" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.8303571428571" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="24.1607142857143" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8303571428571" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1607142857143" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M1" t="s">
-        <v>399</v>
-      </c>
       <c r="N1" t="s">
-        <v>614</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2962,79 +3155,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3043,36 +3236,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3084,33 +3277,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2016</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3119,27 +3312,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3150,54 +3343,57 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3205,60 +3401,63 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -3270,53 +3469,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>2016</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>2016</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3324,31 +3523,31 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3356,31 +3555,34 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="1:18">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>2017</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3391,42 +3593,42 @@
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2017</v>
@@ -3435,65 +3637,65 @@
         <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -3502,76 +3704,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>2017</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -3579,54 +3781,60 @@
       <c r="N23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -3634,51 +3842,54 @@
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="15.2" spans="1:8">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>2018</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>124</v>
+      <c r="E26" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" ht="15.2" spans="1:14">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>2018</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
         <v>141</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>142</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>143</v>
-      </c>
-      <c r="H27" t="s">
-        <v>144</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3686,31 +3897,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>431</v>
+        <v>144</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>2018</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="K28" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3722,56 +3933,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>2018</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>409</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>2018</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3780,27 +3991,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3808,31 +4019,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>408</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>2018</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -3844,33 +4055,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>2018</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K33" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3879,27 +4090,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" ht="16" spans="1:16">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>2018</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3910,115 +4121,124 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>2018</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>2018</v>
       </c>
       <c r="E36" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K36" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>2018</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="H37" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>428</v>
+        <v>197</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <v>2018</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -4029,86 +4249,86 @@
       <c r="O38">
         <v>1</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>2018</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="H39" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>2018</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="H40" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
-        <v>405</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>2019</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -4119,187 +4339,202 @@
       <c r="P41">
         <v>1</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D42">
         <v>2019</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H42" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D43">
         <v>2019</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>224</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="15.2" spans="1:17">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>2019</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" t="s">
         <v>141</v>
       </c>
-      <c r="F44" t="s">
-        <v>142</v>
-      </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>261</v>
+        <v>227</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>2019</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>227</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="G46" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="H46" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="N46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>434</v>
+        <v>236</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>2019</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="F47" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <v>2019</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F48" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G48" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -4307,60 +4542,63 @@
       <c r="P48">
         <v>1</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <v>2019</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G49" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H49" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="16">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="14" spans="1:17">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>253</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D50">
         <v>2019</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>236</v>
+        <v>256</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4368,31 +4606,34 @@
       <c r="N50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s">
-        <v>406</v>
+        <v>259</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D51">
         <v>2019</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F51" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="H51" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -4401,30 +4642,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>245</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>433</v>
+        <v>264</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>2019</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="H52" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -4441,106 +4682,109 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D53">
         <v>2019</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="H53" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D54">
         <v>2019</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="N54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D55">
         <v>2019</v>
       </c>
       <c r="E55" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F55" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B56" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>2019</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H56" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -4549,30 +4793,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>428</v>
+        <v>289</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D57">
         <v>2019</v>
       </c>
       <c r="E57" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="H57" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -4583,34 +4827,34 @@
       <c r="O57">
         <v>1</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>409</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D58">
         <v>2020</v>
       </c>
       <c r="E58" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -4618,31 +4862,34 @@
       <c r="N58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="Q58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D59">
         <v>2020</v>
       </c>
       <c r="E59" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="F59" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -4651,30 +4898,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>2020</v>
       </c>
       <c r="E60" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="F60" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="H60" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -4683,27 +4930,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D61">
         <v>2020</v>
       </c>
       <c r="E61" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="F61" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -4715,102 +4962,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D62">
         <v>2020</v>
       </c>
       <c r="E62" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="F62" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="H62" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>2020</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="F63" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="H63" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="14">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>2020</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="F64" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>304</v>
+        <v>323</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>305</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>432</v>
+        <v>325</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <v>2020</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>142</v>
+        <v>290</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="H65" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -4825,30 +5072,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>431</v>
+        <v>329</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>2020</v>
       </c>
       <c r="E66" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="H66" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -4863,54 +5110,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D67">
         <v>2020</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F67" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="H67" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="N67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D68">
         <v>2020</v>
       </c>
       <c r="E68" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="H68" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4918,16 +5165,16 @@
       <c r="P68">
         <v>1</v>
       </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="6" t="s">
+      <c r="R68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>13</v>
+      <c r="C69" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D69">
         <v>2020</v>
@@ -4935,191 +5182,191 @@
       <c r="E69" t="s">
         <v>344</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>13</v>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D70">
         <v>2020</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>324</v>
+      <c r="E70" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="N70" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>13</v>
+        <v>351</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D71">
         <v>2020</v>
       </c>
       <c r="E71" t="s">
-        <v>351</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>350</v>
+        <v>356</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
-      <c r="N71" s="6"/>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="6" t="s">
-        <v>327</v>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="B72" t="s">
-        <v>407</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>13</v>
+        <v>253</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D72">
         <v>2020</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>329</v>
+      <c r="E72" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="N72" s="6">
+        <v>361</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N72" s="1">
         <v>1</v>
       </c>
       <c r="P72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>13</v>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D73">
         <v>2020</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>337</v>
+      <c r="E73" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="N73" s="6">
+        <v>366</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N73" s="1">
         <v>1</v>
       </c>
       <c r="P73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>13</v>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D74">
         <v>2020</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>340</v>
+      <c r="E74" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="N74" s="6">
+        <v>370</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N74" s="1">
         <v>1</v>
       </c>
       <c r="P74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="16">
-      <c r="A75" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>13</v>
+    <row r="75" ht="15" spans="1:16">
+      <c r="A75" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D75">
         <v>2020</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>287</v>
+      <c r="E75" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>331</v>
+        <v>373</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N75" s="1">
         <v>1</v>
       </c>
       <c r="P75">
@@ -5127,92 +5374,98 @@
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>75</v>
+      <c r="A76" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D76">
         <v>2020</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>354</v>
+      <c r="E76" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="N76" s="6">
+        <v>377</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>75</v>
+      <c r="A77" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D77">
         <v>2020</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>358</v>
+      <c r="E77" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>236</v>
+        <v>381</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
-      <c r="N77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>75</v>
+      <c r="N77" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D78">
         <v>2020</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>362</v>
+      <c r="E78" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>364</v>
+        <v>386</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
-      <c r="N78" s="6">
+      <c r="N78" s="1">
         <v>1</v>
       </c>
       <c r="O78">
@@ -5221,118 +5474,121 @@
       <c r="P78">
         <v>1</v>
       </c>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>13</v>
+      <c r="R78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D79">
         <v>2021</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>367</v>
+      <c r="E79" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N79" s="6">
+        <v>391</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N79" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>13</v>
+      <c r="A80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D80">
         <v>2021</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>371</v>
+      <c r="E80" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="N80" s="6"/>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>13</v>
+        <v>396</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D81">
         <v>2021</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>377</v>
+      <c r="E81" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="N81" s="6">
+        <v>401</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="N81" s="1">
         <v>1</v>
       </c>
       <c r="P81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>13</v>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D82">
         <v>2021</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>385</v>
+      <c r="E82" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>388</v>
+        <v>407</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="M82">
         <v>1</v>
       </c>
-      <c r="N82" s="6">
+      <c r="N82" s="1">
         <v>1</v>
       </c>
       <c r="O82">
@@ -5342,59 +5598,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="14">
-      <c r="A83" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>13</v>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D83">
         <v>2021</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="G83" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="N83" s="6"/>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="B84" t="s">
-        <v>428</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>13</v>
+        <v>198</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D84">
         <v>2021</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>292</v>
+      <c r="E84" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>381</v>
+        <v>415</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
-      <c r="N84" s="6"/>
+      <c r="N84" s="1"/>
       <c r="O84">
         <v>1</v>
       </c>
@@ -5402,35 +5658,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>75</v>
+    <row r="85" spans="1:18">
+      <c r="A85" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D85">
         <v>2021</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>466</v>
+      <c r="E85" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>364</v>
+        <v>420</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
-      <c r="N85" s="6">
+      <c r="N85" s="1">
         <v>1</v>
       </c>
       <c r="O85">
@@ -5439,36 +5695,36 @@
       <c r="P85">
         <v>1</v>
       </c>
-      <c r="Q85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="6" t="s">
-        <v>394</v>
+      <c r="R85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B86" t="s">
-        <v>404</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D86">
         <v>2021</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>393</v>
+      <c r="E86" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="N86" s="6">
+        <v>424</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N86" s="1">
         <v>1</v>
       </c>
       <c r="P86">
@@ -5476,197 +5732,209 @@
       </c>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>13</v>
+      <c r="A87" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D87">
         <v>2021</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>371</v>
+      <c r="E87" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="N87" s="6">
+        <v>427</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="N87" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:17">
-      <c r="A88" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>13</v>
+      <c r="A88" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D88">
         <v>2021</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>421</v>
+      <c r="E88" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="N88" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>13</v>
+        <v>432</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D89">
         <v>2021</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>425</v>
+      <c r="E89" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="N89" s="6">
+        <v>437</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="N89" s="1">
         <v>1</v>
       </c>
       <c r="P89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>13</v>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D90">
         <v>2021</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>537</v>
+      <c r="E90" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="N90" s="6"/>
+        <v>442</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N90" s="1"/>
       <c r="O90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>75</v>
+      <c r="A91" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D91">
         <v>2021</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>437</v>
+      <c r="E91" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N91" s="6">
+        <v>447</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="6" t="s">
-        <v>442</v>
+      <c r="A92" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>75</v>
+        <v>198</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D92">
         <v>2021</v>
       </c>
       <c r="E92" t="s">
-        <v>439</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>441</v>
+        <v>449</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>228</v>
+        <v>451</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="M92">
         <v>1</v>
       </c>
-      <c r="N92" s="6">
+      <c r="N92" s="1">
         <v>1</v>
       </c>
       <c r="O92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>13</v>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D93">
         <v>2021</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>445</v>
+      <c r="E93" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="N93" s="6">
+        <v>455</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="N93" s="1">
         <v>1</v>
       </c>
       <c r="P93">
@@ -5674,404 +5942,428 @@
       </c>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>13</v>
+      <c r="A94" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D94">
         <v>2021</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>449</v>
+      <c r="E94" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="N94" s="6">
+        <v>460</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>13</v>
+      <c r="A95" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D95">
         <v>2021</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="E95" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="N95" s="6">
+      <c r="H95" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>13</v>
+      <c r="A96" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D96">
         <v>2021</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>464</v>
+      <c r="E96" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="N96" s="6">
+        <v>470</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>75</v>
+      <c r="A97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D97">
         <v>2021</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>371</v>
+      <c r="E97" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N97" s="6">
+        <v>472</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N97" s="1">
         <v>1</v>
       </c>
       <c r="O97">
         <v>1</v>
       </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="6" t="s">
-        <v>467</v>
+      <c r="A98" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="B98" t="s">
-        <v>428</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>75</v>
+        <v>198</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D98">
         <v>2021</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>463</v>
+      <c r="E98" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>469</v>
+        <v>476</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
-      <c r="N98" s="6">
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="6" t="s">
-        <v>474</v>
+      <c r="A99" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="B99" t="s">
-        <v>428</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>13</v>
+        <v>198</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D99">
         <v>2021</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>471</v>
+      <c r="E99" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>473</v>
+        <v>481</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="M99">
         <v>1</v>
       </c>
-      <c r="N99" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>13</v>
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D100">
         <v>2021</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="1" t="s">
         <v>485</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="H100" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="N100" s="6"/>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="6" t="s">
+      <c r="H100" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>13</v>
+      <c r="C101" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D101">
         <v>2021</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="1" t="s">
         <v>490</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="H101" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="N101" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="A102" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>75</v>
+      <c r="N101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D102">
         <v>2021</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>477</v>
+      <c r="E102" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N102" s="6">
+        <v>496</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N102" s="1">
         <v>1</v>
       </c>
       <c r="P102">
         <v>1</v>
       </c>
-      <c r="Q102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>75</v>
+      <c r="R102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D103">
         <v>2021</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>481</v>
+      <c r="E103" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N103" s="6">
+        <v>500</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N103" s="1">
         <v>1</v>
       </c>
       <c r="P103">
         <v>1</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>13</v>
+      <c r="A104" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D104">
         <v>2022</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>511</v>
+      <c r="E104" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="N104" s="6">
+        <v>504</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>75</v>
+      <c r="A105" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D105">
         <v>2022</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>495</v>
+      <c r="E105" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="N105" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106" s="6" t="s">
-        <v>525</v>
+        <v>509</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N105" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="B106" t="s">
-        <v>428</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>13</v>
+        <v>198</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D106">
         <v>2022</v>
       </c>
       <c r="E106" t="s">
-        <v>439</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>441</v>
+        <v>449</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>526</v>
+        <v>511</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="M106">
         <v>1</v>
       </c>
-      <c r="N106" s="6"/>
+      <c r="N106" s="1"/>
       <c r="O106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
-      <c r="A107" s="6" t="s">
-        <v>507</v>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>13</v>
+        <v>198</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D107">
         <v>2022</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>509</v>
+      <c r="E107" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>498</v>
+        <v>516</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="M107">
         <v>1</v>
       </c>
-      <c r="N107" s="6">
+      <c r="N107" s="1">
         <v>1</v>
       </c>
       <c r="O107">
@@ -6081,29 +6373,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
-      <c r="A108" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>13</v>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D108">
         <v>2022</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>501</v>
+      <c r="E108" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="N108" s="6">
+        <v>521</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="N108" s="1">
         <v>1</v>
       </c>
       <c r="O108">
@@ -6113,134 +6405,134 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
-      <c r="A109" s="6" t="s">
-        <v>505</v>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B109" t="s">
-        <v>428</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>13</v>
+        <v>198</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D109">
         <v>2022</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>504</v>
+      <c r="E109" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>498</v>
+        <v>525</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="M109">
         <v>1</v>
       </c>
-      <c r="N109" s="6">
+      <c r="N109" s="1">
         <v>1</v>
       </c>
       <c r="P109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
-      <c r="A110" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>13</v>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D110">
         <v>2022</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>518</v>
+      <c r="E110" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="N110" s="6">
+        <v>529</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="N110" s="1">
         <v>1</v>
       </c>
       <c r="P110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
-      <c r="A111" s="6" t="s">
-        <v>523</v>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="B111" t="s">
-        <v>428</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>13</v>
+        <v>198</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D111">
         <v>2022</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>522</v>
+      <c r="E111" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>519</v>
+        <v>534</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="M111">
         <v>1</v>
       </c>
-      <c r="N111" s="6">
+      <c r="N111" s="1">
         <v>1</v>
       </c>
       <c r="P111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
-      <c r="A112" s="6" t="s">
-        <v>530</v>
+    <row r="112" spans="1:18">
+      <c r="A112" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="B112" t="s">
-        <v>428</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>75</v>
+        <v>198</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D112">
         <v>2022</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>529</v>
+      <c r="E112" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>203</v>
+        <v>538</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="M112">
         <v>1</v>
       </c>
-      <c r="N112" s="6">
+      <c r="N112" s="1">
         <v>1</v>
       </c>
       <c r="O112">
@@ -6249,57 +6541,57 @@
       <c r="P112">
         <v>1</v>
       </c>
-      <c r="Q112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17">
-      <c r="A113" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>13</v>
+      <c r="R112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D113">
         <v>2022</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="N113" s="6"/>
-    </row>
-    <row r="114" spans="1:17">
-      <c r="A114" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>13</v>
+      <c r="E113" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D114">
         <v>2022</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>532</v>
+      <c r="E114" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="N114" s="6">
+        <v>547</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N114" s="1">
         <v>1</v>
       </c>
       <c r="P114">
@@ -6307,426 +6599,447 @@
       </c>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>75</v>
+      <c r="A115" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D115">
         <v>2022</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>557</v>
+      <c r="E115" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="N115" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17">
-      <c r="A116" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>13</v>
+        <v>552</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N115" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D116">
         <v>2022</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>548</v>
+      <c r="E116" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="N116" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17">
-      <c r="A117" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>13</v>
+        <v>556</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="N116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D117">
         <v>2022</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>543</v>
+      <c r="E117" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>544</v>
+        <v>561</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="M117">
         <v>1</v>
       </c>
-      <c r="N117" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17">
-      <c r="A118" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>13</v>
+      <c r="N117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D118">
         <v>2022</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>560</v>
+      <c r="E118" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>562</v>
+        <v>565</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="M118">
         <v>1</v>
       </c>
-      <c r="N118" s="6">
+      <c r="N118" s="1">
         <v>1</v>
       </c>
       <c r="P118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
-      <c r="A119" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>75</v>
+    <row r="119" spans="1:18">
+      <c r="A119" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D119">
         <v>2022</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>565</v>
+      <c r="E119" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>567</v>
+        <v>570</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="M119">
         <v>1</v>
       </c>
-      <c r="N119" s="6">
+      <c r="N119" s="1">
         <v>1</v>
       </c>
       <c r="P119">
         <v>1</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:17">
-      <c r="A120" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>13</v>
+      <c r="A120" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D120">
         <v>2022</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="1" t="s">
         <v>574</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="N120" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
-      <c r="A121" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>13</v>
+        <v>575</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="N120" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D121">
         <v>2022</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="F121" s="6" t="s">
+      <c r="E121" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="N121" s="6"/>
-    </row>
-    <row r="122" spans="1:17">
-      <c r="A122" s="6" t="s">
+      <c r="H121" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>13</v>
+      <c r="C122" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D122">
         <v>2022</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>580</v>
+      <c r="E122" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="N122" s="6">
+        <v>583</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="N122" s="1">
         <v>1</v>
       </c>
       <c r="P122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
-      <c r="A123" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>13</v>
+    <row r="123" spans="1:16">
+      <c r="A123" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D123">
         <v>2022</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>578</v>
+      <c r="E123" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="N123" s="6">
+        <v>588</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="N123" s="1">
         <v>1</v>
       </c>
       <c r="P123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
-      <c r="A124" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>75</v>
+    <row r="124" spans="1:14">
+      <c r="A124" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D124">
         <v>2022</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>585</v>
+      <c r="E124" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>587</v>
+        <v>592</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="M124">
         <v>1</v>
       </c>
-      <c r="N124" s="6">
+      <c r="N124" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>75</v>
+      <c r="A125" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D125">
         <v>2022</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>590</v>
+      <c r="E125" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N125" s="6">
+        <v>597</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126" t="s">
-        <v>596</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>13</v>
+        <v>598</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D126">
         <v>2022</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>594</v>
+      <c r="E126" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="H126" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="N126" s="6"/>
+      <c r="N126" s="1"/>
+      <c r="Q126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>603</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>13</v>
+      <c r="C127" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D127">
         <v>2022</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>585</v>
+      <c r="E127" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>601</v>
+        <v>604</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="M127">
         <v>1</v>
       </c>
-      <c r="N127" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
+      <c r="N127" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>607</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>13</v>
+        <v>606</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D128">
         <v>2022</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>605</v>
+      <c r="E128" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="N128" s="6"/>
-    </row>
-    <row r="129" spans="1:17">
+        <v>609</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
-        <v>610</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>13</v>
+        <v>611</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D129">
         <v>2022</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="F129" s="6" t="s">
+      <c r="E129" s="1" t="s">
         <v>612</v>
       </c>
+      <c r="F129" s="1" t="s">
+        <v>613</v>
+      </c>
       <c r="G129" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="M129">
         <v>1</v>
       </c>
-      <c r="N129" s="6">
+      <c r="N129" s="1">
         <v>1</v>
       </c>
       <c r="P129">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="136" spans="17:17">
+      <c r="Q136">
+        <f>SUM(Q2:Q129)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="12:18">
       <c r="L143">
         <f>SUM(L2:L130)</f>
         <v>29</v>
@@ -6747,13 +7060,14 @@
         <f>SUM(P2:P130)</f>
         <v>45</v>
       </c>
-      <c r="Q143">
-        <f>SUM(Q2:Q130)</f>
+      <c r="R143">
+        <f>SUM(R2:R130)</f>
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="624">
   <si>
     <t>ID</t>
   </si>
@@ -2002,23 +2002,42 @@
   <si>
     <t>The 37th IEEE/ACM International Conference on Automated Software Engineering (ASE 2022)</t>
   </si>
+  <si>
+    <t>tian2022best</t>
+  </si>
+  <si>
+    <t>Haoye Tian, Kui Liu, Yinghua Li, Abdoul Kader Kaboré, Anil Koyuncu, Andrew Habib, Li Li, Junhao Wen, Jacques Klein, Tegawendé F. Bissyandé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tian, Haoye and Liu, Kui and Li, Yinghua and Kaboré Abdoul and Koyuncu, Anil and Habib, Andrew and Li, Li and Wen, Junhao and Klein, Jacques and Bissyandé, Tegawendé F. </t>
+  </si>
+  <si>
+    <t>The Best of Both Worlds: Combining Learned Embeddings with Engineered Features for Accurate Prediction of Correct Patches</t>
+  </si>
+  <si>
+    <t>sun2022demystifying</t>
+  </si>
+  <si>
+    <t>Xiaoyu Sun, Xiao Chen, Li Li, Haipeng Cai, John Grundy, Jordan Samhi, Tegawendé F. Bissyandé and Jacques Klein</t>
+  </si>
+  <si>
+    <t>Sun, Xiaoyu and Chen, Xiao and Li, Li and Cai, Haipeng and Grundy, John and Samhi, Jordan and Bissyandé, Tegawendé F.  and Klein, Jacques</t>
+  </si>
+  <si>
+    <t>Demystifying Hidden Sensitive Operations in Android apps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2055,10 +2074,48 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2069,18 +2126,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2109,44 +2166,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2160,8 +2179,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2169,14 +2212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2212,7 +2247,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2221,7 +2256,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2233,13 +2304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2251,31 +2316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2287,25 +2328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2323,13 +2358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2341,13 +2376,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2359,7 +2430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2371,37 +2442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,30 +2453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2484,7 +2501,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2512,160 +2529,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -2708,11 +2756,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -3047,27 +3097,29 @@
   <sheetPr/>
   <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="Q137" sqref="Q137"/>
+    <sheetView tabSelected="1" topLeftCell="H114" workbookViewId="0">
+      <selection activeCell="R132" sqref="R132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="22.3303571428571" customWidth="1"/>
-    <col min="2" max="2" width="22.6607142857143" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="10.8303571428571" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.8303571428571" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="30" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="83.5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6607142857143" customWidth="1"/>
+    <col min="3" max="4" width="10.8303571428571" customWidth="1"/>
+    <col min="5" max="5" width="30.8303571428571" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="107.732142857143" customWidth="1"/>
-    <col min="9" max="9" width="36.1607142857143" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="33.1607142857143" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6607142857143" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.8303571428571" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1607142857143" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8303571428571" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1607142857143" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="36.1607142857143" customWidth="1"/>
+    <col min="10" max="10" width="33.1607142857143" customWidth="1"/>
+    <col min="11" max="11" width="28.6607142857143" customWidth="1"/>
+    <col min="12" max="12" width="19.8303571428571" customWidth="1"/>
+    <col min="13" max="13" width="24.1607142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8303571428571" customWidth="1"/>
+    <col min="15" max="15" width="24.1607142857143" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3107,7 +3159,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -3116,13 +3168,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3174,7 +3226,7 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
@@ -3273,7 +3325,7 @@
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3308,7 +3360,7 @@
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3465,7 +3517,7 @@
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3581,7 +3633,7 @@
       <c r="G16" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>96</v>
       </c>
       <c r="L16">
@@ -3590,10 +3642,10 @@
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="R16">
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3856,7 +3908,7 @@
       <c r="D26">
         <v>2018</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>135</v>
       </c>
       <c r="F26" t="s">
@@ -3879,7 +3931,7 @@
       <c r="D27">
         <v>2018</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F27" t="s">
@@ -3899,7 +3951,7 @@
       <c r="A28" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C28" t="s">
@@ -3923,13 +3975,13 @@
       <c r="K28" t="s">
         <v>150</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>1</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4007,7 +4059,7 @@
       <c r="F31" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H31" t="s">
@@ -4051,7 +4103,7 @@
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4086,7 +4138,7 @@
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4115,7 +4167,7 @@
       <c r="N34">
         <v>1</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4219,7 +4271,7 @@
       <c r="A38" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C38" t="s">
@@ -4240,7 +4292,7 @@
       <c r="H38" t="s">
         <v>202</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>1</v>
       </c>
       <c r="N38">
@@ -4249,7 +4301,7 @@
       <c r="O38">
         <v>1</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4336,10 +4388,10 @@
       <c r="N41">
         <v>1</v>
       </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="R41">
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4411,7 +4463,7 @@
       <c r="D44">
         <v>2019</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F44" t="s">
@@ -4486,7 +4538,7 @@
       <c r="A47" t="s">
         <v>236</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C47" t="s">
@@ -4504,7 +4556,7 @@
       <c r="G47" t="s">
         <v>240</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>241</v>
       </c>
       <c r="N47">
@@ -4539,10 +4591,10 @@
       <c r="N48">
         <v>1</v>
       </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="R48">
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4594,10 +4646,10 @@
       <c r="F50" t="s">
         <v>255</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="7" t="s">
         <v>257</v>
       </c>
       <c r="L50">
@@ -4629,7 +4681,7 @@
       <c r="F51" t="s">
         <v>261</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="6" t="s">
         <v>262</v>
       </c>
       <c r="H51" t="s">
@@ -4638,7 +4690,7 @@
       <c r="N51">
         <v>1</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4646,7 +4698,7 @@
       <c r="A52" t="s">
         <v>264</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C52" t="s">
@@ -4661,13 +4713,13 @@
       <c r="F52" t="s">
         <v>267</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="6" t="s">
         <v>268</v>
       </c>
       <c r="H52" t="s">
         <v>263</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="1">
         <v>1</v>
       </c>
       <c r="N52">
@@ -4676,7 +4728,7 @@
       <c r="O52">
         <v>1</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4696,7 +4748,7 @@
       <c r="F53" t="s">
         <v>271</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="6" t="s">
         <v>272</v>
       </c>
       <c r="H53" t="s">
@@ -4728,7 +4780,7 @@
       <c r="F54" t="s">
         <v>276</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="6" t="s">
         <v>277</v>
       </c>
       <c r="H54" t="s">
@@ -4754,7 +4806,7 @@
       <c r="F55" t="s">
         <v>281</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="6" t="s">
         <v>282</v>
       </c>
       <c r="H55" t="s">
@@ -4780,7 +4832,7 @@
       <c r="F56" t="s">
         <v>286</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="6" t="s">
         <v>287</v>
       </c>
       <c r="H56" t="s">
@@ -4789,7 +4841,7 @@
       <c r="N56">
         <v>1</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4797,7 +4849,7 @@
       <c r="A57" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C57" t="s">
@@ -4812,13 +4864,13 @@
       <c r="F57" t="s">
         <v>141</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="6" t="s">
         <v>291</v>
       </c>
       <c r="H57" t="s">
         <v>202</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="1">
         <v>1</v>
       </c>
       <c r="N57">
@@ -4827,7 +4879,7 @@
       <c r="O57">
         <v>1</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4850,10 +4902,10 @@
       <c r="F58" t="s">
         <v>158</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="6" t="s">
         <v>295</v>
       </c>
       <c r="L58">
@@ -4885,7 +4937,7 @@
       <c r="F59" t="s">
         <v>298</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="6" t="s">
         <v>299</v>
       </c>
       <c r="H59" t="s">
@@ -4894,7 +4946,7 @@
       <c r="N59">
         <v>1</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4917,7 +4969,7 @@
       <c r="F60" t="s">
         <v>303</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="6" t="s">
         <v>304</v>
       </c>
       <c r="H60" t="s">
@@ -4926,7 +4978,7 @@
       <c r="N60">
         <v>1</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4946,19 +4998,19 @@
       <c r="F61" t="s">
         <v>307</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="6" t="s">
         <v>308</v>
       </c>
       <c r="H61" t="s">
         <v>309</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="1">
         <v>1</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4978,7 +5030,7 @@
       <c r="F62" t="s">
         <v>312</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="6" t="s">
         <v>313</v>
       </c>
       <c r="H62" t="s">
@@ -5001,7 +5053,7 @@
       <c r="F63" t="s">
         <v>317</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="6" t="s">
         <v>318</v>
       </c>
       <c r="H63" t="s">
@@ -5024,10 +5076,10 @@
       <c r="F64" t="s">
         <v>322</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="3" t="s">
         <v>324</v>
       </c>
       <c r="N64">
@@ -5038,7 +5090,7 @@
       <c r="A65" t="s">
         <v>325</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C65" t="s">
@@ -5050,16 +5102,16 @@
       <c r="E65" t="s">
         <v>290</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="6" t="s">
         <v>327</v>
       </c>
       <c r="H65" t="s">
         <v>328</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="1">
         <v>1</v>
       </c>
       <c r="N65">
@@ -5068,7 +5120,7 @@
       <c r="O65">
         <v>1</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5076,7 +5128,7 @@
       <c r="A66" t="s">
         <v>329</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C66" t="s">
@@ -5091,13 +5143,13 @@
       <c r="F66" t="s">
         <v>331</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="6" t="s">
         <v>332</v>
       </c>
       <c r="H66" t="s">
         <v>328</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="1">
         <v>1</v>
       </c>
       <c r="N66">
@@ -5106,7 +5158,7 @@
       <c r="O66">
         <v>1</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5114,7 +5166,7 @@
       <c r="A67" t="s">
         <v>333</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="2"/>
       <c r="C67" t="s">
         <v>92</v>
       </c>
@@ -5127,7 +5179,7 @@
       <c r="F67" t="s">
         <v>335</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="6" t="s">
         <v>336</v>
       </c>
       <c r="H67" t="s">
@@ -5153,7 +5205,7 @@
       <c r="F68" t="s">
         <v>340</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="6" t="s">
         <v>341</v>
       </c>
       <c r="H68" t="s">
@@ -5162,18 +5214,18 @@
       <c r="N68">
         <v>1</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="R68">
+      <c r="P68" s="1">
+        <v>1</v>
+      </c>
+      <c r="R68" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69">
@@ -5182,50 +5234,50 @@
       <c r="E69" t="s">
         <v>344</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D70">
         <v>2020</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71">
@@ -5234,168 +5286,168 @@
       <c r="E71" t="s">
         <v>354</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="2" t="s">
         <v>357</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B72" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72">
         <v>2020</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N72" s="1">
-        <v>1</v>
-      </c>
-      <c r="P72">
+      <c r="N72" s="2">
+        <v>1</v>
+      </c>
+      <c r="P72" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73">
         <v>2020</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N73" s="1">
-        <v>1</v>
-      </c>
-      <c r="P73">
+      <c r="N73" s="2">
+        <v>1</v>
+      </c>
+      <c r="P73" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D74">
         <v>2020</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N74" s="1">
-        <v>1</v>
-      </c>
-      <c r="P74">
+      <c r="N74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:16">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75">
         <v>2020</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75" s="1">
-        <v>1</v>
-      </c>
-      <c r="P75">
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1</v>
+      </c>
+      <c r="P75" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D76">
         <v>2020</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76" s="2">
         <v>1</v>
       </c>
       <c r="Q76">
@@ -5403,34 +5455,34 @@
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D77">
         <v>2020</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77" s="1">
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="2">
         <v>1</v>
       </c>
       <c r="Q77">
@@ -5438,322 +5490,322 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D78">
         <v>2020</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78" s="1">
+      <c r="M78" s="1">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2">
         <v>1</v>
       </c>
       <c r="O78">
         <v>1</v>
       </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="R78">
+      <c r="P78" s="1">
+        <v>1</v>
+      </c>
+      <c r="R78" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79">
         <v>2021</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="N79" s="1">
+      <c r="N79" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D80">
         <v>2021</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="N80" s="1"/>
+      <c r="N80" s="2"/>
       <c r="Q80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D81">
         <v>2021</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N81" s="1">
-        <v>1</v>
-      </c>
-      <c r="P81">
+      <c r="N81" s="2">
+        <v>1</v>
+      </c>
+      <c r="P81" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D82">
         <v>2021</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82" s="1">
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2">
         <v>1</v>
       </c>
       <c r="O82">
         <v>1</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D83">
         <v>2021</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="N83" s="1"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B84" t="s">
         <v>198</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D84">
         <v>2021</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84" s="1"/>
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84">
         <v>1</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D85">
         <v>2021</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85" s="1">
+      <c r="M85" s="1">
+        <v>1</v>
+      </c>
+      <c r="N85" s="2">
         <v>1</v>
       </c>
       <c r="O85">
         <v>1</v>
       </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="R85">
+      <c r="P85" s="1">
+        <v>1</v>
+      </c>
+      <c r="R85" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86">
         <v>2021</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="N86" s="1">
-        <v>1</v>
-      </c>
-      <c r="P86">
+      <c r="N86" s="2">
+        <v>1</v>
+      </c>
+      <c r="P86" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87">
         <v>2021</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="N87" s="1">
+      <c r="N87" s="2">
         <v>1</v>
       </c>
       <c r="Q87">
@@ -5761,28 +5813,28 @@
       </c>
     </row>
     <row r="88" spans="1:17">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D88">
         <v>2021</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N88" s="2">
         <v>1</v>
       </c>
       <c r="Q88">
@@ -5790,84 +5842,84 @@
       </c>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89">
         <v>2021</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="N89" s="1">
-        <v>1</v>
-      </c>
-      <c r="P89">
+      <c r="N89" s="2">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90">
         <v>2021</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="N90" s="1"/>
+      <c r="N90" s="2"/>
       <c r="O90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D91">
         <v>2021</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N91" s="1">
+      <c r="N91" s="2">
         <v>1</v>
       </c>
       <c r="Q91">
@@ -5875,13 +5927,13 @@
       </c>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D92">
@@ -5890,19 +5942,19 @@
       <c r="E92" t="s">
         <v>449</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92" s="1">
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2">
         <v>1</v>
       </c>
       <c r="O92">
@@ -5913,57 +5965,57 @@
       </c>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93">
         <v>2021</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="N93" s="1">
-        <v>1</v>
-      </c>
-      <c r="P93">
+      <c r="N93" s="2">
+        <v>1</v>
+      </c>
+      <c r="P93" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94">
         <v>2021</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="N94" s="1">
+      <c r="N94" s="2">
         <v>1</v>
       </c>
       <c r="Q94">
@@ -5971,28 +6023,28 @@
       </c>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95">
         <v>2021</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="N95" s="1">
+      <c r="N95" s="2">
         <v>1</v>
       </c>
       <c r="Q95">
@@ -6000,28 +6052,28 @@
       </c>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96">
         <v>2021</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="N96" s="1">
+      <c r="N96" s="2">
         <v>1</v>
       </c>
       <c r="Q96">
@@ -6029,28 +6081,28 @@
       </c>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D97">
         <v>2021</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N97" s="1">
+      <c r="N97" s="2">
         <v>1</v>
       </c>
       <c r="O97">
@@ -6061,34 +6113,34 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B98" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D98">
         <v>2021</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98" s="1">
+      <c r="M98" s="1">
+        <v>1</v>
+      </c>
+      <c r="N98" s="2">
         <v>1</v>
       </c>
       <c r="Q98">
@@ -6096,34 +6148,34 @@
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>478</v>
       </c>
       <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99">
         <v>2021</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99" s="1">
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="2">
         <v>1</v>
       </c>
       <c r="Q99">
@@ -6131,142 +6183,142 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D100">
         <v>2021</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="N100" s="1"/>
+      <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D101">
         <v>2021</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="N101" s="1">
+      <c r="N101" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D102">
         <v>2021</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N102" s="1">
-        <v>1</v>
-      </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="R102">
+      <c r="N102" s="2">
+        <v>1</v>
+      </c>
+      <c r="P102" s="1">
+        <v>1</v>
+      </c>
+      <c r="R102" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D103">
         <v>2021</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H103" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N103" s="1">
-        <v>1</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="R103">
+      <c r="N103" s="2">
+        <v>1</v>
+      </c>
+      <c r="P103" s="1">
+        <v>1</v>
+      </c>
+      <c r="R103" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D104">
         <v>2022</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="N104" s="1">
+      <c r="N104" s="2">
         <v>1</v>
       </c>
       <c r="Q104">
@@ -6274,28 +6326,28 @@
       </c>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D105">
         <v>2022</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="N105" s="1">
+      <c r="N105" s="2">
         <v>1</v>
       </c>
       <c r="Q105">
@@ -6303,13 +6355,13 @@
       </c>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B106" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D106">
@@ -6318,309 +6370,309 @@
       <c r="E106" t="s">
         <v>449</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="M106">
-        <v>1</v>
-      </c>
-      <c r="N106" s="1"/>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>513</v>
       </c>
       <c r="B107" t="s">
         <v>198</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107">
         <v>2022</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1">
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="N107" s="2">
         <v>1</v>
       </c>
       <c r="O107">
         <v>1</v>
       </c>
-      <c r="P107">
+      <c r="P107" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108">
         <v>2022</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="N108" s="1">
+      <c r="N108" s="2">
         <v>1</v>
       </c>
       <c r="O108">
         <v>1</v>
       </c>
-      <c r="P108">
+      <c r="P108" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B109" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109">
         <v>2022</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="M109">
-        <v>1</v>
-      </c>
-      <c r="N109" s="1">
-        <v>1</v>
-      </c>
-      <c r="P109">
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="2">
+        <v>1</v>
+      </c>
+      <c r="P109" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D110">
         <v>2022</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H110" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="N110" s="1">
-        <v>1</v>
-      </c>
-      <c r="P110">
+      <c r="N110" s="2">
+        <v>1</v>
+      </c>
+      <c r="P110" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>531</v>
       </c>
       <c r="B111" t="s">
         <v>198</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111">
         <v>2022</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="M111">
-        <v>1</v>
-      </c>
-      <c r="N111" s="1">
-        <v>1</v>
-      </c>
-      <c r="P111">
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="2">
+        <v>1</v>
+      </c>
+      <c r="P111" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>535</v>
       </c>
       <c r="B112" t="s">
         <v>198</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D112">
         <v>2022</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M112">
-        <v>1</v>
-      </c>
-      <c r="N112" s="1">
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="N112" s="2">
         <v>1</v>
       </c>
       <c r="O112">
         <v>1</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-      <c r="R112">
+      <c r="P112" s="1">
+        <v>1</v>
+      </c>
+      <c r="R112" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D113">
         <v>2022</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="N113" s="1"/>
+      <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D114">
         <v>2022</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H114" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="N114" s="1">
-        <v>1</v>
-      </c>
-      <c r="P114">
+      <c r="N114" s="2">
+        <v>1</v>
+      </c>
+      <c r="P114" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D115">
         <v>2022</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="N115" s="1">
+      <c r="N115" s="2">
         <v>1</v>
       </c>
       <c r="Q115">
@@ -6628,150 +6680,150 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D116">
         <v>2022</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H116" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="N116" s="1">
+      <c r="N116" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117">
         <v>2022</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G117" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H117" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="M117">
-        <v>1</v>
-      </c>
-      <c r="N117" s="1">
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="N117" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:16">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118">
         <v>2022</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G118" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H118" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="M118">
-        <v>1</v>
-      </c>
-      <c r="N118" s="1">
-        <v>1</v>
-      </c>
-      <c r="P118">
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+      <c r="N118" s="2">
+        <v>1</v>
+      </c>
+      <c r="P118" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D119">
         <v>2022</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G119" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="H119" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="M119">
-        <v>1</v>
-      </c>
-      <c r="N119" s="1">
-        <v>1</v>
-      </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
-      <c r="R119">
+      <c r="M119" s="1">
+        <v>1</v>
+      </c>
+      <c r="N119" s="2">
+        <v>1</v>
+      </c>
+      <c r="P119" s="1">
+        <v>1</v>
+      </c>
+      <c r="R119" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:17">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120">
         <v>2022</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G120" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="N120" s="1">
+      <c r="N120" s="2">
         <v>1</v>
       </c>
       <c r="Q120">
@@ -6779,139 +6831,139 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D121">
         <v>2022</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="G121" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H121" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="N121" s="1"/>
+      <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:16">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D122">
         <v>2022</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="G122" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H122" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="N122" s="1">
-        <v>1</v>
-      </c>
-      <c r="P122">
+      <c r="N122" s="2">
+        <v>1</v>
+      </c>
+      <c r="P122" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D123">
         <v>2022</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="G123" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H123" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="N123" s="1">
-        <v>1</v>
-      </c>
-      <c r="P123">
+      <c r="N123" s="2">
+        <v>1</v>
+      </c>
+      <c r="P123" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D124">
         <v>2022</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G124" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-      <c r="N124" s="1">
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="N124" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D125">
         <v>2022</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G125" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N125" s="1">
+      <c r="N125" s="2">
         <v>1</v>
       </c>
       <c r="Q125">
@@ -6922,25 +6974,25 @@
       <c r="A126" t="s">
         <v>598</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D126">
         <v>2022</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="G126" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H126" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="N126" s="1"/>
+      <c r="N126" s="2"/>
       <c r="Q126">
         <v>1</v>
       </c>
@@ -6949,28 +7001,28 @@
       <c r="A127" t="s">
         <v>603</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D127">
         <v>2022</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G127" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-      <c r="N127" s="1">
+      <c r="M127" s="1">
+        <v>1</v>
+      </c>
+      <c r="N127" s="2">
         <v>1</v>
       </c>
       <c r="Q127">
@@ -6981,55 +7033,116 @@
       <c r="A128" t="s">
         <v>606</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D128">
         <v>2022</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="N128" s="1"/>
+      <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>611</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D129">
         <v>2022</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G129" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H129" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="N129" s="1">
-        <v>1</v>
-      </c>
-      <c r="P129">
+      <c r="M129" s="1">
+        <v>1</v>
+      </c>
+      <c r="N129" s="2">
+        <v>1</v>
+      </c>
+      <c r="P129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" t="s">
+        <v>616</v>
+      </c>
+      <c r="C130" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130">
+        <v>2022</v>
+      </c>
+      <c r="E130" t="s">
+        <v>617</v>
+      </c>
+      <c r="F130" t="s">
+        <v>618</v>
+      </c>
+      <c r="G130" t="s">
+        <v>619</v>
+      </c>
+      <c r="H130" t="s">
+        <v>342</v>
+      </c>
+      <c r="P130" s="1">
+        <v>1</v>
+      </c>
+      <c r="R130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" t="s">
+        <v>620</v>
+      </c>
+      <c r="C131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131">
+        <v>2022</v>
+      </c>
+      <c r="E131" t="s">
+        <v>621</v>
+      </c>
+      <c r="F131" t="s">
+        <v>622</v>
+      </c>
+      <c r="G131" t="s">
+        <v>623</v>
+      </c>
+      <c r="H131" t="s">
+        <v>342</v>
+      </c>
+      <c r="M131" s="1">
+        <v>1</v>
+      </c>
+      <c r="P131" s="1">
+        <v>1</v>
+      </c>
+      <c r="R131" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7044,7 +7157,7 @@
         <f>SUM(L2:L130)</f>
         <v>29</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="1">
         <f>SUM(M2:M130)</f>
         <v>27</v>
       </c>
@@ -7056,13 +7169,13 @@
         <f>SUM(O2:O130)</f>
         <v>16</v>
       </c>
-      <c r="P143">
+      <c r="P143" s="1">
         <f>SUM(P2:P130)</f>
-        <v>45</v>
-      </c>
-      <c r="R143">
+        <v>46</v>
+      </c>
+      <c r="R143" s="1">
         <f>SUM(R2:R130)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15020" tabRatio="500"/>
+    <workbookView windowWidth="30240" windowHeight="13100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="646">
   <si>
     <t>ID</t>
   </si>
@@ -2026,6 +2026,72 @@
   <si>
     <t>Demystifying Hidden Sensitive Operations in Android apps</t>
   </si>
+  <si>
+    <t>liu2023towards</t>
+  </si>
+  <si>
+    <t>Pei Liu, Qingxin Xia, Kui Liu, Juncai Guo, Xin Wang, Jin Liu, John Grundy and Li Li</t>
+  </si>
+  <si>
+    <t>Liu, Pei and Xia, Qingxin and Liu, Kui and Guo, Juncai and Wang, Xin and Liu, Jin and Grundy, John and Li, Li</t>
+  </si>
+  <si>
+    <t>Towards Automated Android App Internationalisation: An Exploratory Study</t>
+  </si>
+  <si>
+    <t>venkatesh2023enhancing</t>
+  </si>
+  <si>
+    <t>Ashwin Prasad Shivarpatna Venkatesh, Jiawei Wang, Li Li, Eric Bodden</t>
+  </si>
+  <si>
+    <t>Venkatesh, Ashwin Prasad Shivarpatna and Wang, Jiawei and Li, Li and Bodden, Eric</t>
+  </si>
+  <si>
+    <t>Enhancing Comprehension and Navigation in Jupyter Notebooks with Static Analysis</t>
+  </si>
+  <si>
+    <t>The 30th IEEE International Conference on Software Analysis, Evolution and Reengineering (SANER 2023)</t>
+  </si>
+  <si>
+    <t>yu2023finding</t>
+  </si>
+  <si>
+    <t>Xiao Yu, Heng Dai, Li Li, Xiaodong Gu, Jacky Wai Keung, Kwabena Ebo Bennin, Fuyang Li, Jin Liu</t>
+  </si>
+  <si>
+    <t>Yu, Xiao and Dai, Heng and Li, Li and Gu, Xiaodong and Keung, Jacky Wai and Bennin, Kwabena Ebo and Li, Fuyang and Liu, Jin</t>
+  </si>
+  <si>
+    <t>Finding the best learning to rank algorithms for effort-aware defect prediction</t>
+  </si>
+  <si>
+    <t>zhao2023mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanjie Zhao, Tianming Liu, Haoyu Wang, Yepang Liu, John Grundy, and Li Li. </t>
+  </si>
+  <si>
+    <t>Zhao, Yanjie and Liu, Tianming and Wang, Haoyu and Liu, Yepang and Grundy, John and Li, Li</t>
+  </si>
+  <si>
+    <t>Are Mobile Advertisements in Compliance with App’s Age Group?</t>
+  </si>
+  <si>
+    <t>The ACM Web Conference (WWW 2023)</t>
+  </si>
+  <si>
+    <t>sun2023taming</t>
+  </si>
+  <si>
+    <t>Xiaoyu Sun, Xiao Chen, Yonghui Liu, John Grundy and Li Li</t>
+  </si>
+  <si>
+    <t>Sun, Xiaoyu and Chen, Xiao and Liu, Yonghui and Grundy, John and Li, Li</t>
+  </si>
+  <si>
+    <t>Taming Android Fragmentation through Lightweight Crowdsourced Testing</t>
+  </si>
 </sst>
 </file>
 
@@ -2034,10 +2100,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2066,24 +2132,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,14 +2154,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2113,7 +2230,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2127,52 +2258,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2181,7 +2266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2195,25 +2280,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2262,25 +2333,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2292,31 +2381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2334,13 +2411,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,7 +2447,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,43 +2501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,37 +2513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2473,44 +2544,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2526,6 +2562,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2547,161 +2592,187 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2712,6 +2783,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3097,16 +3172,17 @@
   <sheetPr/>
   <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H114" workbookViewId="0">
-      <selection activeCell="R132" sqref="R132"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="22.3303571428571" customWidth="1"/>
     <col min="2" max="2" width="22.6607142857143" customWidth="1"/>
-    <col min="3" max="4" width="10.8303571428571" customWidth="1"/>
-    <col min="5" max="5" width="30.8303571428571" customWidth="1"/>
+    <col min="3" max="3" width="8.91964285714286" customWidth="1"/>
+    <col min="4" max="4" width="10.8303571428571" customWidth="1"/>
+    <col min="5" max="5" width="68.2946428571429" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="107.732142857143" customWidth="1"/>
@@ -7146,10 +7222,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="17:17">
-      <c r="Q136">
-        <f>SUM(Q2:Q129)</f>
-        <v>38</v>
+    <row r="132" s="1" customFormat="1" spans="1:8">
+      <c r="A132" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D132" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="14.4" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="12:18">
@@ -7170,8 +7361,8 @@
         <v>16</v>
       </c>
       <c r="P143" s="1">
-        <f>SUM(P2:P130)</f>
-        <v>46</v>
+        <f>SUM(P2:P142)</f>
+        <v>47</v>
       </c>
       <c r="R143" s="1">
         <f>SUM(R2:R130)</f>

--- a/src/li-publications.xlsx
+++ b/src/li-publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13100" tabRatio="500"/>
+    <workbookView windowWidth="29340" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="661">
   <si>
     <t>ID</t>
   </si>
@@ -2092,16 +2092,61 @@
   <si>
     <t>Taming Android Fragmentation through Lightweight Crowdsourced Testing</t>
   </si>
+  <si>
+    <t>wang2023deep</t>
+  </si>
+  <si>
+    <t>Liu Wang, Haoyu Wang, Huiyi Wang, Li Li, Yi Wang</t>
+  </si>
+  <si>
+    <t>Wang, Liu and Wang, Haoyu and Wang, Huiyi and Li, Li and Wang, Yi</t>
+  </si>
+  <si>
+    <t>A Deep Dive into the Featured iOS Apps</t>
+  </si>
+  <si>
+    <t>The 14th Asia-Pacific Symposium on Internetware (Internetware 2023)</t>
+  </si>
+  <si>
+    <t>zhou2023modelobfuscator</t>
+  </si>
+  <si>
+    <t>ingyi Zhou, Xiang Gao, Jing Wu, John Grundy, Xiao Chen, Chunyang Chen, Li Li</t>
+  </si>
+  <si>
+    <t>Zhou, Mingyi and Gao, Xiang and Wu, Jing and Grundy, John and Chen, Xiao and Chen, Chunyang and Li, Li</t>
+  </si>
+  <si>
+    <t>ModelObfuscator: Obfuscating Model Information to Protect Deployed ML-based Systems</t>
+  </si>
+  <si>
+    <t>The ACM SIGSOFT International Symposium on Software Testing and Analysis (ISSTA 2023)</t>
+  </si>
+  <si>
+    <t>sun2023codemake</t>
+  </si>
+  <si>
+    <t>Zhensu Sun, Xiaoning Du, Fu Song, Li Li</t>
+  </si>
+  <si>
+    <t>Sun, Zhensu and Du, Xiaoning and Song, Fu and Li, Li</t>
+  </si>
+  <si>
+    <t>odeMark: Imperceptible Watermarking for Code Datasets against Neural Code Completion Models</t>
+  </si>
+  <si>
+    <t>The ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (ESEC/FSE 2023)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2146,9 +2191,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2157,13 +2225,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2183,49 +2244,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2243,6 +2281,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -2251,7 +2312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2266,25 +2327,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2333,7 +2378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2345,7 +2390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2357,7 +2408,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2369,25 +2492,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2399,97 +2540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,13 +2558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2524,6 +2569,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2566,15 +2620,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2586,26 +2631,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2624,155 +2649,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2784,6 +2829,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3170,10 +3218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R143"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
@@ -7343,28 +7391,104 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="12:18">
-      <c r="L143">
+    <row r="137" s="1" customFormat="1" ht="14.4" spans="1:8">
+      <c r="A137" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B137" s="8"/>
+      <c r="C137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="14.4" spans="1:8">
+      <c r="A138" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="14.4" spans="1:8">
+      <c r="A139" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="145" spans="12:18">
+      <c r="L145">
         <f>SUM(L2:L130)</f>
         <v>29</v>
       </c>
-      <c r="M143" s="1">
+      <c r="M145" s="1">
         <f>SUM(M2:M130)</f>
         <v>27</v>
       </c>
-      <c r="N143">
+      <c r="N145">
         <f>SUM(N2:N130)</f>
         <v>99</v>
       </c>
-      <c r="O143">
+      <c r="O145">
         <f>SUM(O2:O130)</f>
         <v>16</v>
       </c>
-      <c r="P143" s="1">
-        <f>SUM(P2:P142)</f>
+      <c r="P145" s="1">
+        <f>SUM(P2:P144)</f>
         <v>47</v>
       </c>
-      <c r="R143" s="1">
+      <c r="R145" s="1">
         <f>SUM(R2:R130)</f>
         <v>13</v>
       </c>
